--- a/metabolite_data/lt_dataset2_quantified.xlsx
+++ b/metabolite_data/lt_dataset2_quantified.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\metabolite_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADB509-AF8E-4666-9983-35198BBC5378}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -177,12 +183,15 @@
   <si>
     <t>GTP</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,9 +252,113 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{805C5161-45CB-4FEC-A999-2403B57CE297}" name="Table1" displayName="Table1" ref="A1:P254" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:P254" xr:uid="{A7A98769-8F7C-41E9-A5AC-FDE2D764B1AE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{30CBB2C8-0660-4BD8-8AB3-EE7D12DF13AB}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1A984539-9B16-4641-B4C9-6F575BE27820}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{F65C73B0-B048-4A4E-9A80-7DDEC5C8331C}" name="Sample"/>
+    <tableColumn id="4" xr3:uid="{1F6416DE-48A4-4660-9144-B82BB20AA02E}" name="Ethanol"/>
+    <tableColumn id="5" xr3:uid="{42F2BDC0-AD02-4D8B-BEB0-98C4FAF71785}" name="Timepoint"/>
+    <tableColumn id="6" xr3:uid="{ADE68BBE-1EA0-4C84-B46B-4DFAD14F497B}" name="Time (h)"/>
+    <tableColumn id="7" xr3:uid="{DDBAAD76-2ECB-474A-B772-CDAE0E8E1B2F}" name="Replicate"/>
+    <tableColumn id="8" xr3:uid="{C66BC66A-A695-4C88-BAE3-9599D4625EC2}" name="Maven filename"/>
+    <tableColumn id="9" xr3:uid="{4F0A1831-6CF5-4B29-ADF5-52AF0D8E18B5}" name=" EtOH concentraion (g/L)"/>
+    <tableColumn id="10" xr3:uid="{E4BF717E-E2AB-4502-B8B5-71D2DC582F7B}" name="OD"/>
+    <tableColumn id="11" xr3:uid="{69E10D87-5DA6-4BBE-BCC4-E41D8208B164}" name="sample volume ml"/>
+    <tableColumn id="12" xr3:uid="{C9C6792B-3FFA-4192-A103-C7751E682885}" name="ODxml"/>
+    <tableColumn id="13" xr3:uid="{105B6904-4F4E-4B22-847E-8BDEAED5DDE1}" name="compound"/>
+    <tableColumn id="14" xr3:uid="{7221DC24-9ECF-4CC7-B20B-7539A9FB1C13}" name="peakAreaTop"/>
+    <tableColumn id="15" xr3:uid="{61D5690D-2E76-4439-BA32-BC1278C127F6}" name="amount"/>
+    <tableColumn id="16" xr3:uid="{9D8F025C-3A87-47A2-B62C-342B5A0E3739}" name="amount_int"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +436,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +488,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,14 +681,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131:I254"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -630,13 +799,13 @@
         <v>8703433</v>
       </c>
       <c r="O2">
-        <v>3.400159118985313</v>
+        <v>3.4001591189853131</v>
       </c>
       <c r="P2">
-        <v>217.958917883674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>217.95891788367399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -653,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -680,13 +849,13 @@
         <v>1346292.12</v>
       </c>
       <c r="O3">
-        <v>6.497534942953582</v>
+        <v>6.4975349429535818</v>
       </c>
       <c r="P3">
-        <v>416.5086501893322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>416.50865018933217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -703,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -727,16 +896,16 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>988751.0600000001</v>
+        <v>988751.06</v>
       </c>
       <c r="O4">
         <v>1.833073826570836</v>
       </c>
       <c r="P4">
-        <v>117.5047324724895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>117.50473247248949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -753,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -783,10 +952,10 @@
         <v>12.58289029691948</v>
       </c>
       <c r="P5">
-        <v>806.5955318538132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>806.59553185381321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -803,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -827,16 +996,16 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <v>623393.0600000001</v>
+        <v>623393.06000000006</v>
       </c>
       <c r="O6">
-        <v>0.5348655544104094</v>
+        <v>0.53486555441040939</v>
       </c>
       <c r="P6">
-        <v>34.28625348784676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>34.286253487846757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -880,13 +1049,13 @@
         <v>58503476</v>
       </c>
       <c r="O7">
-        <v>415.1192686811136</v>
+        <v>415.11926868111362</v>
       </c>
       <c r="P7">
-        <v>26610.20953084062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>26610.209530840621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -903,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -930,13 +1099,13 @@
         <v>835066.75</v>
       </c>
       <c r="O8">
-        <v>0.8148781005530294</v>
+        <v>0.81487810055302945</v>
       </c>
       <c r="P8">
-        <v>52.23577567647626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>52.235775676476258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -953,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -980,13 +1149,13 @@
         <v>61429.18</v>
       </c>
       <c r="O9">
-        <v>0.03968448721283053</v>
+        <v>3.9684487212830528E-2</v>
       </c>
       <c r="P9">
-        <v>2.543877385437855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>2.5438773854378551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1003,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1027,16 +1196,16 @@
         <v>39</v>
       </c>
       <c r="N10">
-        <v>84278.32000000001</v>
+        <v>84278.32</v>
       </c>
       <c r="O10">
-        <v>0.04438210060976879</v>
+        <v>4.4382100609768792E-2</v>
       </c>
       <c r="P10">
         <v>2.845006449344154</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1053,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1083,10 +1252,10 @@
         <v>22.69007671458391</v>
       </c>
       <c r="P11">
-        <v>1454.492097088713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>1454.4920970887131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1103,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1130,13 +1299,13 @@
         <v>7305301.5</v>
       </c>
       <c r="O12">
-        <v>7.820901458987474</v>
+        <v>7.8209014589874739</v>
       </c>
       <c r="P12">
-        <v>501.3398371145818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>501.33983711458183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1153,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1180,13 +1349,13 @@
         <v>24945106</v>
       </c>
       <c r="O13">
-        <v>44.94098539495224</v>
+        <v>44.940985394952243</v>
       </c>
       <c r="P13">
-        <v>2880.832397112324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>2880.8323971123241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1203,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1227,16 +1396,16 @@
         <v>43</v>
       </c>
       <c r="N14">
-        <v>38653.36</v>
+        <v>38653.360000000001</v>
       </c>
       <c r="O14">
-        <v>0.1258597607550485</v>
+        <v>0.12585976075504851</v>
       </c>
       <c r="P14">
-        <v>8.067933381733878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>8.0679333817338783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1253,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1280,13 +1449,13 @@
         <v>23424362</v>
       </c>
       <c r="O15">
-        <v>73.62129765677039</v>
+        <v>73.621297656770395</v>
       </c>
       <c r="P15">
-        <v>4719.313952357078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>4719.3139523570781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1303,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1330,13 +1499,13 @@
         <v>12965.7</v>
       </c>
       <c r="O16">
-        <v>0.1090703307546022</v>
+        <v>0.10907033075460219</v>
       </c>
       <c r="P16">
-        <v>6.991687868884756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>6.9916878688847559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1353,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1383,10 +1552,10 @@
         <v>0.6813621439835742</v>
       </c>
       <c r="P17">
-        <v>43.67706051176759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>43.677060511767593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1403,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1430,13 +1599,13 @@
         <v>2345763.5</v>
       </c>
       <c r="O18">
-        <v>6.254929171570163</v>
+        <v>6.2549291715701631</v>
       </c>
       <c r="P18">
-        <v>400.9569981775746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>400.95699817757458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1453,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1480,13 +1649,13 @@
         <v>55651.24</v>
       </c>
       <c r="O19">
-        <v>0.05239568938856033</v>
+        <v>5.2395689388560332E-2</v>
       </c>
       <c r="P19">
-        <v>3.358698037728227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>3.3586980377282272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1503,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1527,16 +1696,16 @@
         <v>49</v>
       </c>
       <c r="N20">
-        <v>719880.3100000001</v>
+        <v>719880.31</v>
       </c>
       <c r="O20">
-        <v>0.80765054561234</v>
+        <v>0.80765054561233995</v>
       </c>
       <c r="P20">
-        <v>51.77247087258591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>51.772470872585913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1553,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1580,13 +1749,13 @@
         <v>10732.57</v>
       </c>
       <c r="O21">
-        <v>0.01086217739072699</v>
+        <v>1.086217739072699E-2</v>
       </c>
       <c r="P21">
         <v>0.6962934224824997</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1603,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1630,13 +1799,13 @@
         <v>1844384.62</v>
       </c>
       <c r="O22">
-        <v>0.3895960785724695</v>
+        <v>0.38959607857246947</v>
       </c>
       <c r="P22">
-        <v>24.97410760079933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>24.974107600799329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1653,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1683,10 +1852,10 @@
         <v>2.862925259824769</v>
       </c>
       <c r="P23">
-        <v>183.5208499887673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>183.52084998876731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1703,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1730,13 +1899,13 @@
         <v>5454995</v>
       </c>
       <c r="O24">
-        <v>2.143402814909418</v>
+        <v>2.1434028149094182</v>
       </c>
       <c r="P24">
-        <v>137.3976163403474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>137.39761634034741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1753,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1777,16 +1946,16 @@
         <v>32</v>
       </c>
       <c r="N25">
-        <v>664678.6899999999</v>
+        <v>664678.68999999994</v>
       </c>
       <c r="O25">
-        <v>3.278003547665652</v>
+        <v>3.2780035476656519</v>
       </c>
       <c r="P25">
-        <v>210.1284325426701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>210.12843254267011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1803,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1830,13 +1999,13 @@
         <v>3026707</v>
       </c>
       <c r="O26">
-        <v>4.939360744734087</v>
+        <v>4.9393607447340866</v>
       </c>
       <c r="P26">
-        <v>316.6256887650057</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>316.62568876500569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1853,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1880,13 +2049,13 @@
         <v>11147725</v>
       </c>
       <c r="O27">
-        <v>16.67576005810665</v>
+        <v>16.675760058106651</v>
       </c>
       <c r="P27">
         <v>1068.95897808376</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1903,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1936,7 +2105,7 @@
         <v>106.1925381440751</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1953,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1980,13 +2149,13 @@
         <v>58143076</v>
       </c>
       <c r="O29">
-        <v>412.4827429377951</v>
+        <v>412.48274293779508</v>
       </c>
       <c r="P29">
-        <v>26441.20147037148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>26441.201470371481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2003,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2027,7 +2196,7 @@
         <v>37</v>
       </c>
       <c r="N30">
-        <v>1192175.12</v>
+        <v>1192175.1200000001</v>
       </c>
       <c r="O30">
         <v>1.117324055705774</v>
@@ -2036,7 +2205,7 @@
         <v>71.62333690421633</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2053,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2080,13 +2249,13 @@
         <v>105322.15</v>
       </c>
       <c r="O31">
-        <v>0.07394440872621141</v>
+        <v>7.3944408726211414E-2</v>
       </c>
       <c r="P31">
-        <v>4.740026200398169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>4.7400262003981686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2103,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2127,16 +2296,16 @@
         <v>39</v>
       </c>
       <c r="N32">
-        <v>137608.92</v>
+        <v>137608.92000000001</v>
       </c>
       <c r="O32">
         <v>0.1014226265867879</v>
       </c>
       <c r="P32">
-        <v>6.501450422229994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>6.5014504222299943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2153,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2180,13 +2349,13 @@
         <v>10653044</v>
       </c>
       <c r="O33">
-        <v>25.84654866475539</v>
+        <v>25.846548664755389</v>
       </c>
       <c r="P33">
-        <v>1656.830042612525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>1656.8300426125249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2203,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2230,13 +2399,13 @@
         <v>10474333</v>
       </c>
       <c r="O34">
-        <v>12.7072681891125</v>
+        <v>12.707268189112501</v>
       </c>
       <c r="P34">
-        <v>814.5684736610577</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>814.56847366105774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2253,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2280,13 +2449,13 @@
         <v>23553810</v>
       </c>
       <c r="O35">
-        <v>42.06719227715194</v>
+        <v>42.067192277151939</v>
       </c>
       <c r="P35">
-        <v>2696.614889561022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>2696.6148895610222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2303,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2330,13 +2499,13 @@
         <v>96892.59</v>
       </c>
       <c r="O36">
-        <v>0.3720590626152848</v>
+        <v>0.37205906261528482</v>
       </c>
       <c r="P36">
-        <v>23.84993991123621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>23.849939911236209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2353,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -2380,13 +2549,13 @@
         <v>25945976</v>
       </c>
       <c r="O37">
-        <v>83.2437656794027</v>
+        <v>83.243765679402699</v>
       </c>
       <c r="P37">
-        <v>5336.138825602739</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>5336.1388256027394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2403,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2430,13 +2599,13 @@
         <v>89730.2</v>
       </c>
       <c r="O38">
-        <v>0.9374427979720918</v>
+        <v>0.93744279797209185</v>
       </c>
       <c r="P38">
         <v>60.09248704949308</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2453,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -2480,13 +2649,13 @@
         <v>38832124</v>
       </c>
       <c r="O39">
-        <v>1.399479270060508</v>
+        <v>1.3994792700605081</v>
       </c>
       <c r="P39">
-        <v>89.71020961926334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>89.710209619263338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2503,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2530,13 +2699,13 @@
         <v>2142917.75</v>
       </c>
       <c r="O40">
-        <v>5.608547528747319</v>
+        <v>5.6085475287473194</v>
       </c>
       <c r="P40">
-        <v>359.5222774838026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>359.52227748380261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -2553,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2577,16 +2746,16 @@
         <v>49</v>
       </c>
       <c r="N41">
-        <v>1290142.88</v>
+        <v>1290142.8799999999</v>
       </c>
       <c r="O41">
-        <v>1.375291010350081</v>
+        <v>1.3752910103500811</v>
       </c>
       <c r="P41">
-        <v>88.15968015064622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>88.159680150646224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -2603,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2630,13 +2799,13 @@
         <v>13236.6</v>
       </c>
       <c r="O42">
-        <v>0.01378558731698187</v>
+        <v>1.378558731698187E-2</v>
       </c>
       <c r="P42">
-        <v>0.8836914946783254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>0.88369149467832542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -2653,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2680,13 +2849,13 @@
         <v>2355612.25</v>
       </c>
       <c r="O43">
-        <v>0.5052568602156898</v>
+        <v>0.50525686021568983</v>
       </c>
       <c r="P43">
-        <v>32.38826027023654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>32.388260270236543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -2703,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2730,13 +2899,13 @@
         <v>3220742.25</v>
       </c>
       <c r="O44">
-        <v>3.288156713893602</v>
+        <v>3.2881567138936019</v>
       </c>
       <c r="P44">
-        <v>210.7792765316412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>210.77927653164119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -2771,22 +2940,22 @@
         <v>7.41</v>
       </c>
       <c r="L45">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M45" t="s">
         <v>31</v>
       </c>
       <c r="N45">
-        <v>746916.0600000001</v>
+        <v>746916.06</v>
       </c>
       <c r="O45">
-        <v>0.3514057288833132</v>
+        <v>0.35140572888331317</v>
       </c>
       <c r="P45">
-        <v>22.51812691732978</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>22.518126917329781</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -2821,7 +2990,7 @@
         <v>7.41</v>
       </c>
       <c r="L46">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M46" t="s">
         <v>32</v>
@@ -2830,13 +2999,13 @@
         <v>14605.25</v>
       </c>
       <c r="O46">
-        <v>0.11597823137371</v>
+        <v>0.11597823137370999</v>
       </c>
       <c r="P46">
-        <v>7.431900845839212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>7.4319008458392117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -2871,7 +3040,7 @@
         <v>7.41</v>
       </c>
       <c r="L47">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M47" t="s">
         <v>33</v>
@@ -2880,13 +3049,13 @@
         <v>3759455</v>
       </c>
       <c r="O47">
-        <v>6.179863346703256</v>
+        <v>6.1798633467032564</v>
       </c>
       <c r="P47">
         <v>396.0064840577117</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -2921,7 +3090,7 @@
         <v>7.41</v>
       </c>
       <c r="L48">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M48" t="s">
         <v>34</v>
@@ -2933,10 +3102,10 @@
         <v>21.10742532488872</v>
       </c>
       <c r="P48">
-        <v>1352.566686588459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>1352.5666865884591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2971,7 +3140,7 @@
         <v>7.41</v>
       </c>
       <c r="L49">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M49" t="s">
         <v>35</v>
@@ -2983,10 +3152,10 @@
         <v>1.480879970106687</v>
       </c>
       <c r="P49">
-        <v>94.89498996547923</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>94.894989965479226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3021,7 +3190,7 @@
         <v>7.41</v>
       </c>
       <c r="L50">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M50" t="s">
         <v>36</v>
@@ -3030,13 +3199,13 @@
         <v>57423696</v>
       </c>
       <c r="O50">
-        <v>407.2200795381601</v>
+        <v>407.22007953816012</v>
       </c>
       <c r="P50">
-        <v>26094.71810111078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>26094.718101110779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3071,7 +3240,7 @@
         <v>7.41</v>
       </c>
       <c r="L51">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M51" t="s">
         <v>37</v>
@@ -3080,13 +3249,13 @@
         <v>493405.03</v>
       </c>
       <c r="O51">
-        <v>0.5035439663544993</v>
+        <v>0.50354396635449927</v>
       </c>
       <c r="P51">
-        <v>32.2671658736429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>32.267165873642902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3121,22 +3290,22 @@
         <v>7.41</v>
       </c>
       <c r="L52">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M52" t="s">
         <v>38</v>
       </c>
       <c r="N52">
-        <v>753735.0600000001</v>
+        <v>753735.06</v>
       </c>
       <c r="O52">
-        <v>0.5729830342347638</v>
+        <v>0.57298303423476382</v>
       </c>
       <c r="P52">
-        <v>36.71683079093881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>36.716830790938808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3171,22 +3340,22 @@
         <v>7.41</v>
       </c>
       <c r="L53">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M53" t="s">
         <v>39</v>
       </c>
       <c r="N53">
-        <v>944541.0600000001</v>
+        <v>944541.06</v>
       </c>
       <c r="O53">
-        <v>0.8136184591338074</v>
+        <v>0.81361845913380737</v>
       </c>
       <c r="P53">
-        <v>52.13678155810899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>52.136781558108993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3221,7 +3390,7 @@
         <v>7.41</v>
       </c>
       <c r="L54">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
@@ -3236,7 +3405,7 @@
         <v>2100.623879881</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3271,7 +3440,7 @@
         <v>7.41</v>
       </c>
       <c r="L55">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M55" t="s">
         <v>41</v>
@@ -3280,13 +3449,13 @@
         <v>26822526</v>
       </c>
       <c r="O55">
-        <v>46.7231589378309</v>
+        <v>46.723158937830902</v>
       </c>
       <c r="P55">
-        <v>2994.026381653018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>2994.0263816530178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3321,7 +3490,7 @@
         <v>7.41</v>
       </c>
       <c r="L56">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M56" t="s">
         <v>42</v>
@@ -3330,13 +3499,13 @@
         <v>29966800</v>
       </c>
       <c r="O56">
-        <v>55.31355144624472</v>
+        <v>55.313551446244723</v>
       </c>
       <c r="P56">
-        <v>3544.499902357555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>3544.4999023575551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -3371,7 +3540,7 @@
         <v>7.41</v>
       </c>
       <c r="L57">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M57" t="s">
         <v>44</v>
@@ -3380,13 +3549,13 @@
         <v>25732086</v>
       </c>
       <c r="O57">
-        <v>82.42756237256793</v>
+        <v>82.427562372567934</v>
       </c>
       <c r="P57">
         <v>5281.969411511609</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -3421,22 +3590,22 @@
         <v>7.41</v>
       </c>
       <c r="L58">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M58" t="s">
         <v>45</v>
       </c>
       <c r="N58">
-        <v>150765.77</v>
+        <v>150765.76999999999</v>
       </c>
       <c r="O58">
         <v>1.423230490802206</v>
       </c>
       <c r="P58">
-        <v>91.20080348815131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>91.200803488151308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>62</v>
       </c>
@@ -3471,7 +3640,7 @@
         <v>7.41</v>
       </c>
       <c r="L59">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M59" t="s">
         <v>46</v>
@@ -3480,13 +3649,13 @@
         <v>42724028</v>
       </c>
       <c r="O59">
-        <v>1.549826436029217</v>
+        <v>1.5498264360292171</v>
       </c>
       <c r="P59">
-        <v>99.31308888230257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>99.313088882302566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>63</v>
       </c>
@@ -3521,22 +3690,22 @@
         <v>7.41</v>
       </c>
       <c r="L60">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M60" t="s">
         <v>47</v>
       </c>
       <c r="N60">
-        <v>972242.3100000001</v>
+        <v>972242.31</v>
       </c>
       <c r="O60">
-        <v>2.501569141709451</v>
+        <v>2.5015691417094512</v>
       </c>
       <c r="P60">
-        <v>160.3008909515933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>160.30089095159329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -3571,7 +3740,7 @@
         <v>7.41</v>
       </c>
       <c r="L61">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M61" t="s">
         <v>48</v>
@@ -3580,13 +3749,13 @@
         <v>41794.31</v>
       </c>
       <c r="O61">
-        <v>0.03684741583921433</v>
+        <v>3.6847415839214331E-2</v>
       </c>
       <c r="P61">
-        <v>2.361187420249985</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>2.3611874202499852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>65</v>
       </c>
@@ -3621,7 +3790,7 @@
         <v>7.41</v>
       </c>
       <c r="L62">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M62" t="s">
         <v>49</v>
@@ -3630,13 +3799,13 @@
         <v>3482159.25</v>
       </c>
       <c r="O62">
-        <v>3.408401107360517</v>
+        <v>3.4084011073605169</v>
       </c>
       <c r="P62">
-        <v>218.4108066894867</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>218.41080668948669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>66</v>
       </c>
@@ -3671,7 +3840,7 @@
         <v>7.41</v>
       </c>
       <c r="L63">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M63" t="s">
         <v>50</v>
@@ -3680,13 +3849,13 @@
         <v>50524.2</v>
       </c>
       <c r="O63">
-        <v>0.05731818874996018</v>
+        <v>5.7318188749960183E-2</v>
       </c>
       <c r="P63">
-        <v>3.672957333520459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>3.6729573335204591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>67</v>
       </c>
@@ -3721,7 +3890,7 @@
         <v>7.41</v>
       </c>
       <c r="L64">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
@@ -3730,13 +3899,13 @@
         <v>426799</v>
       </c>
       <c r="O64">
-        <v>0.0712836693107759</v>
+        <v>7.1283669310775899E-2</v>
       </c>
       <c r="P64">
-        <v>4.567867227930218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>4.5678672279302184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -3771,7 +3940,7 @@
         <v>7.41</v>
       </c>
       <c r="L65">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M65" t="s">
         <v>52</v>
@@ -3783,10 +3952,10 @@
         <v>4.766971253203641</v>
       </c>
       <c r="P65">
-        <v>305.4681664753004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>305.46816647530039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>69</v>
       </c>
@@ -3821,7 +3990,7 @@
         <v>7.41</v>
       </c>
       <c r="L66">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M66" t="s">
         <v>31</v>
@@ -3830,13 +3999,13 @@
         <v>1038694</v>
       </c>
       <c r="O66">
-        <v>0.5040237329704577</v>
+        <v>0.50402373297045766</v>
       </c>
       <c r="P66">
-        <v>32.29790938366813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>32.297909383668127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>70</v>
       </c>
@@ -3871,7 +4040,7 @@
         <v>7.41</v>
       </c>
       <c r="L67">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M67" t="s">
         <v>33</v>
@@ -3880,13 +4049,13 @@
         <v>5896767.5</v>
       </c>
       <c r="O67">
-        <v>9.818921399240541</v>
+        <v>9.8189213992405406</v>
       </c>
       <c r="P67">
-        <v>629.1978191761435</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>629.19781917614353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>71</v>
       </c>
@@ -3921,7 +4090,7 @@
         <v>7.41</v>
       </c>
       <c r="L68">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M68" t="s">
         <v>34</v>
@@ -3930,13 +4099,13 @@
         <v>13095355</v>
       </c>
       <c r="O68">
-        <v>21.02244357025585</v>
+        <v>21.022443570255849</v>
       </c>
       <c r="P68">
-        <v>1347.121044189396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>1347.1210441893959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -3971,7 +4140,7 @@
         <v>7.41</v>
       </c>
       <c r="L69">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M69" t="s">
         <v>35</v>
@@ -3980,13 +4149,13 @@
         <v>4702771.5</v>
       </c>
       <c r="O69">
-        <v>3.054998320825249</v>
+        <v>3.0549983208252489</v>
       </c>
       <c r="P69">
-        <v>195.7647080461101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>195.76470804611009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -4021,7 +4190,7 @@
         <v>7.41</v>
       </c>
       <c r="L70">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M70" t="s">
         <v>36</v>
@@ -4030,13 +4199,13 @@
         <v>53992224</v>
       </c>
       <c r="O70">
-        <v>382.116960044607</v>
+        <v>382.11696004460703</v>
       </c>
       <c r="P70">
-        <v>24486.10678856035</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>24486.106788560352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -4071,7 +4240,7 @@
         <v>7.41</v>
       </c>
       <c r="L71">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M71" t="s">
         <v>37</v>
@@ -4080,13 +4249,13 @@
         <v>369254.62</v>
       </c>
       <c r="O71">
-        <v>0.3785300641170889</v>
+        <v>0.37853006411708889</v>
       </c>
       <c r="P71">
-        <v>24.25625800951006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>24.256258009510059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -4121,22 +4290,22 @@
         <v>7.41</v>
       </c>
       <c r="L72">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M72" t="s">
         <v>38</v>
       </c>
       <c r="N72">
-        <v>1073093.38</v>
+        <v>1073093.3799999999</v>
       </c>
       <c r="O72">
-        <v>0.8002404753922485</v>
+        <v>0.80024047539224852</v>
       </c>
       <c r="P72">
-        <v>51.27951853980905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>51.279518539809047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -4171,22 +4340,22 @@
         <v>7.41</v>
       </c>
       <c r="L73">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
       </c>
       <c r="N73">
-        <v>732305.4399999999</v>
+        <v>732305.44</v>
       </c>
       <c r="O73">
-        <v>0.66035036679526</v>
+        <v>0.66035036679526005</v>
       </c>
       <c r="P73">
-        <v>42.31534134817301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>42.315341348173007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -4221,7 +4390,7 @@
         <v>7.41</v>
       </c>
       <c r="L74">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M74" t="s">
         <v>40</v>
@@ -4230,13 +4399,13 @@
         <v>13666637</v>
       </c>
       <c r="O74">
-        <v>35.20789071391957</v>
+        <v>35.207890713919568</v>
       </c>
       <c r="P74">
         <v>2256.126427155596</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -4271,7 +4440,7 @@
         <v>7.41</v>
       </c>
       <c r="L75">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M75" t="s">
         <v>41</v>
@@ -4280,13 +4449,13 @@
         <v>27504342</v>
       </c>
       <c r="O75">
-        <v>48.14182206266239</v>
+        <v>48.141822062662392</v>
       </c>
       <c r="P75">
         <v>3084.934507708354</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -4321,7 +4490,7 @@
         <v>7.41</v>
       </c>
       <c r="L76">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M76" t="s">
         <v>42</v>
@@ -4330,13 +4499,13 @@
         <v>30573398</v>
       </c>
       <c r="O76">
-        <v>56.56651067107641</v>
+        <v>56.566510671076408</v>
       </c>
       <c r="P76">
         <v>3624.789699956068</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -4371,7 +4540,7 @@
         <v>7.41</v>
       </c>
       <c r="L77">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M77" t="s">
         <v>43</v>
@@ -4380,13 +4549,13 @@
         <v>16870.12</v>
       </c>
       <c r="O77">
-        <v>0.03377374793767478</v>
+        <v>3.3773747937674778E-2</v>
       </c>
       <c r="P77">
-        <v>2.164226362931614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>2.1642263629316139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -4421,7 +4590,7 @@
         <v>7.41</v>
       </c>
       <c r="L78">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M78" t="s">
         <v>44</v>
@@ -4430,13 +4599,13 @@
         <v>24774712</v>
       </c>
       <c r="O78">
-        <v>78.77422736542586</v>
+        <v>78.774227365425858</v>
       </c>
       <c r="P78">
-        <v>5047.863207199651</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>5047.8632071996508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -4471,7 +4640,7 @@
         <v>7.41</v>
       </c>
       <c r="L79">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M79" t="s">
         <v>45</v>
@@ -4480,13 +4649,13 @@
         <v>168009.98</v>
       </c>
       <c r="O79">
-        <v>1.554764577269759</v>
+        <v>1.5547645772697589</v>
       </c>
       <c r="P79">
-        <v>99.62952564485501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>99.629525644855008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>84</v>
       </c>
@@ -4521,7 +4690,7 @@
         <v>7.41</v>
       </c>
       <c r="L80">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M80" t="s">
         <v>46</v>
@@ -4536,7 +4705,7 @@
         <v>106.7304097099771</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>85</v>
       </c>
@@ -4571,7 +4740,7 @@
         <v>7.41</v>
       </c>
       <c r="L81">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M81" t="s">
         <v>47</v>
@@ -4580,13 +4749,13 @@
         <v>950829.75</v>
       </c>
       <c r="O81">
-        <v>2.446962982917545</v>
+        <v>2.4469629829175452</v>
       </c>
       <c r="P81">
-        <v>156.80172086677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+        <v>156.80172086677001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>86</v>
       </c>
@@ -4621,7 +4790,7 @@
         <v>7.41</v>
       </c>
       <c r="L82">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M82" t="s">
         <v>48</v>
@@ -4630,13 +4799,13 @@
         <v>39509.15</v>
       </c>
       <c r="O82">
-        <v>0.03428333470551274</v>
+        <v>3.4283334705512737E-2</v>
       </c>
       <c r="P82">
-        <v>2.196880752346471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>2.1968807523464711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>87</v>
       </c>
@@ -4671,7 +4840,7 @@
         <v>7.41</v>
       </c>
       <c r="L83">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M83" t="s">
         <v>49</v>
@@ -4680,13 +4849,13 @@
         <v>4255836.5</v>
       </c>
       <c r="O83">
-        <v>4.125992020608244</v>
+        <v>4.1259920206082441</v>
       </c>
       <c r="P83">
-        <v>264.3941300421932</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>264.39413004219318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>88</v>
       </c>
@@ -4721,7 +4890,7 @@
         <v>7.41</v>
       </c>
       <c r="L84">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M84" t="s">
         <v>50</v>
@@ -4730,13 +4899,13 @@
         <v>36349.83</v>
       </c>
       <c r="O84">
-        <v>0.04076986706195761</v>
+        <v>4.0769867061957607E-2</v>
       </c>
       <c r="P84">
-        <v>2.612538628272259</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>2.6125386282722589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>89</v>
       </c>
@@ -4771,7 +4940,7 @@
         <v>7.41</v>
       </c>
       <c r="L85">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M85" t="s">
         <v>51</v>
@@ -4780,13 +4949,13 @@
         <v>488809.88</v>
       </c>
       <c r="O85">
-        <v>0.08520793062857748</v>
+        <v>8.5207930628577483E-2</v>
       </c>
       <c r="P85">
-        <v>5.46013578763955</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>5.4601357876395502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>90</v>
       </c>
@@ -4821,7 +4990,7 @@
         <v>7.41</v>
       </c>
       <c r="L86">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M86" t="s">
         <v>52</v>
@@ -4830,13 +4999,13 @@
         <v>5208944.5</v>
       </c>
       <c r="O86">
-        <v>5.425361904474715</v>
+        <v>5.4253619044747152</v>
       </c>
       <c r="P86">
-        <v>347.6579289860546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>347.65792898605463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>91</v>
       </c>
@@ -4853,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="F87">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -4865,28 +5034,28 @@
         <v>40</v>
       </c>
       <c r="J87">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K87">
         <v>6.67</v>
       </c>
       <c r="L87">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M87" t="s">
         <v>31</v>
       </c>
       <c r="N87">
-        <v>599322.4399999999</v>
+        <v>599322.43999999994</v>
       </c>
       <c r="O87">
-        <v>0.2730581033670836</v>
+        <v>0.27305810336708358</v>
       </c>
       <c r="P87">
-        <v>18.09825215821026</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+        <v>18.098252158210261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>92</v>
       </c>
@@ -4903,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="F88">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -4915,13 +5084,13 @@
         <v>40</v>
       </c>
       <c r="J88">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K88">
         <v>6.67</v>
       </c>
       <c r="L88">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M88" t="s">
         <v>32</v>
@@ -4930,13 +5099,13 @@
         <v>10466.16</v>
       </c>
       <c r="O88">
-        <v>0.09172611720306623</v>
+        <v>9.1726117203066226E-2</v>
       </c>
       <c r="P88">
         <v>6.079593969796683</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>93</v>
       </c>
@@ -4953,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="F89">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -4965,13 +5134,13 @@
         <v>40</v>
       </c>
       <c r="J89">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K89">
         <v>6.67</v>
       </c>
       <c r="L89">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
@@ -4983,10 +5152,10 @@
         <v>6.500109394147966</v>
       </c>
       <c r="P89">
-        <v>430.8263238505394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>430.82632385053938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>94</v>
       </c>
@@ -5003,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="F90">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -5015,13 +5184,13 @@
         <v>40</v>
       </c>
       <c r="J90">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K90">
         <v>6.67</v>
       </c>
       <c r="L90">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M90" t="s">
         <v>34</v>
@@ -5033,10 +5202,10 @@
         <v>13.63666137622995</v>
       </c>
       <c r="P90">
-        <v>903.8359716845789</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>903.83597168457891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>95</v>
       </c>
@@ -5053,7 +5222,7 @@
         <v>9</v>
       </c>
       <c r="F91">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -5065,13 +5234,13 @@
         <v>40</v>
       </c>
       <c r="J91">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K91">
         <v>6.67</v>
       </c>
       <c r="L91">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M91" t="s">
         <v>35</v>
@@ -5086,7 +5255,7 @@
         <v>148.4814019831299</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>96</v>
       </c>
@@ -5103,7 +5272,7 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -5115,13 +5284,13 @@
         <v>40</v>
       </c>
       <c r="J92">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K92">
         <v>6.67</v>
       </c>
       <c r="L92">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M92" t="s">
         <v>36</v>
@@ -5130,13 +5299,13 @@
         <v>59674464</v>
       </c>
       <c r="O92">
-        <v>423.6856948939799</v>
+        <v>423.68569489397993</v>
       </c>
       <c r="P92">
         <v>28081.82744794579</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>97</v>
       </c>
@@ -5153,7 +5322,7 @@
         <v>9</v>
       </c>
       <c r="F93">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -5165,13 +5334,13 @@
         <v>40</v>
       </c>
       <c r="J93">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K93">
         <v>6.67</v>
       </c>
       <c r="L93">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M93" t="s">
         <v>37</v>
@@ -5180,13 +5349,13 @@
         <v>360025.5</v>
       </c>
       <c r="O93">
-        <v>0.3692081844968678</v>
+        <v>0.36920818449686782</v>
       </c>
       <c r="P93">
         <v>24.4710658262956</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>98</v>
       </c>
@@ -5203,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="F94">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -5215,13 +5384,13 @@
         <v>40</v>
       </c>
       <c r="J94">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K94">
         <v>6.67</v>
       </c>
       <c r="L94">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M94" t="s">
         <v>38</v>
@@ -5230,13 +5399,13 @@
         <v>1062891</v>
       </c>
       <c r="O94">
-        <v>0.7929803959538413</v>
+        <v>0.79298039595384129</v>
       </c>
       <c r="P94">
-        <v>52.55862757970097</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>52.558627579700968</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>99</v>
       </c>
@@ -5253,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="F95">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -5265,28 +5434,28 @@
         <v>40</v>
       </c>
       <c r="J95">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K95">
         <v>6.67</v>
       </c>
       <c r="L95">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M95" t="s">
         <v>39</v>
       </c>
       <c r="N95">
-        <v>981397.3100000001</v>
+        <v>981397.31</v>
       </c>
       <c r="O95">
-        <v>0.840234571585867</v>
+        <v>0.84023457158586701</v>
       </c>
       <c r="P95">
-        <v>55.69062760303318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+        <v>55.690627603033178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -5303,7 +5472,7 @@
         <v>9</v>
       </c>
       <c r="F96">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -5315,13 +5484,13 @@
         <v>40</v>
       </c>
       <c r="J96">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K96">
         <v>6.67</v>
       </c>
       <c r="L96">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -5330,13 +5499,13 @@
         <v>97515328</v>
       </c>
       <c r="O96">
-        <v>193.8145609999904</v>
+        <v>193.81456099999039</v>
       </c>
       <c r="P96">
-        <v>12846.00146876101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>12846.001468761009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>101</v>
       </c>
@@ -5353,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="F97">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5365,13 +5534,13 @@
         <v>40</v>
       </c>
       <c r="J97">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K97">
         <v>6.67</v>
       </c>
       <c r="L97">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M97" t="s">
         <v>42</v>
@@ -5380,13 +5549,13 @@
         <v>26649942</v>
       </c>
       <c r="O97">
-        <v>48.46241143497404</v>
+        <v>48.462411434974037</v>
       </c>
       <c r="P97">
-        <v>3212.081720079884</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+        <v>3212.0817200798838</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -5403,7 +5572,7 @@
         <v>9</v>
       </c>
       <c r="F98">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -5415,13 +5584,13 @@
         <v>40</v>
       </c>
       <c r="J98">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K98">
         <v>6.67</v>
       </c>
       <c r="L98">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M98" t="s">
         <v>43</v>
@@ -5430,13 +5599,13 @@
         <v>13047.26</v>
       </c>
       <c r="O98">
-        <v>0.01761306959234941</v>
+        <v>1.7613069592349411E-2</v>
       </c>
       <c r="P98">
         <v>1.167391741287805</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -5453,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5465,13 +5634,13 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K99">
         <v>6.67</v>
       </c>
       <c r="L99">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M99" t="s">
         <v>44</v>
@@ -5480,13 +5649,13 @@
         <v>27703890</v>
       </c>
       <c r="O99">
-        <v>89.95195783392661</v>
+        <v>89.951957833926613</v>
       </c>
       <c r="P99">
-        <v>5962.002939771934</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+        <v>5962.0029397719336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -5503,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="F100">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -5515,13 +5684,13 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K100">
         <v>6.67</v>
       </c>
       <c r="L100">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M100" t="s">
         <v>45</v>
@@ -5530,13 +5699,13 @@
         <v>283028.19</v>
       </c>
       <c r="O100">
-        <v>2.432091818093384</v>
+        <v>2.4320918180933839</v>
       </c>
       <c r="P100">
         <v>161.1986989325884</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>106</v>
       </c>
@@ -5553,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="F101">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5565,13 +5734,13 @@
         <v>40</v>
       </c>
       <c r="J101">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K101">
         <v>6.67</v>
       </c>
       <c r="L101">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M101" t="s">
         <v>46</v>
@@ -5580,13 +5749,13 @@
         <v>50879396</v>
       </c>
       <c r="O101">
-        <v>1.864874409008998</v>
+        <v>1.8648744090089979</v>
       </c>
       <c r="P101">
         <v>123.6036099330307</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>107</v>
       </c>
@@ -5603,7 +5772,7 @@
         <v>9</v>
       </c>
       <c r="F102">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -5615,13 +5784,13 @@
         <v>40</v>
       </c>
       <c r="J102">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K102">
         <v>6.67</v>
       </c>
       <c r="L102">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M102" t="s">
         <v>47</v>
@@ -5630,13 +5799,13 @@
         <v>650377</v>
       </c>
       <c r="O102">
-        <v>1.680750508745145</v>
+        <v>1.6807505087451451</v>
       </c>
       <c r="P102">
         <v>111.3999040761546</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>108</v>
       </c>
@@ -5653,7 +5822,7 @@
         <v>9</v>
       </c>
       <c r="F103">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5665,28 +5834,28 @@
         <v>40</v>
       </c>
       <c r="J103">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K103">
         <v>6.67</v>
       </c>
       <c r="L103">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M103" t="s">
         <v>48</v>
       </c>
       <c r="N103">
-        <v>77289.99000000001</v>
+        <v>77289.990000000005</v>
       </c>
       <c r="O103">
-        <v>0.07667561317152748</v>
+        <v>7.6675613171527476E-2</v>
       </c>
       <c r="P103">
-        <v>5.082048708505661</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+        <v>5.0820487085056607</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>109</v>
       </c>
@@ -5703,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="F104">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -5715,13 +5884,13 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K104">
         <v>6.67</v>
       </c>
       <c r="L104">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
@@ -5733,10 +5902,10 @@
         <v>2.792979010444947</v>
       </c>
       <c r="P104">
-        <v>185.1182505859105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+        <v>185.11825058591049</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>110</v>
       </c>
@@ -5753,7 +5922,7 @@
         <v>9</v>
       </c>
       <c r="F105">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -5765,13 +5934,13 @@
         <v>40</v>
       </c>
       <c r="J105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K105">
         <v>6.67</v>
       </c>
       <c r="L105">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M105" t="s">
         <v>50</v>
@@ -5783,10 +5952,10 @@
         <v>0.1079219834223331</v>
       </c>
       <c r="P105">
-        <v>7.153053673583175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+        <v>7.1530536735831749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>111</v>
       </c>
@@ -5803,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="F106">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -5815,28 +5984,28 @@
         <v>40</v>
       </c>
       <c r="J106">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K106">
         <v>6.67</v>
       </c>
       <c r="L106">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M106" t="s">
         <v>51</v>
       </c>
       <c r="N106">
-        <v>333815.97</v>
+        <v>333815.96999999997</v>
       </c>
       <c r="O106">
-        <v>0.05040475245229907</v>
+        <v>5.040475245229907E-2</v>
       </c>
       <c r="P106">
         <v>3.340819805766817</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -5853,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -5865,13 +6034,13 @@
         <v>40</v>
       </c>
       <c r="J107">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K107">
         <v>6.67</v>
       </c>
       <c r="L107">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M107" t="s">
         <v>52</v>
@@ -5880,13 +6049,13 @@
         <v>12313113</v>
       </c>
       <c r="O107">
-        <v>23.82716826402594</v>
+        <v>23.827168264025939</v>
       </c>
       <c r="P107">
         <v>1579.261315232699</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>113</v>
       </c>
@@ -5903,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -5915,28 +6084,28 @@
         <v>40</v>
       </c>
       <c r="J108">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K108">
         <v>6.67</v>
       </c>
       <c r="L108">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M108" t="s">
         <v>31</v>
       </c>
       <c r="N108">
-        <v>752381.9399999999</v>
+        <v>752381.94</v>
       </c>
       <c r="O108">
         <v>0.3543072006363378</v>
       </c>
       <c r="P108">
-        <v>23.48343074062027</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+        <v>23.483430740620271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>114</v>
       </c>
@@ -5953,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="F109">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -5965,13 +6134,13 @@
         <v>40</v>
       </c>
       <c r="J109">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K109">
         <v>6.67</v>
       </c>
       <c r="L109">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M109" t="s">
         <v>32</v>
@@ -5980,13 +6149,13 @@
         <v>11074.24</v>
       </c>
       <c r="O109">
-        <v>0.09528903213965495</v>
+        <v>9.528903213965495E-2</v>
       </c>
       <c r="P109">
-        <v>6.315743463788992</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>6.3157434637889924</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>115</v>
       </c>
@@ -6003,7 +6172,7 @@
         <v>9</v>
       </c>
       <c r="F110">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -6015,13 +6184,13 @@
         <v>40</v>
       </c>
       <c r="J110">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K110">
         <v>6.67</v>
       </c>
       <c r="L110">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M110" t="s">
         <v>33</v>
@@ -6030,13 +6199,13 @@
         <v>5196108.5</v>
       </c>
       <c r="O110">
-        <v>8.625956507100192</v>
+        <v>8.6259565071001916</v>
       </c>
       <c r="P110">
-        <v>571.7271673911183</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+        <v>571.72716739111831</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>116</v>
       </c>
@@ -6053,7 +6222,7 @@
         <v>9</v>
       </c>
       <c r="F111">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -6065,13 +6234,13 @@
         <v>40</v>
       </c>
       <c r="J111">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K111">
         <v>6.67</v>
       </c>
       <c r="L111">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M111" t="s">
         <v>34</v>
@@ -6080,13 +6249,13 @@
         <v>11618692</v>
       </c>
       <c r="O111">
-        <v>17.72685523207007</v>
+        <v>17.726855232070069</v>
       </c>
       <c r="P111">
-        <v>1174.933437264794</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+        <v>1174.9334372647941</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>117</v>
       </c>
@@ -6103,7 +6272,7 @@
         <v>9</v>
       </c>
       <c r="F112">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -6115,13 +6284,13 @@
         <v>40</v>
       </c>
       <c r="J112">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K112">
         <v>6.67</v>
       </c>
       <c r="L112">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M112" t="s">
         <v>35</v>
@@ -6130,13 +6299,13 @@
         <v>5082503</v>
       </c>
       <c r="O112">
-        <v>3.27924491219047</v>
+        <v>3.2792449121904701</v>
       </c>
       <c r="P112">
-        <v>217.3478852212137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+        <v>217.34788522121369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>118</v>
       </c>
@@ -6153,7 +6322,7 @@
         <v>9</v>
       </c>
       <c r="F113">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -6165,13 +6334,13 @@
         <v>40</v>
       </c>
       <c r="J113">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K113">
         <v>6.67</v>
       </c>
       <c r="L113">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M113" t="s">
         <v>36</v>
@@ -6180,13 +6349,13 @@
         <v>53990060</v>
       </c>
       <c r="O113">
-        <v>382.1011291852603</v>
+        <v>382.10112918526028</v>
       </c>
       <c r="P113">
-        <v>25325.60836195035</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+        <v>25325.608361950352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>119</v>
       </c>
@@ -6203,7 +6372,7 @@
         <v>9</v>
       </c>
       <c r="F114">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -6215,13 +6384,13 @@
         <v>40</v>
       </c>
       <c r="J114">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K114">
         <v>6.67</v>
       </c>
       <c r="L114">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M114" t="s">
         <v>37</v>
@@ -6230,13 +6399,13 @@
         <v>378186.25</v>
       </c>
       <c r="O114">
-        <v>0.3875514637383264</v>
+        <v>0.38755146373832638</v>
       </c>
       <c r="P114">
-        <v>25.68685575901217</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+        <v>25.686855759012172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>120</v>
       </c>
@@ -6253,7 +6422,7 @@
         <v>9</v>
       </c>
       <c r="F115">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -6265,13 +6434,13 @@
         <v>40</v>
       </c>
       <c r="J115">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K115">
         <v>6.67</v>
       </c>
       <c r="L115">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M115" t="s">
         <v>38</v>
@@ -6280,13 +6449,13 @@
         <v>1463941.62</v>
       </c>
       <c r="O115">
-        <v>1.086412405439486</v>
+        <v>1.0864124054394859</v>
       </c>
       <c r="P115">
-        <v>72.00725933051285</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+        <v>72.007259330512852</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>121</v>
       </c>
@@ -6303,7 +6472,7 @@
         <v>9</v>
       </c>
       <c r="F116">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -6315,13 +6484,13 @@
         <v>40</v>
       </c>
       <c r="J116">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K116">
         <v>6.67</v>
       </c>
       <c r="L116">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M116" t="s">
         <v>39</v>
@@ -6330,13 +6499,13 @@
         <v>2088560.62</v>
       </c>
       <c r="O116">
-        <v>1.567831208626192</v>
+        <v>1.5678312086261921</v>
       </c>
       <c r="P116">
         <v>103.915628964443</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -6353,7 +6522,7 @@
         <v>9</v>
       </c>
       <c r="F117">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -6365,13 +6534,13 @@
         <v>40</v>
       </c>
       <c r="J117">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K117">
         <v>6.67</v>
       </c>
       <c r="L117">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M117" t="s">
         <v>40</v>
@@ -6380,13 +6549,13 @@
         <v>14645869</v>
       </c>
       <c r="O117">
-        <v>38.24974994888831</v>
+        <v>38.249749948888308</v>
       </c>
       <c r="P117">
         <v>2535.18797291595</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -6403,7 +6572,7 @@
         <v>9</v>
       </c>
       <c r="F118">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -6415,13 +6584,13 @@
         <v>40</v>
       </c>
       <c r="J118">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K118">
         <v>6.67</v>
       </c>
       <c r="L118">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M118" t="s">
         <v>41</v>
@@ -6430,13 +6599,13 @@
         <v>91017952</v>
       </c>
       <c r="O118">
-        <v>180.2953890542381</v>
+        <v>180.29538905423809</v>
       </c>
       <c r="P118">
-        <v>11949.9526797767</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+        <v>11949.952679776699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>124</v>
       </c>
@@ -6453,7 +6622,7 @@
         <v>9</v>
       </c>
       <c r="F119">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -6465,13 +6634,13 @@
         <v>40</v>
       </c>
       <c r="J119">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K119">
         <v>6.67</v>
       </c>
       <c r="L119">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M119" t="s">
         <v>42</v>
@@ -6480,13 +6649,13 @@
         <v>31924550</v>
       </c>
       <c r="O119">
-        <v>59.35738430163533</v>
+        <v>59.357384301635328</v>
       </c>
       <c r="P119">
-        <v>3934.19896826357</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+        <v>3934.1989682635699</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>125</v>
       </c>
@@ -6503,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -6515,13 +6684,13 @@
         <v>40</v>
       </c>
       <c r="J120">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K120">
         <v>6.67</v>
       </c>
       <c r="L120">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M120" t="s">
         <v>43</v>
@@ -6530,13 +6699,13 @@
         <v>81089.13</v>
       </c>
       <c r="O120">
-        <v>0.3052518466033943</v>
+        <v>0.30525184660339427</v>
       </c>
       <c r="P120">
         <v>20.23204886968945</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>126</v>
       </c>
@@ -6553,7 +6722,7 @@
         <v>9</v>
       </c>
       <c r="F121">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -6565,13 +6734,13 @@
         <v>40</v>
       </c>
       <c r="J121">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K121">
         <v>6.67</v>
       </c>
       <c r="L121">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M121" t="s">
         <v>44</v>
@@ -6580,13 +6749,13 @@
         <v>26126074</v>
       </c>
       <c r="O121">
-        <v>83.93101886166613</v>
+        <v>83.931018861666132</v>
       </c>
       <c r="P121">
-        <v>5562.935963163389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+        <v>5562.9359631633888</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>127</v>
       </c>
@@ -6603,7 +6772,7 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -6615,13 +6784,13 @@
         <v>40</v>
       </c>
       <c r="J122">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K122">
         <v>6.67</v>
       </c>
       <c r="L122">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M122" t="s">
         <v>45</v>
@@ -6630,13 +6799,13 @@
         <v>376959.41</v>
       </c>
       <c r="O122">
-        <v>3.148573304544937</v>
+        <v>3.1485733045449371</v>
       </c>
       <c r="P122">
-        <v>208.6869896977863</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+        <v>208.68698969778629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>128</v>
       </c>
@@ -6653,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="F123">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -6665,13 +6834,13 @@
         <v>40</v>
       </c>
       <c r="J123">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K123">
         <v>6.67</v>
       </c>
       <c r="L123">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M123" t="s">
         <v>53</v>
@@ -6680,13 +6849,13 @@
         <v>79260.86</v>
       </c>
       <c r="O123">
-        <v>0.02174548553161315</v>
+        <v>2.1745485531613151E-2</v>
       </c>
       <c r="P123">
-        <v>1.441287680537262</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+        <v>1.4412876805372621</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -6703,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="F124">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6715,13 +6884,13 @@
         <v>40</v>
       </c>
       <c r="J124">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K124">
         <v>6.67</v>
       </c>
       <c r="L124">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M124" t="s">
         <v>46</v>
@@ -6730,13 +6899,13 @@
         <v>48706560</v>
       </c>
       <c r="O124">
-        <v>1.78093612720277</v>
+        <v>1.7809361272027699</v>
       </c>
       <c r="P124">
-        <v>118.0401925829373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+        <v>118.04019258293729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -6753,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="F125">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -6765,13 +6934,13 @@
         <v>40</v>
       </c>
       <c r="J125">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K125">
         <v>6.67</v>
       </c>
       <c r="L125">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M125" t="s">
         <v>47</v>
@@ -6783,10 +6952,10 @@
         <v>2.136093829099734</v>
       </c>
       <c r="P125">
-        <v>141.5799944258465</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+        <v>141.57999442584651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>131</v>
       </c>
@@ -6803,7 +6972,7 @@
         <v>9</v>
       </c>
       <c r="F126">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -6815,13 +6984,13 @@
         <v>40</v>
       </c>
       <c r="J126">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K126">
         <v>6.67</v>
       </c>
       <c r="L126">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M126" t="s">
         <v>48</v>
@@ -6830,13 +6999,13 @@
         <v>79268.91</v>
       </c>
       <c r="O126">
-        <v>0.07889607538734814</v>
+        <v>7.8896075387348136E-2</v>
       </c>
       <c r="P126">
-        <v>5.229220627574022</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+        <v>5.2292206275740218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>132</v>
       </c>
@@ -6853,7 +7022,7 @@
         <v>9</v>
       </c>
       <c r="F127">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -6865,13 +7034,13 @@
         <v>40</v>
       </c>
       <c r="J127">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K127">
         <v>6.67</v>
       </c>
       <c r="L127">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M127" t="s">
         <v>49</v>
@@ -6880,13 +7049,13 @@
         <v>3341242.25</v>
       </c>
       <c r="O127">
-        <v>3.277699631102646</v>
+        <v>3.2776996311026458</v>
       </c>
       <c r="P127">
         <v>217.2454642110408</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -6903,7 +7072,7 @@
         <v>9</v>
       </c>
       <c r="F128">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -6915,13 +7084,13 @@
         <v>40</v>
       </c>
       <c r="J128">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K128">
         <v>6.67</v>
       </c>
       <c r="L128">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M128" t="s">
         <v>50</v>
@@ -6933,10 +7102,10 @@
         <v>0.1263740712913905</v>
       </c>
       <c r="P128">
-        <v>8.37605542662293</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+        <v>8.3760554266229299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -6953,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="F129">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -6965,13 +7134,13 @@
         <v>40</v>
       </c>
       <c r="J129">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K129">
         <v>6.67</v>
       </c>
       <c r="L129">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M129" t="s">
         <v>51</v>
@@ -6980,13 +7149,13 @@
         <v>349938.75</v>
       </c>
       <c r="O129">
-        <v>0.05402504943710924</v>
+        <v>5.4025049437109243E-2</v>
       </c>
       <c r="P129">
-        <v>3.580772573733641</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+        <v>3.5807725737336411</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>135</v>
       </c>
@@ -7003,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="F130">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -7015,13 +7184,13 @@
         <v>40</v>
       </c>
       <c r="J130">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K130">
         <v>6.67</v>
       </c>
       <c r="L130">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M130" t="s">
         <v>52</v>
@@ -7030,13 +7199,13 @@
         <v>12171457</v>
       </c>
       <c r="O130">
-        <v>23.34185376604358</v>
+        <v>23.341853766043581</v>
       </c>
       <c r="P130">
-        <v>1547.094739503165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+        <v>1547.0947395031651</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>136</v>
       </c>
@@ -7053,7 +7222,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -7062,7 +7231,7 @@
         <v>25</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0.21</v>
@@ -7080,13 +7249,13 @@
         <v>7282117.5</v>
       </c>
       <c r="O131">
-        <v>2.850280311168823</v>
+        <v>2.8502803111688229</v>
       </c>
       <c r="P131">
-        <v>174.0097870066437</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+        <v>174.00978700664371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>137</v>
       </c>
@@ -7103,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -7112,7 +7281,7 @@
         <v>25</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0.21</v>
@@ -7130,13 +7299,13 @@
         <v>95931.12</v>
       </c>
       <c r="O132">
-        <v>0.6002942090829747</v>
+        <v>0.60029420908297471</v>
       </c>
       <c r="P132">
-        <v>36.64799811251373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>36.647998112513733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>138</v>
       </c>
@@ -7153,7 +7322,7 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -7162,7 +7331,7 @@
         <v>25</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0.21</v>
@@ -7180,13 +7349,13 @@
         <v>2295541.25</v>
       </c>
       <c r="O133">
-        <v>3.824905540057767</v>
+        <v>3.8249055400577672</v>
       </c>
       <c r="P133">
-        <v>233.5107167312435</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+        <v>233.51071673124349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>139</v>
       </c>
@@ -7203,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7212,7 +7381,7 @@
         <v>25</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0.21</v>
@@ -7233,10 +7402,10 @@
         <v>13.44383550301497</v>
       </c>
       <c r="P134">
-        <v>820.7469782060422</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+        <v>820.74697820604217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>140</v>
       </c>
@@ -7253,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -7262,7 +7431,7 @@
         <v>25</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0.21</v>
@@ -7286,7 +7455,7 @@
         <v>109.1246230318197</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>141</v>
       </c>
@@ -7303,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -7312,7 +7481,7 @@
         <v>25</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0.21</v>
@@ -7330,13 +7499,13 @@
         <v>51708464</v>
       </c>
       <c r="O136">
-        <v>365.4099899237385</v>
+        <v>365.40998992373852</v>
       </c>
       <c r="P136">
-        <v>22308.30219314643</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+        <v>22308.302193146432</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>142</v>
       </c>
@@ -7353,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -7362,7 +7531,7 @@
         <v>25</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0.21</v>
@@ -7380,13 +7549,13 @@
         <v>1154938</v>
       </c>
       <c r="O137">
-        <v>1.088946579021696</v>
+        <v>1.0889465790216959</v>
       </c>
       <c r="P137">
-        <v>66.48025512952967</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
+        <v>66.480255129529667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>143</v>
       </c>
@@ -7403,7 +7572,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -7412,7 +7581,7 @@
         <v>25</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0.21</v>
@@ -7427,16 +7596,16 @@
         <v>38</v>
       </c>
       <c r="N138">
-        <v>99688.92999999999</v>
+        <v>99688.93</v>
       </c>
       <c r="O138">
-        <v>0.06954749334163826</v>
+        <v>6.9547493341638261E-2</v>
       </c>
       <c r="P138">
-        <v>4.245878714385731</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+        <v>4.2458787143857313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>144</v>
       </c>
@@ -7453,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -7462,7 +7631,7 @@
         <v>25</v>
       </c>
       <c r="I139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0.21</v>
@@ -7480,13 +7649,13 @@
         <v>233155.7</v>
       </c>
       <c r="O139">
-        <v>0.2036160875006071</v>
+        <v>0.20361608750060711</v>
       </c>
       <c r="P139">
-        <v>12.43077457268664</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+        <v>12.430774572686641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>145</v>
       </c>
@@ -7503,7 +7672,7 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -7512,7 +7681,7 @@
         <v>25</v>
       </c>
       <c r="I140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0.21</v>
@@ -7530,13 +7699,13 @@
         <v>12311180</v>
       </c>
       <c r="O140">
-        <v>30.99733653160831</v>
+        <v>30.997336531608308</v>
       </c>
       <c r="P140">
         <v>1892.389287643975</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>146</v>
       </c>
@@ -7553,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -7562,7 +7731,7 @@
         <v>25</v>
       </c>
       <c r="I141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0.21</v>
@@ -7586,7 +7755,7 @@
         <v>1159.44079469188</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>147</v>
       </c>
@@ -7603,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -7612,7 +7781,7 @@
         <v>25</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0.21</v>
@@ -7630,13 +7799,13 @@
         <v>28559752</v>
       </c>
       <c r="O142">
-        <v>52.4072217659936</v>
+        <v>52.407221765993597</v>
       </c>
       <c r="P142">
-        <v>3199.464088277998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+        <v>3199.4640882779981</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>148</v>
       </c>
@@ -7653,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -7662,7 +7831,7 @@
         <v>25</v>
       </c>
       <c r="I143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0.21</v>
@@ -7680,13 +7849,13 @@
         <v>772722</v>
       </c>
       <c r="O143">
-        <v>1.888175684789747</v>
+        <v>1.8881756847897471</v>
       </c>
       <c r="P143">
         <v>115.2732408296549</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>149</v>
       </c>
@@ -7703,7 +7872,7 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -7712,7 +7881,7 @@
         <v>25</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0.21</v>
@@ -7730,13 +7899,13 @@
         <v>24294482</v>
       </c>
       <c r="O144">
-        <v>76.94167178058665</v>
+        <v>76.941671780586645</v>
       </c>
       <c r="P144">
-        <v>4697.293759498575</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+        <v>4697.2937594985751</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>150</v>
       </c>
@@ -7753,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -7762,7 +7931,7 @@
         <v>25</v>
       </c>
       <c r="I145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0.21</v>
@@ -7783,10 +7952,10 @@
         <v>1.507365133240834</v>
       </c>
       <c r="P145">
-        <v>92.02473340908634</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+        <v>92.024733409086338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>151</v>
       </c>
@@ -7803,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -7812,7 +7981,7 @@
         <v>25</v>
       </c>
       <c r="I146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0.21</v>
@@ -7827,16 +7996,16 @@
         <v>53</v>
       </c>
       <c r="N146">
-        <v>142650.17</v>
+        <v>142650.17000000001</v>
       </c>
       <c r="O146">
-        <v>0.0716749647454307</v>
+        <v>7.1674964745430697E-2</v>
       </c>
       <c r="P146">
-        <v>4.375760973469519</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+        <v>4.3757609734695189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>152</v>
       </c>
@@ -7853,7 +8022,7 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -7862,7 +8031,7 @@
         <v>25</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0.21</v>
@@ -7880,13 +8049,13 @@
         <v>44341856</v>
       </c>
       <c r="O147">
-        <v>1.612324343178218</v>
+        <v>1.6123243431782179</v>
       </c>
       <c r="P147">
-        <v>98.4324995835298</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>98.432499583529804</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>153</v>
       </c>
@@ -7903,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -7912,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0.21</v>
@@ -7930,13 +8099,13 @@
         <v>2133210.75</v>
       </c>
       <c r="O148">
-        <v>5.577615519538935</v>
+        <v>5.5776155195389352</v>
       </c>
       <c r="P148">
-        <v>340.51376798162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+        <v>340.51376798161999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>155</v>
       </c>
@@ -7953,7 +8122,7 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -7962,7 +8131,7 @@
         <v>25</v>
       </c>
       <c r="I149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0.21</v>
@@ -7980,13 +8149,13 @@
         <v>1513621</v>
       </c>
       <c r="O149">
-        <v>1.582568487129559</v>
+        <v>1.5825684871295591</v>
       </c>
       <c r="P149">
-        <v>96.61590275516234</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
+        <v>96.615902755162338</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>156</v>
       </c>
@@ -8003,7 +8172,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -8012,7 +8181,7 @@
         <v>25</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>0.21</v>
@@ -8030,13 +8199,13 @@
         <v>2216341.75</v>
       </c>
       <c r="O150">
-        <v>0.4731173618882278</v>
+        <v>0.47311736188822778</v>
       </c>
       <c r="P150">
-        <v>28.88384382712014</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+        <v>28.883843827120138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>157</v>
       </c>
@@ -8053,7 +8222,7 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -8062,7 +8231,7 @@
         <v>25</v>
       </c>
       <c r="I151">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0.21</v>
@@ -8080,13 +8249,13 @@
         <v>3541776.75</v>
       </c>
       <c r="O151">
-        <v>3.610875232238239</v>
+        <v>3.6108752322382389</v>
       </c>
       <c r="P151">
         <v>220.4441533722979</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>158</v>
       </c>
@@ -8103,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -8112,7 +8281,7 @@
         <v>26</v>
       </c>
       <c r="I152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0.21</v>
@@ -8130,13 +8299,13 @@
         <v>9640769</v>
       </c>
       <c r="O152">
-        <v>3.762795846864153</v>
+        <v>3.7627958468641531</v>
       </c>
       <c r="P152">
-        <v>229.7189161699727</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+        <v>229.71891616997269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>159</v>
       </c>
@@ -8153,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -8162,7 +8331,7 @@
         <v>26</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>0.21</v>
@@ -8177,16 +8346,16 @@
         <v>32</v>
       </c>
       <c r="N153">
-        <v>156342.64</v>
+        <v>156342.64000000001</v>
       </c>
       <c r="O153">
-        <v>0.9841309093447754</v>
+        <v>0.98413090934477543</v>
       </c>
       <c r="P153">
-        <v>60.08125209675065</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+        <v>60.081252096750653</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>160</v>
       </c>
@@ -8203,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -8212,7 +8381,7 @@
         <v>26</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0.21</v>
@@ -8230,13 +8399,13 @@
         <v>3925079.25</v>
       </c>
       <c r="O154">
-        <v>6.461860602910736</v>
+        <v>6.4618606029107362</v>
       </c>
       <c r="P154">
-        <v>394.4969843046848</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+        <v>394.49698430468482</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>161</v>
       </c>
@@ -8253,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -8262,7 +8431,7 @@
         <v>26</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>0.21</v>
@@ -8283,10 +8452,10 @@
         <v>15.86521739275986</v>
       </c>
       <c r="P155">
-        <v>968.5724904004799</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+        <v>968.57249040047986</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>162</v>
       </c>
@@ -8303,7 +8472,7 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -8312,7 +8481,7 @@
         <v>26</v>
       </c>
       <c r="I156">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0.21</v>
@@ -8336,7 +8505,7 @@
         <v>102.1041296484548</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>163</v>
       </c>
@@ -8353,7 +8522,7 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -8362,7 +8531,7 @@
         <v>26</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0.21</v>
@@ -8380,13 +8549,13 @@
         <v>52675532</v>
       </c>
       <c r="O157">
-        <v>372.4846283186872</v>
+        <v>372.48462831868721</v>
       </c>
       <c r="P157">
-        <v>22740.20929906516</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+        <v>22740.209299065162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>164</v>
       </c>
@@ -8403,7 +8572,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -8412,7 +8581,7 @@
         <v>26</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>0.21</v>
@@ -8427,16 +8596,16 @@
         <v>37</v>
       </c>
       <c r="N158">
-        <v>1265900.62</v>
+        <v>1265900.6200000001</v>
       </c>
       <c r="O158">
-        <v>1.173508413069395</v>
+        <v>1.1735084130693949</v>
       </c>
       <c r="P158">
-        <v>71.64276026064684</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
+        <v>71.642760260646838</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>165</v>
       </c>
@@ -8453,7 +8622,7 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -8462,7 +8631,7 @@
         <v>26</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J159">
         <v>0.21</v>
@@ -8477,16 +8646,16 @@
         <v>38</v>
       </c>
       <c r="N159">
-        <v>147847.92</v>
+        <v>147847.92000000001</v>
       </c>
       <c r="O159">
         <v>0.1071371852117417</v>
       </c>
       <c r="P159">
-        <v>6.540731697908532</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
+        <v>6.5407316979085319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>166</v>
       </c>
@@ -8503,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -8512,7 +8681,7 @@
         <v>26</v>
       </c>
       <c r="I160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0.21</v>
@@ -8527,16 +8696,16 @@
         <v>39</v>
       </c>
       <c r="N160">
-        <v>272498.28</v>
+        <v>272498.28000000003</v>
       </c>
       <c r="O160">
-        <v>0.2456955213808363</v>
+        <v>0.24569552138083631</v>
       </c>
       <c r="P160">
-        <v>14.99972658002664</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+        <v>14.999726580026641</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>167</v>
       </c>
@@ -8553,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -8562,7 +8731,7 @@
         <v>26</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0.21</v>
@@ -8580,13 +8749,13 @@
         <v>13894035</v>
       </c>
       <c r="O161">
-        <v>35.91427357958717</v>
+        <v>35.914273579587167</v>
       </c>
       <c r="P161">
-        <v>2192.568594602392</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
+        <v>2192.5685946023918</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>168</v>
       </c>
@@ -8603,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -8612,7 +8781,7 @@
         <v>26</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0.21</v>
@@ -8630,13 +8799,13 @@
         <v>13934683</v>
       </c>
       <c r="O162">
-        <v>19.90726194697477</v>
+        <v>19.907261946974771</v>
       </c>
       <c r="P162">
-        <v>1215.339557202367</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+        <v>1215.3395572023669</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>169</v>
       </c>
@@ -8653,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -8662,7 +8831,7 @@
         <v>26</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0.21</v>
@@ -8680,13 +8849,13 @@
         <v>29407874</v>
       </c>
       <c r="O163">
-        <v>54.15906117806337</v>
+        <v>54.159061178063368</v>
       </c>
       <c r="P163">
-        <v>3306.41399133476</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+        <v>3306.4139913347599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>170</v>
       </c>
@@ -8703,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -8712,7 +8881,7 @@
         <v>26</v>
       </c>
       <c r="I164">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0.21</v>
@@ -8730,13 +8899,13 @@
         <v>227952.67</v>
       </c>
       <c r="O164">
-        <v>0.7623996668876876</v>
+        <v>0.76239966688768757</v>
       </c>
       <c r="P164">
-        <v>46.54454620803954</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
+        <v>46.544546208039542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>171</v>
       </c>
@@ -8753,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -8762,7 +8931,7 @@
         <v>26</v>
       </c>
       <c r="I165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0.21</v>
@@ -8780,13 +8949,13 @@
         <v>25220512</v>
       </c>
       <c r="O165">
-        <v>80.47539822047722</v>
+        <v>80.475398220477217</v>
       </c>
       <c r="P165">
-        <v>4913.027974388109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+        <v>4913.0279743881092</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>172</v>
       </c>
@@ -8803,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -8812,7 +8981,7 @@
         <v>26</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J166">
         <v>0.21</v>
@@ -8833,10 +9002,10 @@
         <v>2.105695147370958</v>
       </c>
       <c r="P166">
-        <v>128.5528172998143</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+        <v>128.55281729981431</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>173</v>
       </c>
@@ -8853,7 +9022,7 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -8862,7 +9031,7 @@
         <v>26</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J167">
         <v>0.21</v>
@@ -8877,16 +9046,16 @@
         <v>53</v>
       </c>
       <c r="N167">
-        <v>63949.92</v>
+        <v>63949.919999999998</v>
       </c>
       <c r="O167">
-        <v>0.00968560886669903</v>
+        <v>9.6856088666990303E-3</v>
       </c>
       <c r="P167">
-        <v>0.5913070126189885</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+        <v>0.59130701261898855</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>174</v>
       </c>
@@ -8903,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -8912,7 +9081,7 @@
         <v>26</v>
       </c>
       <c r="I168">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0.21</v>
@@ -8936,7 +9105,7 @@
         <v>109.6029839012772</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>175</v>
       </c>
@@ -8953,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -8962,7 +9131,7 @@
         <v>26</v>
       </c>
       <c r="I169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0.21</v>
@@ -8980,13 +9149,13 @@
         <v>2074488.62</v>
       </c>
       <c r="O169">
-        <v>5.390493497709755</v>
+        <v>5.3904934977097554</v>
       </c>
       <c r="P169">
-        <v>329.0899571251377</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
+        <v>329.08995712513769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>177</v>
       </c>
@@ -9003,7 +9172,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -9012,7 +9181,7 @@
         <v>26</v>
       </c>
       <c r="I170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>0.21</v>
@@ -9030,13 +9199,13 @@
         <v>1773667.88</v>
       </c>
       <c r="O170">
-        <v>1.823763737612137</v>
+        <v>1.8237637376121369</v>
       </c>
       <c r="P170">
         <v>111.3408875221085</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>178</v>
       </c>
@@ -9053,7 +9222,7 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -9062,7 +9231,7 @@
         <v>26</v>
       </c>
       <c r="I171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0.21</v>
@@ -9080,13 +9249,13 @@
         <v>14191.11</v>
       </c>
       <c r="O171">
-        <v>0.01489996055081275</v>
+        <v>1.489996055081275E-2</v>
       </c>
       <c r="P171">
-        <v>0.9096435012706195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
+        <v>0.90964350127061955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>179</v>
       </c>
@@ -9103,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -9112,7 +9281,7 @@
         <v>26</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0.21</v>
@@ -9136,7 +9305,7 @@
         <v>35.65584920170398</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>180</v>
       </c>
@@ -9153,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -9162,7 +9331,7 @@
         <v>26</v>
       </c>
       <c r="I173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0.21</v>
@@ -9183,10 +9352,10 @@
         <v>3.81465887143731</v>
       </c>
       <c r="P173">
-        <v>232.8851569864048</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+        <v>232.88515698640481</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>181</v>
       </c>
@@ -9212,16 +9381,16 @@
         <v>27</v>
       </c>
       <c r="I174">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K174">
         <v>3.45</v>
       </c>
       <c r="L174">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M174" t="s">
         <v>31</v>
@@ -9230,13 +9399,13 @@
         <v>7655777.5</v>
       </c>
       <c r="O174">
-        <v>2.9948419622088</v>
+        <v>2.9948419622087998</v>
       </c>
       <c r="P174">
-        <v>191.8811083053858</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
+        <v>191.88110830538579</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>182</v>
       </c>
@@ -9262,16 +9431,16 @@
         <v>27</v>
       </c>
       <c r="I175">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K175">
         <v>3.45</v>
       </c>
       <c r="L175">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M175" t="s">
         <v>32</v>
@@ -9280,13 +9449,13 @@
         <v>40546.85</v>
       </c>
       <c r="O175">
-        <v>0.2679774981133006</v>
+        <v>0.26797749811330063</v>
       </c>
       <c r="P175">
-        <v>17.16946002084219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+        <v>17.169460020842191</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>183</v>
       </c>
@@ -9312,16 +9481,16 @@
         <v>27</v>
       </c>
       <c r="I176">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K176">
         <v>3.45</v>
       </c>
       <c r="L176">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M176" t="s">
         <v>33</v>
@@ -9333,10 +9502,10 @@
         <v>1.011526533114008</v>
       </c>
       <c r="P176">
-        <v>64.80903991042992</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+        <v>64.809039910429917</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>184</v>
       </c>
@@ -9362,16 +9531,16 @@
         <v>27</v>
       </c>
       <c r="I177">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K177">
         <v>3.45</v>
       </c>
       <c r="L177">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M177" t="s">
         <v>34</v>
@@ -9380,13 +9549,13 @@
         <v>21943872</v>
       </c>
       <c r="O177">
-        <v>40.77039515801735</v>
+        <v>40.770395158017351</v>
       </c>
       <c r="P177">
-        <v>2612.18077871432</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
+        <v>2612.1807787143198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>186</v>
       </c>
@@ -9412,16 +9581,16 @@
         <v>27</v>
       </c>
       <c r="I178">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J178">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K178">
         <v>3.45</v>
       </c>
       <c r="L178">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M178" t="s">
         <v>36</v>
@@ -9430,13 +9599,13 @@
         <v>47525468</v>
       </c>
       <c r="O178">
-        <v>334.809055855486</v>
+        <v>334.80905585548601</v>
       </c>
       <c r="P178">
         <v>21451.39326846103</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>187</v>
       </c>
@@ -9462,16 +9631,16 @@
         <v>27</v>
       </c>
       <c r="I179">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K179">
         <v>3.45</v>
       </c>
       <c r="L179">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M179" t="s">
         <v>37</v>
@@ -9480,13 +9649,13 @@
         <v>446539.25</v>
       </c>
       <c r="O179">
-        <v>0.4565914629669607</v>
+        <v>0.45659146296696068</v>
       </c>
       <c r="P179">
-        <v>29.2540564952755</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
+        <v>29.254056495275499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>188</v>
       </c>
@@ -9512,16 +9681,16 @@
         <v>27</v>
       </c>
       <c r="I180">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K180">
         <v>3.45</v>
       </c>
       <c r="L180">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M180" t="s">
         <v>38</v>
@@ -9530,13 +9699,13 @@
         <v>117555.03</v>
       </c>
       <c r="O180">
-        <v>0.08349257802718618</v>
+        <v>8.3492578027186182E-2</v>
       </c>
       <c r="P180">
-        <v>5.349413628261908</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
+        <v>5.3494136282619076</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>189</v>
       </c>
@@ -9562,16 +9731,16 @@
         <v>27</v>
       </c>
       <c r="I181">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K181">
         <v>3.45</v>
       </c>
       <c r="L181">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M181" t="s">
         <v>39</v>
@@ -9583,10 +9752,10 @@
         <v>0.111547307647715</v>
       </c>
       <c r="P181">
-        <v>7.14689499146036</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
+        <v>7.1468949914603597</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>190</v>
       </c>
@@ -9612,16 +9781,16 @@
         <v>27</v>
       </c>
       <c r="I182">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K182">
         <v>3.45</v>
       </c>
       <c r="L182">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M182" t="s">
         <v>40</v>
@@ -9630,13 +9799,13 @@
         <v>13238341</v>
       </c>
       <c r="O182">
-        <v>33.87744385056118</v>
+        <v>33.877443850561178</v>
       </c>
       <c r="P182">
         <v>2170.545743190019</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>191</v>
       </c>
@@ -9662,16 +9831,16 @@
         <v>27</v>
       </c>
       <c r="I183">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K183">
         <v>3.45</v>
       </c>
       <c r="L183">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M183" t="s">
         <v>41</v>
@@ -9680,13 +9849,13 @@
         <v>21137558</v>
       </c>
       <c r="O183">
-        <v>34.89437453346522</v>
+        <v>34.894374533465218</v>
       </c>
       <c r="P183">
         <v>2235.701029835418</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>192</v>
       </c>
@@ -9712,16 +9881,16 @@
         <v>27</v>
       </c>
       <c r="I184">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K184">
         <v>3.45</v>
       </c>
       <c r="L184">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M184" t="s">
         <v>42</v>
@@ -9730,13 +9899,13 @@
         <v>35802120</v>
       </c>
       <c r="O184">
-        <v>67.36670365552472</v>
+        <v>67.366703655524717</v>
       </c>
       <c r="P184">
-        <v>4316.220329292068</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
+        <v>4316.2203292920676</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>193</v>
       </c>
@@ -9762,31 +9931,31 @@
         <v>27</v>
       </c>
       <c r="I185">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K185">
         <v>3.45</v>
       </c>
       <c r="L185">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M185" t="s">
         <v>43</v>
       </c>
       <c r="N185">
-        <v>792108.9399999999</v>
+        <v>792108.94</v>
       </c>
       <c r="O185">
-        <v>1.926144814354466</v>
+        <v>1.9261448143544659</v>
       </c>
       <c r="P185">
         <v>123.4091168745413</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>194</v>
       </c>
@@ -9812,16 +9981,16 @@
         <v>27</v>
       </c>
       <c r="I186">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K186">
         <v>3.45</v>
       </c>
       <c r="L186">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M186" t="s">
         <v>44</v>
@@ -9830,13 +9999,13 @@
         <v>22415642</v>
       </c>
       <c r="O186">
-        <v>69.77202653764206</v>
+        <v>69.772026537642063</v>
       </c>
       <c r="P186">
-        <v>4470.330638375818</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+        <v>4470.3306383758181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>195</v>
       </c>
@@ -9862,31 +10031,31 @@
         <v>27</v>
       </c>
       <c r="I187">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K187">
         <v>3.45</v>
       </c>
       <c r="L187">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M187" t="s">
         <v>45</v>
       </c>
       <c r="N187">
-        <v>743206.5600000001</v>
+        <v>743206.56</v>
       </c>
       <c r="O187">
-        <v>5.988627949289067</v>
+        <v>5.9886279492890671</v>
       </c>
       <c r="P187">
         <v>383.6945597258466</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>197</v>
       </c>
@@ -9912,16 +10081,16 @@
         <v>27</v>
       </c>
       <c r="I188">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K188">
         <v>3.45</v>
       </c>
       <c r="L188">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M188" t="s">
         <v>46</v>
@@ -9930,13 +10099,13 @@
         <v>73806368</v>
       </c>
       <c r="O188">
-        <v>2.750560506210766</v>
+        <v>2.7505605062107659</v>
       </c>
       <c r="P188">
-        <v>176.2298662342397</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+        <v>176.22986623423969</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>198</v>
       </c>
@@ -9962,16 +10131,16 @@
         <v>27</v>
       </c>
       <c r="I189">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J189">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K189">
         <v>3.45</v>
       </c>
       <c r="L189">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M189" t="s">
         <v>47</v>
@@ -9980,13 +10149,13 @@
         <v>1645153.62</v>
       </c>
       <c r="O189">
-        <v>4.217622796514378</v>
+        <v>4.2176227965143784</v>
       </c>
       <c r="P189">
-        <v>270.2253230124924</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
+        <v>270.22532301249242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>200</v>
       </c>
@@ -10012,16 +10181,16 @@
         <v>27</v>
       </c>
       <c r="I190">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K190">
         <v>3.45</v>
       </c>
       <c r="L190">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M190" t="s">
         <v>49</v>
@@ -10033,10 +10202,10 @@
         <v>1.363829688200799</v>
       </c>
       <c r="P190">
-        <v>87.38128936818762</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
+        <v>87.381289368187623</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>201</v>
       </c>
@@ -10062,16 +10231,16 @@
         <v>27</v>
       </c>
       <c r="I191">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K191">
         <v>3.45</v>
       </c>
       <c r="L191">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M191" t="s">
         <v>51</v>
@@ -10080,13 +10249,13 @@
         <v>2780558.75</v>
       </c>
       <c r="O191">
-        <v>0.6195205831679101</v>
+        <v>0.61952058316791014</v>
       </c>
       <c r="P191">
-        <v>39.69301138968402</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
+        <v>39.693011389684017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>202</v>
       </c>
@@ -10112,16 +10281,16 @@
         <v>27</v>
       </c>
       <c r="I192">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K192">
         <v>3.45</v>
       </c>
       <c r="L192">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M192" t="s">
         <v>52</v>
@@ -10133,10 +10302,10 @@
         <v>13.70654725279962</v>
       </c>
       <c r="P192">
-        <v>878.1857310318956</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16">
+        <v>878.18573103189556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>203</v>
       </c>
@@ -10162,16 +10331,16 @@
         <v>28</v>
       </c>
       <c r="I193">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K193">
         <v>3.45</v>
       </c>
       <c r="L193">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M193" t="s">
         <v>31</v>
@@ -10180,13 +10349,13 @@
         <v>9385585</v>
       </c>
       <c r="O193">
-        <v>3.664070212975095</v>
+        <v>3.6640702129750951</v>
       </c>
       <c r="P193">
         <v>234.7589162454091</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>204</v>
       </c>
@@ -10212,16 +10381,16 @@
         <v>28</v>
       </c>
       <c r="I194">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K194">
         <v>3.45</v>
       </c>
       <c r="L194">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M194" t="s">
         <v>32</v>
@@ -10230,13 +10399,13 @@
         <v>10698.39</v>
       </c>
       <c r="O194">
-        <v>0.09308681930759852</v>
+        <v>9.3086819307598517E-2</v>
       </c>
       <c r="P194">
-        <v>5.964121740898688</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
+        <v>5.9641217408986877</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>205</v>
       </c>
@@ -10262,16 +10431,16 @@
         <v>28</v>
       </c>
       <c r="I195">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K195">
         <v>3.45</v>
       </c>
       <c r="L195">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M195" t="s">
         <v>33</v>
@@ -10286,7 +10455,7 @@
         <v>58.52871309924268</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>206</v>
       </c>
@@ -10312,16 +10481,16 @@
         <v>28</v>
       </c>
       <c r="I196">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K196">
         <v>3.45</v>
       </c>
       <c r="L196">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M196" t="s">
         <v>34</v>
@@ -10330,13 +10499,13 @@
         <v>23090290</v>
       </c>
       <c r="O196">
-        <v>43.32894899967673</v>
+        <v>43.328948999676733</v>
       </c>
       <c r="P196">
-        <v>2776.108676410303</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
+        <v>2776.1086764103029</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>208</v>
       </c>
@@ -10362,16 +10531,16 @@
         <v>28</v>
       </c>
       <c r="I197">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K197">
         <v>3.45</v>
       </c>
       <c r="L197">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M197" t="s">
         <v>36</v>
@@ -10380,13 +10549,13 @@
         <v>47710812</v>
       </c>
       <c r="O197">
-        <v>336.1649499380875</v>
+        <v>336.16494993808749</v>
       </c>
       <c r="P197">
         <v>21538.26611938182</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>209</v>
       </c>
@@ -10412,16 +10581,16 @@
         <v>28</v>
       </c>
       <c r="I198">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K198">
         <v>3.45</v>
       </c>
       <c r="L198">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M198" t="s">
         <v>37</v>
@@ -10430,13 +10599,13 @@
         <v>429279.16</v>
       </c>
       <c r="O198">
-        <v>0.439157896038133</v>
+        <v>0.43915789603813299</v>
       </c>
       <c r="P198">
-        <v>28.13707864261031</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
+        <v>28.137078642610309</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>210</v>
       </c>
@@ -10462,16 +10631,16 @@
         <v>28</v>
       </c>
       <c r="I199">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K199">
         <v>3.45</v>
       </c>
       <c r="L199">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M199" t="s">
         <v>38</v>
@@ -10480,13 +10649,13 @@
         <v>50386.11</v>
       </c>
       <c r="O199">
-        <v>0.03106500415058228</v>
+        <v>3.106500415058228E-2</v>
       </c>
       <c r="P199">
-        <v>1.990351244286977</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
+        <v>1.9903512442869771</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>211</v>
       </c>
@@ -10512,16 +10681,16 @@
         <v>28</v>
       </c>
       <c r="I200">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K200">
         <v>3.45</v>
       </c>
       <c r="L200">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M200" t="s">
         <v>39</v>
@@ -10530,13 +10699,13 @@
         <v>167979.38</v>
       </c>
       <c r="O200">
-        <v>0.1339057978348897</v>
+        <v>0.13390579783488971</v>
       </c>
       <c r="P200">
-        <v>8.579415281775121</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
+        <v>8.5794152817751215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>212</v>
       </c>
@@ -10562,16 +10731,16 @@
         <v>28</v>
       </c>
       <c r="I201">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J201">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K201">
         <v>3.45</v>
       </c>
       <c r="L201">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M201" t="s">
         <v>40</v>
@@ -10580,13 +10749,13 @@
         <v>12560679</v>
       </c>
       <c r="O201">
-        <v>31.77237333316858</v>
+        <v>31.772373333168581</v>
       </c>
       <c r="P201">
-        <v>2035.672761899088</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
+        <v>2035.6727618990881</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>213</v>
       </c>
@@ -10612,16 +10781,16 @@
         <v>28</v>
       </c>
       <c r="I202">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J202">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K202">
         <v>3.45</v>
       </c>
       <c r="L202">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M202" t="s">
         <v>41</v>
@@ -10630,13 +10799,13 @@
         <v>23558370</v>
       </c>
       <c r="O202">
-        <v>39.93138850284927</v>
+        <v>39.931388502849273</v>
       </c>
       <c r="P202">
         <v>2558.425178618978</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>214</v>
       </c>
@@ -10662,16 +10831,16 @@
         <v>28</v>
       </c>
       <c r="I203">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J203">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K203">
         <v>3.45</v>
       </c>
       <c r="L203">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M203" t="s">
         <v>42</v>
@@ -10680,13 +10849,13 @@
         <v>32298224</v>
       </c>
       <c r="O203">
-        <v>60.12922707952077</v>
+        <v>60.129227079520767</v>
       </c>
       <c r="P203">
-        <v>3852.511377613808</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
+        <v>3852.5113776138078</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>215</v>
       </c>
@@ -10712,31 +10881,31 @@
         <v>28</v>
       </c>
       <c r="I204">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J204">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K204">
         <v>3.45</v>
       </c>
       <c r="L204">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M204" t="s">
         <v>43</v>
       </c>
       <c r="N204">
-        <v>1063253.62</v>
+        <v>1063253.6200000001</v>
       </c>
       <c r="O204">
-        <v>2.457178978885041</v>
+        <v>2.4571789788850409</v>
       </c>
       <c r="P204">
-        <v>157.4327566271378</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16">
+        <v>157.43275662713779</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>216</v>
       </c>
@@ -10762,16 +10931,16 @@
         <v>28</v>
       </c>
       <c r="I205">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J205">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K205">
         <v>3.45</v>
       </c>
       <c r="L205">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M205" t="s">
         <v>44</v>
@@ -10780,13 +10949,13 @@
         <v>22157808</v>
       </c>
       <c r="O205">
-        <v>68.78813311852741</v>
+        <v>68.788133118527412</v>
       </c>
       <c r="P205">
-        <v>4407.29206669277</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
+        <v>4407.2920666927703</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>217</v>
       </c>
@@ -10812,31 +10981,31 @@
         <v>28</v>
       </c>
       <c r="I206">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K206">
         <v>3.45</v>
       </c>
       <c r="L206">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M206" t="s">
         <v>45</v>
       </c>
       <c r="N206">
-        <v>604650.0600000001</v>
+        <v>604650.06000000006</v>
       </c>
       <c r="O206">
-        <v>4.885334898433746</v>
+        <v>4.8853348984337464</v>
       </c>
       <c r="P206">
-        <v>313.0059904940958</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16">
+        <v>313.00599049409578</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>219</v>
       </c>
@@ -10862,16 +11031,16 @@
         <v>28</v>
       </c>
       <c r="I207">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J207">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K207">
         <v>3.45</v>
       </c>
       <c r="L207">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M207" t="s">
         <v>46</v>
@@ -10880,13 +11049,13 @@
         <v>80663648</v>
       </c>
       <c r="O207">
-        <v>3.015462367678549</v>
+        <v>3.0154623676785488</v>
       </c>
       <c r="P207">
-        <v>193.2022685886896</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
+        <v>193.20226858868961</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>220</v>
       </c>
@@ -10912,16 +11081,16 @@
         <v>28</v>
       </c>
       <c r="I208">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J208">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K208">
         <v>3.45</v>
       </c>
       <c r="L208">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M208" t="s">
         <v>47</v>
@@ -10930,13 +11099,13 @@
         <v>1697142.38</v>
       </c>
       <c r="O208">
-        <v>4.35020416389662</v>
+        <v>4.3502041638966196</v>
       </c>
       <c r="P208">
-        <v>278.719881334757</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16">
+        <v>278.71988133475702</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>221</v>
       </c>
@@ -10962,16 +11131,16 @@
         <v>28</v>
       </c>
       <c r="I209">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J209">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K209">
         <v>3.45</v>
       </c>
       <c r="L209">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M209" t="s">
         <v>49</v>
@@ -10983,10 +11152,10 @@
         <v>1.443090941495019</v>
       </c>
       <c r="P209">
-        <v>92.45959978312251</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16">
+        <v>92.459599783122513</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>222</v>
       </c>
@@ -11012,16 +11181,16 @@
         <v>28</v>
       </c>
       <c r="I210">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K210">
         <v>3.45</v>
       </c>
       <c r="L210">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M210" t="s">
         <v>51</v>
@@ -11030,13 +11199,13 @@
         <v>3164341.25</v>
       </c>
       <c r="O210">
-        <v>0.7227157318605351</v>
+        <v>0.72271573186053506</v>
       </c>
       <c r="P210">
-        <v>46.30477913995151</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16">
+        <v>46.304779139951513</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>223</v>
       </c>
@@ -11062,16 +11231,16 @@
         <v>28</v>
       </c>
       <c r="I211">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K211">
         <v>3.45</v>
       </c>
       <c r="L211">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M211" t="s">
         <v>52</v>
@@ -11080,13 +11249,13 @@
         <v>13634589</v>
       </c>
       <c r="O211">
-        <v>28.35455476043794</v>
+        <v>28.354554760437939</v>
       </c>
       <c r="P211">
         <v>1816.691318471401</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>224</v>
       </c>
@@ -11103,7 +11272,7 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -11112,13 +11281,13 @@
         <v>29</v>
       </c>
       <c r="I212">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>1.4</v>
       </c>
       <c r="K212">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L212">
         <v>1.554</v>
@@ -11130,13 +11299,13 @@
         <v>7020078</v>
       </c>
       <c r="O212">
-        <v>2.74890242015108</v>
+        <v>2.7489024201510799</v>
       </c>
       <c r="P212">
-        <v>226.7846764471406</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16">
+        <v>226.78467644714061</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>225</v>
       </c>
@@ -11153,7 +11322,7 @@
         <v>9</v>
       </c>
       <c r="F213">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -11162,13 +11331,13 @@
         <v>29</v>
       </c>
       <c r="I213">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>1.4</v>
       </c>
       <c r="K213">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L213">
         <v>1.554</v>
@@ -11183,10 +11352,10 @@
         <v>1.051022844079313</v>
       </c>
       <c r="P213">
-        <v>86.70947134601469</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16">
+        <v>86.709471346014695</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>226</v>
       </c>
@@ -11203,7 +11372,7 @@
         <v>9</v>
       </c>
       <c r="F214">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -11212,13 +11381,13 @@
         <v>29</v>
       </c>
       <c r="I214">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>1.4</v>
       </c>
       <c r="K214">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L214">
         <v>1.554</v>
@@ -11230,13 +11399,13 @@
         <v>2740515.75</v>
       </c>
       <c r="O214">
-        <v>4.503143200223391</v>
+        <v>4.5031432002233913</v>
       </c>
       <c r="P214">
-        <v>371.5096855281154</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16">
+        <v>371.50968552811543</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>227</v>
       </c>
@@ -11253,7 +11422,7 @@
         <v>9</v>
       </c>
       <c r="F215">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -11262,13 +11431,13 @@
         <v>29</v>
       </c>
       <c r="I215">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>1.4</v>
       </c>
       <c r="K215">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L215">
         <v>1.554</v>
@@ -11280,13 +11449,13 @@
         <v>24647830</v>
       </c>
       <c r="O215">
-        <v>46.80503708494594</v>
+        <v>46.805037084945937</v>
       </c>
       <c r="P215">
         <v>3861.419420927461</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>228</v>
       </c>
@@ -11303,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="F216">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -11312,13 +11481,13 @@
         <v>29</v>
       </c>
       <c r="I216">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>1.4</v>
       </c>
       <c r="K216">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L216">
         <v>1.554</v>
@@ -11330,13 +11499,13 @@
         <v>250174.48</v>
       </c>
       <c r="O216">
-        <v>0.1855666078868836</v>
+        <v>0.18556660788688359</v>
       </c>
       <c r="P216">
         <v>15.30926045992836</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>229</v>
       </c>
@@ -11353,7 +11522,7 @@
         <v>9</v>
       </c>
       <c r="F217">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -11362,13 +11531,13 @@
         <v>29</v>
       </c>
       <c r="I217">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J217">
         <v>1.4</v>
       </c>
       <c r="K217">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L217">
         <v>1.554</v>
@@ -11380,13 +11549,13 @@
         <v>39435212</v>
       </c>
       <c r="O217">
-        <v>275.6243493792463</v>
+        <v>275.62434937924633</v>
       </c>
       <c r="P217">
-        <v>22739.03156281939</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16">
+        <v>22739.031562819389</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>230</v>
       </c>
@@ -11403,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="F218">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -11412,13 +11581,13 @@
         <v>29</v>
       </c>
       <c r="I218">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J218">
         <v>1.4</v>
       </c>
       <c r="K218">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L218">
         <v>1.554</v>
@@ -11430,13 +11599,13 @@
         <v>703909.25</v>
       </c>
       <c r="O218">
-        <v>0.69536278960118</v>
+        <v>0.69536278960118003</v>
       </c>
       <c r="P218">
-        <v>57.36748750958487</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16">
+        <v>57.367487509584869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>231</v>
       </c>
@@ -11453,7 +11622,7 @@
         <v>9</v>
       </c>
       <c r="F219">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -11462,13 +11631,13 @@
         <v>29</v>
       </c>
       <c r="I219">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J219">
         <v>1.4</v>
       </c>
       <c r="K219">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L219">
         <v>1.554</v>
@@ -11480,13 +11649,13 @@
         <v>190552.56</v>
       </c>
       <c r="O219">
-        <v>0.1404695756755719</v>
+        <v>0.14046957567557189</v>
       </c>
       <c r="P219">
-        <v>11.58875158198627</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16">
+        <v>11.588751581986269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>232</v>
       </c>
@@ -11503,7 +11672,7 @@
         <v>9</v>
       </c>
       <c r="F220">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -11512,13 +11681,13 @@
         <v>29</v>
       </c>
       <c r="I220">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>1.4</v>
       </c>
       <c r="K220">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L220">
         <v>1.554</v>
@@ -11527,16 +11696,16 @@
         <v>39</v>
       </c>
       <c r="N220">
-        <v>156895.36</v>
+        <v>156895.35999999999</v>
       </c>
       <c r="O220">
         <v>0.1220507215608594</v>
       </c>
       <c r="P220">
-        <v>10.0691945979655</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16">
+        <v>10.069194597965501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>233</v>
       </c>
@@ -11553,7 +11722,7 @@
         <v>9</v>
       </c>
       <c r="F221">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -11562,13 +11731,13 @@
         <v>29</v>
       </c>
       <c r="I221">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J221">
         <v>1.4</v>
       </c>
       <c r="K221">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L221">
         <v>1.554</v>
@@ -11583,10 +11752,10 @@
         <v>42.2494653188905</v>
       </c>
       <c r="P221">
-        <v>3485.584374392841</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16">
+        <v>3485.5843743928408</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>234</v>
       </c>
@@ -11603,7 +11772,7 @@
         <v>9</v>
       </c>
       <c r="F222">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -11612,13 +11781,13 @@
         <v>29</v>
       </c>
       <c r="I222">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J222">
         <v>1.4</v>
       </c>
       <c r="K222">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L222">
         <v>1.554</v>
@@ -11630,13 +11799,13 @@
         <v>26874064</v>
       </c>
       <c r="O222">
-        <v>46.83039470250578</v>
+        <v>46.830394702505778</v>
       </c>
       <c r="P222">
-        <v>3863.511426468154</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16">
+        <v>3863.5114264681538</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>235</v>
       </c>
@@ -11653,7 +11822,7 @@
         <v>9</v>
       </c>
       <c r="F223">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -11662,13 +11831,13 @@
         <v>29</v>
       </c>
       <c r="I223">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J223">
         <v>1.4</v>
       </c>
       <c r="K223">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L223">
         <v>1.554</v>
@@ -11680,13 +11849,13 @@
         <v>41643980</v>
       </c>
       <c r="O223">
-        <v>79.43336456963129</v>
+        <v>79.433364569631294</v>
       </c>
       <c r="P223">
         <v>6553.259130253713</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>236</v>
       </c>
@@ -11703,7 +11872,7 @@
         <v>9</v>
       </c>
       <c r="F224">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -11712,13 +11881,13 @@
         <v>29</v>
       </c>
       <c r="I224">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J224">
         <v>1.4</v>
       </c>
       <c r="K224">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L224">
         <v>1.554</v>
@@ -11727,16 +11896,16 @@
         <v>43</v>
       </c>
       <c r="N224">
-        <v>878805.9399999999</v>
+        <v>878805.94</v>
       </c>
       <c r="O224">
-        <v>2.095940028342464</v>
+        <v>2.0959400283424641</v>
       </c>
       <c r="P224">
-        <v>172.9152252534786</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16">
+        <v>172.91522525347861</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>237</v>
       </c>
@@ -11753,7 +11922,7 @@
         <v>9</v>
       </c>
       <c r="F225">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -11762,13 +11931,13 @@
         <v>29</v>
       </c>
       <c r="I225">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>1.4</v>
       </c>
       <c r="K225">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L225">
         <v>1.554</v>
@@ -11783,10 +11952,10 @@
         <v>50.4050473199094</v>
       </c>
       <c r="P225">
-        <v>4158.420562313088</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16">
+        <v>4158.4205623130883</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>238</v>
       </c>
@@ -11803,7 +11972,7 @@
         <v>9</v>
       </c>
       <c r="F226">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -11812,13 +11981,13 @@
         <v>29</v>
       </c>
       <c r="I226">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>1.4</v>
       </c>
       <c r="K226">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L226">
         <v>1.554</v>
@@ -11833,10 +12002,10 @@
         <v>14.6250566045351</v>
       </c>
       <c r="P226">
-        <v>1206.568376442522</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16">
+        <v>1206.5683764425221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>239</v>
       </c>
@@ -11853,7 +12022,7 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -11862,13 +12031,13 @@
         <v>29</v>
       </c>
       <c r="I227">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J227">
         <v>1.4</v>
       </c>
       <c r="K227">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L227">
         <v>1.554</v>
@@ -11880,13 +12049,13 @@
         <v>60955.05</v>
       </c>
       <c r="O227">
-        <v>0.007326657500718148</v>
+        <v>7.3266575007181478E-3</v>
       </c>
       <c r="P227">
-        <v>0.6044498482590955</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16">
+        <v>0.60444984825909553</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -11903,7 +12072,7 @@
         <v>9</v>
       </c>
       <c r="F228">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -11912,13 +12081,13 @@
         <v>29</v>
       </c>
       <c r="I228">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J228">
         <v>1.4</v>
       </c>
       <c r="K228">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L228">
         <v>1.554</v>
@@ -11930,13 +12099,13 @@
         <v>236941232</v>
       </c>
       <c r="O228">
-        <v>24.62621809190157</v>
+        <v>24.626218091901571</v>
       </c>
       <c r="P228">
-        <v>2031.665024246904</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16">
+        <v>2031.6650242469041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>241</v>
       </c>
@@ -11953,7 +12122,7 @@
         <v>9</v>
       </c>
       <c r="F229">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -11962,13 +12131,13 @@
         <v>29</v>
       </c>
       <c r="I229">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J229">
         <v>1.4</v>
       </c>
       <c r="K229">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L229">
         <v>1.554</v>
@@ -11980,13 +12149,13 @@
         <v>1100913.25</v>
       </c>
       <c r="O229">
-        <v>2.829704861191095</v>
+        <v>2.8297048611910949</v>
       </c>
       <c r="P229">
-        <v>233.4508844991499</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16">
+        <v>233.45088449914991</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>242</v>
       </c>
@@ -12003,7 +12172,7 @@
         <v>9</v>
       </c>
       <c r="F230">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -12012,13 +12181,13 @@
         <v>29</v>
       </c>
       <c r="I230">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J230">
         <v>1.4</v>
       </c>
       <c r="K230">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L230">
         <v>1.554</v>
@@ -12030,13 +12199,13 @@
         <v>1040753.81</v>
       </c>
       <c r="O230">
-        <v>1.143980951155111</v>
+        <v>1.1439809511551109</v>
       </c>
       <c r="P230">
-        <v>94.37852284881956</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16">
+        <v>94.378522848819557</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>243</v>
       </c>
@@ -12053,7 +12222,7 @@
         <v>9</v>
       </c>
       <c r="F231">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -12062,13 +12231,13 @@
         <v>29</v>
       </c>
       <c r="I231">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J231">
         <v>1.4</v>
       </c>
       <c r="K231">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L231">
         <v>1.554</v>
@@ -12080,13 +12249,13 @@
         <v>9283.85</v>
       </c>
       <c r="O231">
-        <v>0.009170822882848137</v>
+        <v>9.170822882848137E-3</v>
       </c>
       <c r="P231">
-        <v>0.756593644428616</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16">
+        <v>0.75659364442861599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>244</v>
       </c>
@@ -12103,7 +12272,7 @@
         <v>9</v>
       </c>
       <c r="F232">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -12112,13 +12281,13 @@
         <v>29</v>
       </c>
       <c r="I232">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J232">
         <v>1.4</v>
       </c>
       <c r="K232">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L232">
         <v>1.554</v>
@@ -12130,13 +12299,13 @@
         <v>2666558.25</v>
       </c>
       <c r="O232">
-        <v>0.588867026665116</v>
+        <v>0.58886702666511603</v>
       </c>
       <c r="P232">
-        <v>48.58157828145036</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16">
+        <v>48.581578281450362</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>245</v>
       </c>
@@ -12153,7 +12322,7 @@
         <v>9</v>
       </c>
       <c r="F233">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -12162,13 +12331,13 @@
         <v>29</v>
       </c>
       <c r="I233">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J233">
         <v>1.4</v>
       </c>
       <c r="K233">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L233">
         <v>1.554</v>
@@ -12180,13 +12349,13 @@
         <v>44001220</v>
       </c>
       <c r="O233">
-        <v>132.3908559349775</v>
+        <v>132.39085593497751</v>
       </c>
       <c r="P233">
-        <v>10922.25653689218</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16">
+        <v>10922.256536892181</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>246</v>
       </c>
@@ -12203,7 +12372,7 @@
         <v>9</v>
       </c>
       <c r="F234">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -12212,13 +12381,13 @@
         <v>30</v>
       </c>
       <c r="I234">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J234">
         <v>1.4</v>
       </c>
       <c r="K234">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L234">
         <v>1.554</v>
@@ -12230,13 +12399,13 @@
         <v>8089833.5</v>
       </c>
       <c r="O234">
-        <v>3.162769629081914</v>
+        <v>3.1627696290819141</v>
       </c>
       <c r="P234">
-        <v>260.9287553280133</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16">
+        <v>260.92875532801332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>247</v>
       </c>
@@ -12253,7 +12422,7 @@
         <v>9</v>
       </c>
       <c r="F235">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -12262,13 +12431,13 @@
         <v>30</v>
       </c>
       <c r="I235">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J235">
         <v>1.4</v>
       </c>
       <c r="K235">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L235">
         <v>1.554</v>
@@ -12277,16 +12446,16 @@
         <v>32</v>
       </c>
       <c r="N235">
-        <v>288419.78</v>
+        <v>288419.78000000003</v>
       </c>
       <c r="O235">
-        <v>1.583551187596819</v>
+        <v>1.5835511875968189</v>
       </c>
       <c r="P235">
-        <v>130.6431036198412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16">
+        <v>130.64310361984121</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>248</v>
       </c>
@@ -12303,7 +12472,7 @@
         <v>9</v>
       </c>
       <c r="F236">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -12312,13 +12481,13 @@
         <v>30</v>
       </c>
       <c r="I236">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J236">
         <v>1.4</v>
       </c>
       <c r="K236">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L236">
         <v>1.554</v>
@@ -12330,13 +12499,13 @@
         <v>1386587.38</v>
       </c>
       <c r="O236">
-        <v>2.439462675382851</v>
+        <v>2.4394626753828512</v>
       </c>
       <c r="P236">
-        <v>201.2558719749572</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16">
+        <v>201.25587197495719</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>249</v>
       </c>
@@ -12353,7 +12522,7 @@
         <v>9</v>
       </c>
       <c r="F237">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -12362,13 +12531,13 @@
         <v>30</v>
       </c>
       <c r="I237">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J237">
         <v>1.4</v>
       </c>
       <c r="K237">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L237">
         <v>1.554</v>
@@ -12380,13 +12549,13 @@
         <v>31574288</v>
       </c>
       <c r="O237">
-        <v>62.26337403097467</v>
+        <v>62.263374030974667</v>
       </c>
       <c r="P237">
-        <v>5136.733494288905</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16">
+        <v>5136.7334942889047</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>250</v>
       </c>
@@ -12403,7 +12572,7 @@
         <v>9</v>
       </c>
       <c r="F238">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -12412,13 +12581,13 @@
         <v>30</v>
       </c>
       <c r="I238">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J238">
         <v>1.4</v>
       </c>
       <c r="K238">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L238">
         <v>1.554</v>
@@ -12430,13 +12599,13 @@
         <v>64782.12</v>
       </c>
       <c r="O238">
-        <v>0.007994043340981069</v>
+        <v>7.9940433409810691E-3</v>
       </c>
       <c r="P238">
-        <v>0.6595092351401735</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16">
+        <v>0.65950923514017346</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>251</v>
       </c>
@@ -12453,7 +12622,7 @@
         <v>9</v>
       </c>
       <c r="F239">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -12462,13 +12631,13 @@
         <v>30</v>
       </c>
       <c r="I239">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>1.4</v>
       </c>
       <c r="K239">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L239">
         <v>1.554</v>
@@ -12480,13 +12649,13 @@
         <v>36786816</v>
       </c>
       <c r="O239">
-        <v>256.2498648273548</v>
+        <v>256.24986482735483</v>
       </c>
       <c r="P239">
-        <v>21140.63498889176</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
+        <v>21140.634988891761</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>252</v>
       </c>
@@ -12503,7 +12672,7 @@
         <v>9</v>
       </c>
       <c r="F240">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -12512,13 +12681,13 @@
         <v>30</v>
       </c>
       <c r="I240">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J240">
         <v>1.4</v>
       </c>
       <c r="K240">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L240">
         <v>1.554</v>
@@ -12530,13 +12699,13 @@
         <v>1147491</v>
       </c>
       <c r="O240">
-        <v>1.083271406804662</v>
+        <v>1.0832714068046621</v>
       </c>
       <c r="P240">
-        <v>89.36998043136511</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16">
+        <v>89.369980431365107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>253</v>
       </c>
@@ -12553,7 +12722,7 @@
         <v>9</v>
       </c>
       <c r="F241">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -12562,13 +12731,13 @@
         <v>30</v>
       </c>
       <c r="I241">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J241">
         <v>1.4</v>
       </c>
       <c r="K241">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L241">
         <v>1.554</v>
@@ -12580,13 +12749,13 @@
         <v>58970.94</v>
       </c>
       <c r="O241">
-        <v>0.03776574921307674</v>
+        <v>3.7765749213076738E-2</v>
       </c>
       <c r="P241">
-        <v>3.115677425756258</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16">
+        <v>3.1156774257562581</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>254</v>
       </c>
@@ -12603,7 +12772,7 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -12612,13 +12781,13 @@
         <v>30</v>
       </c>
       <c r="I242">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J242">
         <v>1.4</v>
       </c>
       <c r="K242">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L242">
         <v>1.554</v>
@@ -12630,13 +12799,13 @@
         <v>197694.23</v>
       </c>
       <c r="O242">
-        <v>0.1656877517849339</v>
+        <v>0.16568775178493389</v>
       </c>
       <c r="P242">
         <v>13.66925319151024</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>255</v>
       </c>
@@ -12653,7 +12822,7 @@
         <v>9</v>
       </c>
       <c r="F243">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -12662,13 +12831,13 @@
         <v>30</v>
       </c>
       <c r="I243">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J243">
         <v>1.4</v>
       </c>
       <c r="K243">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L243">
         <v>1.554</v>
@@ -12680,13 +12849,13 @@
         <v>20345576</v>
       </c>
       <c r="O243">
-        <v>55.95516232773822</v>
+        <v>55.955162327738222</v>
       </c>
       <c r="P243">
-        <v>4616.305508343912</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16">
+        <v>4616.3055083439122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>256</v>
       </c>
@@ -12703,7 +12872,7 @@
         <v>9</v>
       </c>
       <c r="F244">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -12712,13 +12881,13 @@
         <v>30</v>
       </c>
       <c r="I244">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J244">
         <v>1.4</v>
       </c>
       <c r="K244">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L244">
         <v>1.554</v>
@@ -12730,13 +12899,13 @@
         <v>26495424</v>
       </c>
       <c r="O244">
-        <v>46.04255369322147</v>
+        <v>46.042553693221471</v>
       </c>
       <c r="P244">
-        <v>3798.51447820525</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
+        <v>3798.5144782052498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>257</v>
       </c>
@@ -12753,7 +12922,7 @@
         <v>9</v>
       </c>
       <c r="F245">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -12762,13 +12931,13 @@
         <v>30</v>
       </c>
       <c r="I245">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J245">
         <v>1.4</v>
       </c>
       <c r="K245">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L245">
         <v>1.554</v>
@@ -12780,13 +12949,13 @@
         <v>47530028</v>
       </c>
       <c r="O245">
-        <v>91.59129806001881</v>
+        <v>91.591298060018815</v>
       </c>
       <c r="P245">
         <v>7556.2896462412</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>258</v>
       </c>
@@ -12803,7 +12972,7 @@
         <v>9</v>
       </c>
       <c r="F246">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -12812,13 +12981,13 @@
         <v>30</v>
       </c>
       <c r="I246">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J246">
         <v>1.4</v>
       </c>
       <c r="K246">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L246">
         <v>1.554</v>
@@ -12830,13 +12999,13 @@
         <v>1319278.25</v>
       </c>
       <c r="O246">
-        <v>2.958600675564835</v>
+        <v>2.9586006755648349</v>
       </c>
       <c r="P246">
-        <v>244.0847998188987</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16">
+        <v>244.08479981889869</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>259</v>
       </c>
@@ -12853,7 +13022,7 @@
         <v>9</v>
       </c>
       <c r="F247">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -12862,13 +13031,13 @@
         <v>30</v>
       </c>
       <c r="I247">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>1.4</v>
       </c>
       <c r="K247">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L247">
         <v>1.554</v>
@@ -12883,10 +13052,10 @@
         <v>49.61232001823452</v>
       </c>
       <c r="P247">
-        <v>4093.020494524843</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16">
+        <v>4093.0204945248429</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>260</v>
       </c>
@@ -12903,7 +13072,7 @@
         <v>9</v>
       </c>
       <c r="F248">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -12912,13 +13081,13 @@
         <v>30</v>
       </c>
       <c r="I248">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J248">
         <v>1.4</v>
       </c>
       <c r="K248">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L248">
         <v>1.554</v>
@@ -12936,7 +13105,7 @@
         <v>1433.728739225199</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>262</v>
       </c>
@@ -12953,7 +13122,7 @@
         <v>9</v>
       </c>
       <c r="F249">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -12962,13 +13131,13 @@
         <v>30</v>
       </c>
       <c r="I249">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J249">
         <v>1.4</v>
       </c>
       <c r="K249">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L249">
         <v>1.554</v>
@@ -12980,13 +13149,13 @@
         <v>238929552</v>
       </c>
       <c r="O249">
-        <v>25.34708674820378</v>
+        <v>25.347086748203779</v>
       </c>
       <c r="P249">
-        <v>2091.13674786356</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16">
+        <v>2091.1367478635598</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>263</v>
       </c>
@@ -13003,7 +13172,7 @@
         <v>9</v>
       </c>
       <c r="F250">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -13012,13 +13181,13 @@
         <v>30</v>
       </c>
       <c r="I250">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>1.4</v>
       </c>
       <c r="K250">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L250">
         <v>1.554</v>
@@ -13030,13 +13199,13 @@
         <v>1245035.5</v>
       </c>
       <c r="O250">
-        <v>3.197244401953471</v>
+        <v>3.1972444019534709</v>
       </c>
       <c r="P250">
-        <v>263.7729269340883</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16">
+        <v>263.77292693408828</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>265</v>
       </c>
@@ -13053,7 +13222,7 @@
         <v>9</v>
       </c>
       <c r="F251">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -13062,13 +13231,13 @@
         <v>30</v>
       </c>
       <c r="I251">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J251">
         <v>1.4</v>
       </c>
       <c r="K251">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L251">
         <v>1.554</v>
@@ -13077,16 +13246,16 @@
         <v>49</v>
       </c>
       <c r="N251">
-        <v>1110813.62</v>
+        <v>1110813.6200000001</v>
       </c>
       <c r="O251">
         <v>1.208961901596477</v>
       </c>
       <c r="P251">
-        <v>99.73945662116601</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16">
+        <v>99.739456621166013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>266</v>
       </c>
@@ -13103,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="F252">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -13112,13 +13281,13 @@
         <v>30</v>
       </c>
       <c r="I252">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J252">
         <v>1.4</v>
       </c>
       <c r="K252">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L252">
         <v>1.554</v>
@@ -13130,13 +13299,13 @@
         <v>10612.46</v>
       </c>
       <c r="O252">
-        <v>0.01072195112896399</v>
+        <v>1.0721951128963989E-2</v>
       </c>
       <c r="P252">
-        <v>0.8845618527013818</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16">
+        <v>0.88456185270138177</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>267</v>
       </c>
@@ -13153,7 +13322,7 @@
         <v>9</v>
       </c>
       <c r="F253">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -13162,13 +13331,13 @@
         <v>30</v>
       </c>
       <c r="I253">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J253">
         <v>1.4</v>
       </c>
       <c r="K253">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L253">
         <v>1.554</v>
@@ -13180,13 +13349,13 @@
         <v>2960605</v>
       </c>
       <c r="O253">
-        <v>0.6679331594065336</v>
+        <v>0.66793315940653364</v>
       </c>
       <c r="P253">
-        <v>55.10454075557979</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16">
+        <v>55.104540755579791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>268</v>
       </c>
@@ -13203,7 +13372,7 @@
         <v>9</v>
       </c>
       <c r="F254">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -13212,13 +13381,13 @@
         <v>30</v>
       </c>
       <c r="I254">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J254">
         <v>1.4</v>
       </c>
       <c r="K254">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L254">
         <v>1.554</v>
@@ -13230,7 +13399,7 @@
         <v>49707612</v>
       </c>
       <c r="O254">
-        <v>151.9409969016189</v>
+        <v>151.94099690161889</v>
       </c>
       <c r="P254">
         <v>12535.14477952834</v>
@@ -13238,5 +13407,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/metabolite_data/lt_dataset2_quantified.xlsx
+++ b/metabolite_data/lt_dataset2_quantified.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\metabolite_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADB509-AF8E-4666-9983-35198BBC5378}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -136,7 +130,7 @@
     <t>CoA</t>
   </si>
   <si>
-    <t>DHAP_GAP</t>
+    <t>DHAP</t>
   </si>
   <si>
     <t>Fructose-1-6-bisphosphate</t>
@@ -183,15 +177,12 @@
   <si>
     <t>GTP</t>
   </si>
-  <si>
-    <t>Column1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,113 +243,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{805C5161-45CB-4FEC-A999-2403B57CE297}" name="Table1" displayName="Table1" ref="A1:P254" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:P254" xr:uid="{A7A98769-8F7C-41E9-A5AC-FDE2D764B1AE}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{30CBB2C8-0660-4BD8-8AB3-EE7D12DF13AB}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1A984539-9B16-4641-B4C9-6F575BE27820}" name="ID"/>
-    <tableColumn id="3" xr3:uid="{F65C73B0-B048-4A4E-9A80-7DDEC5C8331C}" name="Sample"/>
-    <tableColumn id="4" xr3:uid="{1F6416DE-48A4-4660-9144-B82BB20AA02E}" name="Ethanol"/>
-    <tableColumn id="5" xr3:uid="{42F2BDC0-AD02-4D8B-BEB0-98C4FAF71785}" name="Timepoint"/>
-    <tableColumn id="6" xr3:uid="{ADE68BBE-1EA0-4C84-B46B-4DFAD14F497B}" name="Time (h)"/>
-    <tableColumn id="7" xr3:uid="{DDBAAD76-2ECB-474A-B772-CDAE0E8E1B2F}" name="Replicate"/>
-    <tableColumn id="8" xr3:uid="{C66BC66A-A695-4C88-BAE3-9599D4625EC2}" name="Maven filename"/>
-    <tableColumn id="9" xr3:uid="{4F0A1831-6CF5-4B29-ADF5-52AF0D8E18B5}" name=" EtOH concentraion (g/L)"/>
-    <tableColumn id="10" xr3:uid="{E4BF717E-E2AB-4502-B8B5-71D2DC582F7B}" name="OD"/>
-    <tableColumn id="11" xr3:uid="{69E10D87-5DA6-4BBE-BCC4-E41D8208B164}" name="sample volume ml"/>
-    <tableColumn id="12" xr3:uid="{C9C6792B-3FFA-4192-A103-C7751E682885}" name="ODxml"/>
-    <tableColumn id="13" xr3:uid="{105B6904-4F4E-4B22-847E-8BDEAED5DDE1}" name="compound"/>
-    <tableColumn id="14" xr3:uid="{7221DC24-9ECF-4CC7-B20B-7539A9FB1C13}" name="peakAreaTop"/>
-    <tableColumn id="15" xr3:uid="{61D5690D-2E76-4439-BA32-BC1278C127F6}" name="amount"/>
-    <tableColumn id="16" xr3:uid="{9D8F025C-3A87-47A2-B62C-342B5A0E3739}" name="amount_int"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,27 +323,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,24 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,34 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131:I254"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -772,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -799,13 +630,13 @@
         <v>8703433</v>
       </c>
       <c r="O2">
-        <v>3.4001591189853131</v>
+        <v>3.400159118985313</v>
       </c>
       <c r="P2">
-        <v>217.95891788367399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>217.958917883674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -822,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -849,13 +680,13 @@
         <v>1346292.12</v>
       </c>
       <c r="O3">
-        <v>6.4975349429535818</v>
+        <v>6.497534942953582</v>
       </c>
       <c r="P3">
-        <v>416.50865018933217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>416.5086501893322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -872,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -896,16 +727,16 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>988751.06</v>
+        <v>988751.0600000001</v>
       </c>
       <c r="O4">
         <v>1.833073826570836</v>
       </c>
       <c r="P4">
-        <v>117.50473247248949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117.5047324724895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -922,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -952,10 +783,10 @@
         <v>12.58289029691948</v>
       </c>
       <c r="P5">
-        <v>806.59553185381321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>806.5955318538132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -972,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -996,16 +827,16 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <v>623393.06000000006</v>
+        <v>623393.0600000001</v>
       </c>
       <c r="O6">
-        <v>0.53486555441040939</v>
+        <v>0.5348655544104094</v>
       </c>
       <c r="P6">
-        <v>34.286253487846757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>34.28625348784676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1022,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,13 +880,13 @@
         <v>58503476</v>
       </c>
       <c r="O7">
-        <v>415.11926868111362</v>
+        <v>415.1192686811136</v>
       </c>
       <c r="P7">
-        <v>26610.209530840621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>26610.20953084062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1072,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1099,13 +930,13 @@
         <v>835066.75</v>
       </c>
       <c r="O8">
-        <v>0.81487810055302945</v>
+        <v>0.8148781005530294</v>
       </c>
       <c r="P8">
-        <v>52.235775676476258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.23577567647626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1122,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1149,13 +980,13 @@
         <v>61429.18</v>
       </c>
       <c r="O9">
-        <v>3.9684487212830528E-2</v>
+        <v>0.03968448827444207</v>
       </c>
       <c r="P9">
-        <v>2.5438773854378551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.543877453489877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1172,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1196,16 +1027,16 @@
         <v>39</v>
       </c>
       <c r="N10">
-        <v>84278.32</v>
+        <v>84278.32000000001</v>
       </c>
       <c r="O10">
-        <v>4.4382100609768792E-2</v>
+        <v>0.04438210060976879</v>
       </c>
       <c r="P10">
         <v>2.845006449344154</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1222,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1252,10 +1083,10 @@
         <v>22.69007671458391</v>
       </c>
       <c r="P11">
-        <v>1454.4920970887131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1454.492097088713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1272,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1299,13 +1130,13 @@
         <v>7305301.5</v>
       </c>
       <c r="O12">
-        <v>7.8209014589874739</v>
+        <v>7.820901458987474</v>
       </c>
       <c r="P12">
-        <v>501.33983711458183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>501.3398371145818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1322,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1349,13 +1180,13 @@
         <v>24945106</v>
       </c>
       <c r="O13">
-        <v>44.940985394952243</v>
+        <v>44.94098539495224</v>
       </c>
       <c r="P13">
-        <v>2880.8323971123241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2880.832397112324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1372,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1396,16 +1227,16 @@
         <v>43</v>
       </c>
       <c r="N14">
-        <v>38653.360000000001</v>
+        <v>38653.36</v>
       </c>
       <c r="O14">
-        <v>0.12585976075504851</v>
+        <v>0.1258597607550485</v>
       </c>
       <c r="P14">
-        <v>8.0679333817338783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.067933381733878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1422,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1449,13 +1280,13 @@
         <v>23424362</v>
       </c>
       <c r="O15">
-        <v>73.621297656770395</v>
+        <v>73.62129765677039</v>
       </c>
       <c r="P15">
-        <v>4719.3139523570781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4719.313952357078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1472,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1499,13 +1330,13 @@
         <v>12965.7</v>
       </c>
       <c r="O16">
-        <v>0.10907033075460219</v>
+        <v>0.1090703307546022</v>
       </c>
       <c r="P16">
-        <v>6.9916878688847559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.991687868884756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1522,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1552,10 +1383,10 @@
         <v>0.6813621439835742</v>
       </c>
       <c r="P17">
-        <v>43.677060511767593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43.67706051176759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1572,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1599,13 +1430,13 @@
         <v>2345763.5</v>
       </c>
       <c r="O18">
-        <v>6.2549291715701631</v>
+        <v>6.254929171570163</v>
       </c>
       <c r="P18">
-        <v>400.95699817757458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>400.9569981775746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1622,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1649,13 +1480,13 @@
         <v>55651.24</v>
       </c>
       <c r="O19">
-        <v>5.2395689388560332E-2</v>
+        <v>0.05239568938856033</v>
       </c>
       <c r="P19">
-        <v>3.3586980377282272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.358698037728227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1672,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1696,16 +1527,16 @@
         <v>49</v>
       </c>
       <c r="N20">
-        <v>719880.31</v>
+        <v>719880.3100000001</v>
       </c>
       <c r="O20">
-        <v>0.80765054561233995</v>
+        <v>0.80765054561234</v>
       </c>
       <c r="P20">
-        <v>51.772470872585913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51.77247087258591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1722,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1749,13 +1580,13 @@
         <v>10732.57</v>
       </c>
       <c r="O21">
-        <v>1.086217739072699E-2</v>
+        <v>0.01086217739072699</v>
       </c>
       <c r="P21">
         <v>0.6962934224824997</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1772,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1799,13 +1630,13 @@
         <v>1844384.62</v>
       </c>
       <c r="O22">
-        <v>0.38959607857246947</v>
+        <v>0.3895960785724695</v>
       </c>
       <c r="P22">
-        <v>24.974107600799329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24.97410760079933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1822,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1852,10 +1683,10 @@
         <v>2.862925259824769</v>
       </c>
       <c r="P23">
-        <v>183.52084998876731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>183.5208499887673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1872,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1899,13 +1730,13 @@
         <v>5454995</v>
       </c>
       <c r="O24">
-        <v>2.1434028149094182</v>
+        <v>2.143402814909418</v>
       </c>
       <c r="P24">
-        <v>137.39761634034741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137.3976163403474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1922,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1946,16 +1777,16 @@
         <v>32</v>
       </c>
       <c r="N25">
-        <v>664678.68999999994</v>
+        <v>664678.6899999999</v>
       </c>
       <c r="O25">
-        <v>3.2780035476656519</v>
+        <v>3.278003547665652</v>
       </c>
       <c r="P25">
-        <v>210.12843254267011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>210.1284325426701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1972,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1999,13 +1830,13 @@
         <v>3026707</v>
       </c>
       <c r="O26">
-        <v>4.9393607447340866</v>
+        <v>4.939360744734087</v>
       </c>
       <c r="P26">
-        <v>316.62568876500569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>316.6256887650057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2022,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2049,13 +1880,13 @@
         <v>11147725</v>
       </c>
       <c r="O27">
-        <v>16.675760058106651</v>
+        <v>16.67576005810665</v>
       </c>
       <c r="P27">
         <v>1068.95897808376</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2072,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2105,7 +1936,7 @@
         <v>106.1925381440751</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2122,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2149,13 +1980,13 @@
         <v>58143076</v>
       </c>
       <c r="O29">
-        <v>412.48274293779508</v>
+        <v>412.4827429377951</v>
       </c>
       <c r="P29">
-        <v>26441.201470371481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>26441.20147037148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2172,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2196,7 +2027,7 @@
         <v>37</v>
       </c>
       <c r="N30">
-        <v>1192175.1200000001</v>
+        <v>1192175.12</v>
       </c>
       <c r="O30">
         <v>1.117324055705774</v>
@@ -2205,7 +2036,7 @@
         <v>71.62333690421633</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2222,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2249,13 +2080,13 @@
         <v>105322.15</v>
       </c>
       <c r="O31">
-        <v>7.3944408726211414E-2</v>
+        <v>0.07394440967250236</v>
       </c>
       <c r="P31">
-        <v>4.7400262003981686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4.740026261057845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2272,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2296,16 +2127,16 @@
         <v>39</v>
       </c>
       <c r="N32">
-        <v>137608.92000000001</v>
+        <v>137608.92</v>
       </c>
       <c r="O32">
         <v>0.1014226265867879</v>
       </c>
       <c r="P32">
-        <v>6.5014504222299943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.501450422229994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2322,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2349,13 +2180,13 @@
         <v>10653044</v>
       </c>
       <c r="O33">
-        <v>25.846548664755389</v>
+        <v>25.84654866475539</v>
       </c>
       <c r="P33">
-        <v>1656.8300426125249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1656.830042612525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2372,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2399,13 +2230,13 @@
         <v>10474333</v>
       </c>
       <c r="O34">
-        <v>12.707268189112501</v>
+        <v>12.7072681891125</v>
       </c>
       <c r="P34">
-        <v>814.56847366105774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>814.5684736610577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2422,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2449,13 +2280,13 @@
         <v>23553810</v>
       </c>
       <c r="O35">
-        <v>42.067192277151939</v>
+        <v>42.06719227715194</v>
       </c>
       <c r="P35">
-        <v>2696.6148895610222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2696.614889561022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2472,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2499,13 +2330,13 @@
         <v>96892.59</v>
       </c>
       <c r="O36">
-        <v>0.37205906261528482</v>
+        <v>0.3720590626152848</v>
       </c>
       <c r="P36">
-        <v>23.849939911236209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23.84993991123621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2522,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -2549,13 +2380,13 @@
         <v>25945976</v>
       </c>
       <c r="O37">
-        <v>83.243765679402699</v>
+        <v>83.2437656794027</v>
       </c>
       <c r="P37">
-        <v>5336.1388256027394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5336.138825602739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2572,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2599,13 +2430,13 @@
         <v>89730.2</v>
       </c>
       <c r="O38">
-        <v>0.93744279797209185</v>
+        <v>0.9374427979720918</v>
       </c>
       <c r="P38">
         <v>60.09248704949308</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2622,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -2649,13 +2480,13 @@
         <v>38832124</v>
       </c>
       <c r="O39">
-        <v>1.3994792700605081</v>
+        <v>1.399479270060508</v>
       </c>
       <c r="P39">
-        <v>89.710209619263338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>89.71020961926334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2672,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2699,13 +2530,13 @@
         <v>2142917.75</v>
       </c>
       <c r="O40">
-        <v>5.6085475287473194</v>
+        <v>5.608547528747319</v>
       </c>
       <c r="P40">
-        <v>359.52227748380261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>359.5222774838026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -2722,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2746,16 +2577,16 @@
         <v>49</v>
       </c>
       <c r="N41">
-        <v>1290142.8799999999</v>
+        <v>1290142.88</v>
       </c>
       <c r="O41">
-        <v>1.3752910103500811</v>
+        <v>1.375291010350081</v>
       </c>
       <c r="P41">
-        <v>88.159680150646224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88.15968015064622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -2772,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2799,13 +2630,13 @@
         <v>13236.6</v>
       </c>
       <c r="O42">
-        <v>1.378558731698187E-2</v>
+        <v>0.01378558731698187</v>
       </c>
       <c r="P42">
-        <v>0.88369149467832542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.8836914946783254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -2822,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2849,13 +2680,13 @@
         <v>2355612.25</v>
       </c>
       <c r="O43">
-        <v>0.50525686021568983</v>
+        <v>0.5052568602156898</v>
       </c>
       <c r="P43">
-        <v>32.388260270236543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32.38826027023654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -2872,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2899,13 +2730,13 @@
         <v>3220742.25</v>
       </c>
       <c r="O44">
-        <v>3.2881567138936019</v>
+        <v>3.288156713893602</v>
       </c>
       <c r="P44">
-        <v>210.77927653164119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+        <v>210.7792765316412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -2940,22 +2771,22 @@
         <v>7.41</v>
       </c>
       <c r="L45">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M45" t="s">
         <v>31</v>
       </c>
       <c r="N45">
-        <v>746916.06</v>
+        <v>746916.0600000001</v>
       </c>
       <c r="O45">
-        <v>0.35140572888331317</v>
+        <v>0.3514057288833132</v>
       </c>
       <c r="P45">
-        <v>22.518126917329781</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+        <v>22.51812691732978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -2990,7 +2821,7 @@
         <v>7.41</v>
       </c>
       <c r="L46">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M46" t="s">
         <v>32</v>
@@ -2999,13 +2830,13 @@
         <v>14605.25</v>
       </c>
       <c r="O46">
-        <v>0.11597823137370999</v>
+        <v>0.11597823137371</v>
       </c>
       <c r="P46">
-        <v>7.4319008458392117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7.431900845839212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -3040,7 +2871,7 @@
         <v>7.41</v>
       </c>
       <c r="L47">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M47" t="s">
         <v>33</v>
@@ -3049,13 +2880,13 @@
         <v>3759455</v>
       </c>
       <c r="O47">
-        <v>6.1798633467032564</v>
+        <v>6.179863346703256</v>
       </c>
       <c r="P47">
         <v>396.0064840577117</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -3090,7 +2921,7 @@
         <v>7.41</v>
       </c>
       <c r="L48">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M48" t="s">
         <v>34</v>
@@ -3102,10 +2933,10 @@
         <v>21.10742532488872</v>
       </c>
       <c r="P48">
-        <v>1352.5666865884591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1352.566686588459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -3140,7 +2971,7 @@
         <v>7.41</v>
       </c>
       <c r="L49">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M49" t="s">
         <v>35</v>
@@ -3152,10 +2983,10 @@
         <v>1.480879970106687</v>
       </c>
       <c r="P49">
-        <v>94.894989965479226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+        <v>94.89498996547923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3190,7 +3021,7 @@
         <v>7.41</v>
       </c>
       <c r="L50">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M50" t="s">
         <v>36</v>
@@ -3199,13 +3030,13 @@
         <v>57423696</v>
       </c>
       <c r="O50">
-        <v>407.22007953816012</v>
+        <v>407.2200795381601</v>
       </c>
       <c r="P50">
-        <v>26094.718101110779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+        <v>26094.71810111078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3240,7 +3071,7 @@
         <v>7.41</v>
       </c>
       <c r="L51">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M51" t="s">
         <v>37</v>
@@ -3249,13 +3080,13 @@
         <v>493405.03</v>
       </c>
       <c r="O51">
-        <v>0.50354396635449927</v>
+        <v>0.5035439663544993</v>
       </c>
       <c r="P51">
-        <v>32.267165873642902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32.2671658736429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3290,22 +3121,22 @@
         <v>7.41</v>
       </c>
       <c r="L52">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M52" t="s">
         <v>38</v>
       </c>
       <c r="N52">
-        <v>753735.06</v>
+        <v>753735.0600000001</v>
       </c>
       <c r="O52">
-        <v>0.57298303423476382</v>
+        <v>0.5729830335303339</v>
       </c>
       <c r="P52">
-        <v>36.716830790938808</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+        <v>36.71683074579884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3340,22 +3171,22 @@
         <v>7.41</v>
       </c>
       <c r="L53">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M53" t="s">
         <v>39</v>
       </c>
       <c r="N53">
-        <v>944541.06</v>
+        <v>944541.0600000001</v>
       </c>
       <c r="O53">
-        <v>0.81361845913380737</v>
+        <v>0.8136184591338074</v>
       </c>
       <c r="P53">
-        <v>52.136781558108993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.13678155810899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3390,7 +3221,7 @@
         <v>7.41</v>
       </c>
       <c r="L54">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
@@ -3405,7 +3236,7 @@
         <v>2100.623879881</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3440,7 +3271,7 @@
         <v>7.41</v>
       </c>
       <c r="L55">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M55" t="s">
         <v>41</v>
@@ -3449,13 +3280,13 @@
         <v>26822526</v>
       </c>
       <c r="O55">
-        <v>46.723158937830902</v>
+        <v>46.7231589378309</v>
       </c>
       <c r="P55">
-        <v>2994.0263816530178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2994.026381653018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3490,7 +3321,7 @@
         <v>7.41</v>
       </c>
       <c r="L56">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M56" t="s">
         <v>42</v>
@@ -3499,13 +3330,13 @@
         <v>29966800</v>
       </c>
       <c r="O56">
-        <v>55.313551446244723</v>
+        <v>55.31355144624472</v>
       </c>
       <c r="P56">
-        <v>3544.4999023575551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3544.499902357555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -3540,7 +3371,7 @@
         <v>7.41</v>
       </c>
       <c r="L57">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M57" t="s">
         <v>44</v>
@@ -3549,13 +3380,13 @@
         <v>25732086</v>
       </c>
       <c r="O57">
-        <v>82.427562372567934</v>
+        <v>82.42756237256793</v>
       </c>
       <c r="P57">
         <v>5281.969411511609</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -3590,22 +3421,22 @@
         <v>7.41</v>
       </c>
       <c r="L58">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M58" t="s">
         <v>45</v>
       </c>
       <c r="N58">
-        <v>150765.76999999999</v>
+        <v>150765.77</v>
       </c>
       <c r="O58">
         <v>1.423230490802206</v>
       </c>
       <c r="P58">
-        <v>91.200803488151308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+        <v>91.20080348815131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>62</v>
       </c>
@@ -3640,7 +3471,7 @@
         <v>7.41</v>
       </c>
       <c r="L59">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M59" t="s">
         <v>46</v>
@@ -3649,13 +3480,13 @@
         <v>42724028</v>
       </c>
       <c r="O59">
-        <v>1.5498264360292171</v>
+        <v>1.549826436029217</v>
       </c>
       <c r="P59">
-        <v>99.313088882302566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+        <v>99.31308888230257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>63</v>
       </c>
@@ -3690,22 +3521,22 @@
         <v>7.41</v>
       </c>
       <c r="L60">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M60" t="s">
         <v>47</v>
       </c>
       <c r="N60">
-        <v>972242.31</v>
+        <v>972242.3100000001</v>
       </c>
       <c r="O60">
-        <v>2.5015691417094512</v>
+        <v>2.501569141709451</v>
       </c>
       <c r="P60">
-        <v>160.30089095159329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>160.3008909515933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -3740,7 +3571,7 @@
         <v>7.41</v>
       </c>
       <c r="L61">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M61" t="s">
         <v>48</v>
@@ -3749,13 +3580,13 @@
         <v>41794.31</v>
       </c>
       <c r="O61">
-        <v>3.6847415839214331E-2</v>
+        <v>0.03684741583921433</v>
       </c>
       <c r="P61">
-        <v>2.3611874202499852</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.361187420249985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>65</v>
       </c>
@@ -3790,7 +3621,7 @@
         <v>7.41</v>
       </c>
       <c r="L62">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M62" t="s">
         <v>49</v>
@@ -3799,13 +3630,13 @@
         <v>3482159.25</v>
       </c>
       <c r="O62">
-        <v>3.4084011073605169</v>
+        <v>3.408401107360517</v>
       </c>
       <c r="P62">
-        <v>218.41080668948669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+        <v>218.4108066894867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>66</v>
       </c>
@@ -3840,7 +3671,7 @@
         <v>7.41</v>
       </c>
       <c r="L63">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M63" t="s">
         <v>50</v>
@@ -3849,13 +3680,13 @@
         <v>50524.2</v>
       </c>
       <c r="O63">
-        <v>5.7318188749960183E-2</v>
+        <v>0.05731818874996018</v>
       </c>
       <c r="P63">
-        <v>3.6729573335204591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.672957333520459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>67</v>
       </c>
@@ -3890,7 +3721,7 @@
         <v>7.41</v>
       </c>
       <c r="L64">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
@@ -3899,13 +3730,13 @@
         <v>426799</v>
       </c>
       <c r="O64">
-        <v>7.1283669310775899E-2</v>
+        <v>0.0712836693107759</v>
       </c>
       <c r="P64">
-        <v>4.5678672279302184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4.567867227930218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -3940,7 +3771,7 @@
         <v>7.41</v>
       </c>
       <c r="L65">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M65" t="s">
         <v>52</v>
@@ -3952,10 +3783,10 @@
         <v>4.766971253203641</v>
       </c>
       <c r="P65">
-        <v>305.46816647530039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>305.4681664753004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>69</v>
       </c>
@@ -3990,7 +3821,7 @@
         <v>7.41</v>
       </c>
       <c r="L66">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M66" t="s">
         <v>31</v>
@@ -3999,13 +3830,13 @@
         <v>1038694</v>
       </c>
       <c r="O66">
-        <v>0.50402373297045766</v>
+        <v>0.5040237329704577</v>
       </c>
       <c r="P66">
-        <v>32.297909383668127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32.29790938366813</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>70</v>
       </c>
@@ -4040,7 +3871,7 @@
         <v>7.41</v>
       </c>
       <c r="L67">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M67" t="s">
         <v>33</v>
@@ -4049,13 +3880,13 @@
         <v>5896767.5</v>
       </c>
       <c r="O67">
-        <v>9.8189213992405406</v>
+        <v>9.818921399240541</v>
       </c>
       <c r="P67">
-        <v>629.19781917614353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+        <v>629.1978191761435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>71</v>
       </c>
@@ -4090,7 +3921,7 @@
         <v>7.41</v>
       </c>
       <c r="L68">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M68" t="s">
         <v>34</v>
@@ -4099,13 +3930,13 @@
         <v>13095355</v>
       </c>
       <c r="O68">
-        <v>21.022443570255849</v>
+        <v>21.02244357025585</v>
       </c>
       <c r="P68">
-        <v>1347.1210441893959</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1347.121044189396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -4140,7 +3971,7 @@
         <v>7.41</v>
       </c>
       <c r="L69">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M69" t="s">
         <v>35</v>
@@ -4149,13 +3980,13 @@
         <v>4702771.5</v>
       </c>
       <c r="O69">
-        <v>3.0549983208252489</v>
+        <v>3.054998320825249</v>
       </c>
       <c r="P69">
-        <v>195.76470804611009</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+        <v>195.7647080461101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -4190,7 +4021,7 @@
         <v>7.41</v>
       </c>
       <c r="L70">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M70" t="s">
         <v>36</v>
@@ -4199,13 +4030,13 @@
         <v>53992224</v>
       </c>
       <c r="O70">
-        <v>382.11696004460703</v>
+        <v>382.116960044607</v>
       </c>
       <c r="P70">
-        <v>24486.106788560352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24486.10678856035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -4240,7 +4071,7 @@
         <v>7.41</v>
       </c>
       <c r="L71">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M71" t="s">
         <v>37</v>
@@ -4249,13 +4080,13 @@
         <v>369254.62</v>
       </c>
       <c r="O71">
-        <v>0.37853006411708889</v>
+        <v>0.3785300641170889</v>
       </c>
       <c r="P71">
-        <v>24.256258009510059</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24.25625800951006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -4290,22 +4121,22 @@
         <v>7.41</v>
       </c>
       <c r="L72">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M72" t="s">
         <v>38</v>
       </c>
       <c r="N72">
-        <v>1073093.3799999999</v>
+        <v>1073093.38</v>
       </c>
       <c r="O72">
-        <v>0.80024047539224852</v>
+        <v>0.8002404738792293</v>
       </c>
       <c r="P72">
-        <v>51.279518539809047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51.27951844285457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -4340,22 +4171,22 @@
         <v>7.41</v>
       </c>
       <c r="L73">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
       </c>
       <c r="N73">
-        <v>732305.44</v>
+        <v>732305.4399999999</v>
       </c>
       <c r="O73">
-        <v>0.66035036679526005</v>
+        <v>0.66035036679526</v>
       </c>
       <c r="P73">
-        <v>42.315341348173007</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42.31534134817301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -4390,7 +4221,7 @@
         <v>7.41</v>
       </c>
       <c r="L74">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M74" t="s">
         <v>40</v>
@@ -4399,13 +4230,13 @@
         <v>13666637</v>
       </c>
       <c r="O74">
-        <v>35.207890713919568</v>
+        <v>35.20789071391957</v>
       </c>
       <c r="P74">
         <v>2256.126427155596</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -4440,7 +4271,7 @@
         <v>7.41</v>
       </c>
       <c r="L75">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M75" t="s">
         <v>41</v>
@@ -4449,13 +4280,13 @@
         <v>27504342</v>
       </c>
       <c r="O75">
-        <v>48.141822062662392</v>
+        <v>48.14182206266239</v>
       </c>
       <c r="P75">
         <v>3084.934507708354</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -4490,7 +4321,7 @@
         <v>7.41</v>
       </c>
       <c r="L76">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M76" t="s">
         <v>42</v>
@@ -4499,13 +4330,13 @@
         <v>30573398</v>
       </c>
       <c r="O76">
-        <v>56.566510671076408</v>
+        <v>56.56651067107641</v>
       </c>
       <c r="P76">
         <v>3624.789699956068</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -4540,7 +4371,7 @@
         <v>7.41</v>
       </c>
       <c r="L77">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M77" t="s">
         <v>43</v>
@@ -4549,13 +4380,13 @@
         <v>16870.12</v>
       </c>
       <c r="O77">
-        <v>3.3773747937674778E-2</v>
+        <v>0.03377374793767478</v>
       </c>
       <c r="P77">
-        <v>2.1642263629316139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.164226362931614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -4590,7 +4421,7 @@
         <v>7.41</v>
       </c>
       <c r="L78">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M78" t="s">
         <v>44</v>
@@ -4599,13 +4430,13 @@
         <v>24774712</v>
       </c>
       <c r="O78">
-        <v>78.774227365425858</v>
+        <v>78.77422736542586</v>
       </c>
       <c r="P78">
-        <v>5047.8632071996508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5047.863207199651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -4640,7 +4471,7 @@
         <v>7.41</v>
       </c>
       <c r="L79">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M79" t="s">
         <v>45</v>
@@ -4649,13 +4480,13 @@
         <v>168009.98</v>
       </c>
       <c r="O79">
-        <v>1.5547645772697589</v>
+        <v>1.554764577269759</v>
       </c>
       <c r="P79">
-        <v>99.629525644855008</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+        <v>99.62952564485501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>84</v>
       </c>
@@ -4690,7 +4521,7 @@
         <v>7.41</v>
       </c>
       <c r="L80">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M80" t="s">
         <v>46</v>
@@ -4705,7 +4536,7 @@
         <v>106.7304097099771</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>85</v>
       </c>
@@ -4740,7 +4571,7 @@
         <v>7.41</v>
       </c>
       <c r="L81">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M81" t="s">
         <v>47</v>
@@ -4749,13 +4580,13 @@
         <v>950829.75</v>
       </c>
       <c r="O81">
-        <v>2.4469629829175452</v>
+        <v>2.446962982917545</v>
       </c>
       <c r="P81">
-        <v>156.80172086677001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+        <v>156.80172086677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>86</v>
       </c>
@@ -4790,7 +4621,7 @@
         <v>7.41</v>
       </c>
       <c r="L82">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M82" t="s">
         <v>48</v>
@@ -4799,13 +4630,13 @@
         <v>39509.15</v>
       </c>
       <c r="O82">
-        <v>3.4283334705512737E-2</v>
+        <v>0.03428333470551274</v>
       </c>
       <c r="P82">
-        <v>2.1968807523464711</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.196880752346471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>87</v>
       </c>
@@ -4840,7 +4671,7 @@
         <v>7.41</v>
       </c>
       <c r="L83">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M83" t="s">
         <v>49</v>
@@ -4849,13 +4680,13 @@
         <v>4255836.5</v>
       </c>
       <c r="O83">
-        <v>4.1259920206082441</v>
+        <v>4.125992020608244</v>
       </c>
       <c r="P83">
-        <v>264.39413004219318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+        <v>264.3941300421932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>88</v>
       </c>
@@ -4890,7 +4721,7 @@
         <v>7.41</v>
       </c>
       <c r="L84">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M84" t="s">
         <v>50</v>
@@ -4899,13 +4730,13 @@
         <v>36349.83</v>
       </c>
       <c r="O84">
-        <v>4.0769867061957607E-2</v>
+        <v>0.04076986706195761</v>
       </c>
       <c r="P84">
-        <v>2.6125386282722589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.612538628272259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>89</v>
       </c>
@@ -4940,7 +4771,7 @@
         <v>7.41</v>
       </c>
       <c r="L85">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M85" t="s">
         <v>51</v>
@@ -4949,13 +4780,13 @@
         <v>488809.88</v>
       </c>
       <c r="O85">
-        <v>8.5207930628577483E-2</v>
+        <v>0.08520793062857748</v>
       </c>
       <c r="P85">
-        <v>5.4601357876395502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.46013578763955</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>90</v>
       </c>
@@ -4990,7 +4821,7 @@
         <v>7.41</v>
       </c>
       <c r="L86">
-        <v>2.0007000000000001</v>
+        <v>2.0007</v>
       </c>
       <c r="M86" t="s">
         <v>52</v>
@@ -4999,13 +4830,13 @@
         <v>5208944.5</v>
       </c>
       <c r="O86">
-        <v>5.4253619044747152</v>
+        <v>5.425361904474715</v>
       </c>
       <c r="P86">
-        <v>347.65792898605463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>347.6579289860546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>91</v>
       </c>
@@ -5022,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="F87">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -5034,28 +4865,28 @@
         <v>40</v>
       </c>
       <c r="J87">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K87">
         <v>6.67</v>
       </c>
       <c r="L87">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M87" t="s">
         <v>31</v>
       </c>
       <c r="N87">
-        <v>599322.43999999994</v>
+        <v>599322.4399999999</v>
       </c>
       <c r="O87">
-        <v>0.27305810336708358</v>
+        <v>0.2730581033670836</v>
       </c>
       <c r="P87">
-        <v>18.098252158210261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+        <v>18.09825215821026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>92</v>
       </c>
@@ -5072,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="F88">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -5084,13 +4915,13 @@
         <v>40</v>
       </c>
       <c r="J88">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K88">
         <v>6.67</v>
       </c>
       <c r="L88">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M88" t="s">
         <v>32</v>
@@ -5099,13 +4930,13 @@
         <v>10466.16</v>
       </c>
       <c r="O88">
-        <v>9.1726117203066226E-2</v>
+        <v>0.09172611720306623</v>
       </c>
       <c r="P88">
         <v>6.079593969796683</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>93</v>
       </c>
@@ -5122,7 +4953,7 @@
         <v>9</v>
       </c>
       <c r="F89">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -5134,13 +4965,13 @@
         <v>40</v>
       </c>
       <c r="J89">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K89">
         <v>6.67</v>
       </c>
       <c r="L89">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
@@ -5152,10 +4983,10 @@
         <v>6.500109394147966</v>
       </c>
       <c r="P89">
-        <v>430.82632385053938</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+        <v>430.8263238505394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>94</v>
       </c>
@@ -5172,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="F90">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -5184,13 +5015,13 @@
         <v>40</v>
       </c>
       <c r="J90">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K90">
         <v>6.67</v>
       </c>
       <c r="L90">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M90" t="s">
         <v>34</v>
@@ -5202,10 +5033,10 @@
         <v>13.63666137622995</v>
       </c>
       <c r="P90">
-        <v>903.83597168457891</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>903.8359716845789</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>95</v>
       </c>
@@ -5222,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="F91">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -5234,13 +5065,13 @@
         <v>40</v>
       </c>
       <c r="J91">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K91">
         <v>6.67</v>
       </c>
       <c r="L91">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M91" t="s">
         <v>35</v>
@@ -5255,7 +5086,7 @@
         <v>148.4814019831299</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>96</v>
       </c>
@@ -5272,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -5284,13 +5115,13 @@
         <v>40</v>
       </c>
       <c r="J92">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K92">
         <v>6.67</v>
       </c>
       <c r="L92">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M92" t="s">
         <v>36</v>
@@ -5299,13 +5130,13 @@
         <v>59674464</v>
       </c>
       <c r="O92">
-        <v>423.68569489397993</v>
+        <v>423.6856948939799</v>
       </c>
       <c r="P92">
         <v>28081.82744794579</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>97</v>
       </c>
@@ -5322,7 +5153,7 @@
         <v>9</v>
       </c>
       <c r="F93">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -5334,13 +5165,13 @@
         <v>40</v>
       </c>
       <c r="J93">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K93">
         <v>6.67</v>
       </c>
       <c r="L93">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M93" t="s">
         <v>37</v>
@@ -5349,13 +5180,13 @@
         <v>360025.5</v>
       </c>
       <c r="O93">
-        <v>0.36920818449686782</v>
+        <v>0.3692081844968678</v>
       </c>
       <c r="P93">
         <v>24.4710658262956</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>98</v>
       </c>
@@ -5372,7 +5203,7 @@
         <v>9</v>
       </c>
       <c r="F94">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -5384,13 +5215,13 @@
         <v>40</v>
       </c>
       <c r="J94">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K94">
         <v>6.67</v>
       </c>
       <c r="L94">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M94" t="s">
         <v>38</v>
@@ -5399,13 +5230,13 @@
         <v>1062891</v>
       </c>
       <c r="O94">
-        <v>0.79298039595384129</v>
+        <v>0.7929803944666536</v>
       </c>
       <c r="P94">
-        <v>52.558627579700968</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.55862748113038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>99</v>
       </c>
@@ -5422,7 +5253,7 @@
         <v>9</v>
       </c>
       <c r="F95">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -5434,28 +5265,28 @@
         <v>40</v>
       </c>
       <c r="J95">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K95">
         <v>6.67</v>
       </c>
       <c r="L95">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M95" t="s">
         <v>39</v>
       </c>
       <c r="N95">
-        <v>981397.31</v>
+        <v>981397.3100000001</v>
       </c>
       <c r="O95">
-        <v>0.84023457158586701</v>
+        <v>0.840234571585867</v>
       </c>
       <c r="P95">
-        <v>55.690627603033178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+        <v>55.69062760303318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -5472,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="F96">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -5484,13 +5315,13 @@
         <v>40</v>
       </c>
       <c r="J96">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K96">
         <v>6.67</v>
       </c>
       <c r="L96">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -5499,13 +5330,13 @@
         <v>97515328</v>
       </c>
       <c r="O96">
-        <v>193.81456099999039</v>
+        <v>193.8145609999904</v>
       </c>
       <c r="P96">
-        <v>12846.001468761009</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12846.00146876101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>101</v>
       </c>
@@ -5522,7 +5353,7 @@
         <v>9</v>
       </c>
       <c r="F97">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5534,13 +5365,13 @@
         <v>40</v>
       </c>
       <c r="J97">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K97">
         <v>6.67</v>
       </c>
       <c r="L97">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M97" t="s">
         <v>42</v>
@@ -5549,13 +5380,13 @@
         <v>26649942</v>
       </c>
       <c r="O97">
-        <v>48.462411434974037</v>
+        <v>48.46241143497404</v>
       </c>
       <c r="P97">
-        <v>3212.0817200798838</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3212.081720079884</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -5572,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="F98">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -5584,13 +5415,13 @@
         <v>40</v>
       </c>
       <c r="J98">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K98">
         <v>6.67</v>
       </c>
       <c r="L98">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M98" t="s">
         <v>43</v>
@@ -5599,13 +5430,13 @@
         <v>13047.26</v>
       </c>
       <c r="O98">
-        <v>1.7613069592349411E-2</v>
+        <v>0.01761306959234941</v>
       </c>
       <c r="P98">
         <v>1.167391741287805</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -5622,7 +5453,7 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5634,13 +5465,13 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K99">
         <v>6.67</v>
       </c>
       <c r="L99">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M99" t="s">
         <v>44</v>
@@ -5649,13 +5480,13 @@
         <v>27703890</v>
       </c>
       <c r="O99">
-        <v>89.951957833926613</v>
+        <v>89.95195783392661</v>
       </c>
       <c r="P99">
-        <v>5962.0029397719336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5962.002939771934</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -5672,7 +5503,7 @@
         <v>9</v>
       </c>
       <c r="F100">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -5684,13 +5515,13 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K100">
         <v>6.67</v>
       </c>
       <c r="L100">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M100" t="s">
         <v>45</v>
@@ -5699,13 +5530,13 @@
         <v>283028.19</v>
       </c>
       <c r="O100">
-        <v>2.4320918180933839</v>
+        <v>2.432091818093384</v>
       </c>
       <c r="P100">
         <v>161.1986989325884</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>106</v>
       </c>
@@ -5722,7 +5553,7 @@
         <v>9</v>
       </c>
       <c r="F101">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5734,13 +5565,13 @@
         <v>40</v>
       </c>
       <c r="J101">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K101">
         <v>6.67</v>
       </c>
       <c r="L101">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M101" t="s">
         <v>46</v>
@@ -5749,13 +5580,13 @@
         <v>50879396</v>
       </c>
       <c r="O101">
-        <v>1.8648744090089979</v>
+        <v>1.864874409008998</v>
       </c>
       <c r="P101">
         <v>123.6036099330307</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>107</v>
       </c>
@@ -5772,7 +5603,7 @@
         <v>9</v>
       </c>
       <c r="F102">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -5784,13 +5615,13 @@
         <v>40</v>
       </c>
       <c r="J102">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K102">
         <v>6.67</v>
       </c>
       <c r="L102">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M102" t="s">
         <v>47</v>
@@ -5799,13 +5630,13 @@
         <v>650377</v>
       </c>
       <c r="O102">
-        <v>1.6807505087451451</v>
+        <v>1.680750508745145</v>
       </c>
       <c r="P102">
         <v>111.3999040761546</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>108</v>
       </c>
@@ -5822,7 +5653,7 @@
         <v>9</v>
       </c>
       <c r="F103">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5834,28 +5665,28 @@
         <v>40</v>
       </c>
       <c r="J103">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K103">
         <v>6.67</v>
       </c>
       <c r="L103">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M103" t="s">
         <v>48</v>
       </c>
       <c r="N103">
-        <v>77289.990000000005</v>
+        <v>77289.99000000001</v>
       </c>
       <c r="O103">
-        <v>7.6675613171527476E-2</v>
+        <v>0.07667561317152748</v>
       </c>
       <c r="P103">
-        <v>5.0820487085056607</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.082048708505661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>109</v>
       </c>
@@ -5872,7 +5703,7 @@
         <v>9</v>
       </c>
       <c r="F104">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -5884,13 +5715,13 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K104">
         <v>6.67</v>
       </c>
       <c r="L104">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
@@ -5902,10 +5733,10 @@
         <v>2.792979010444947</v>
       </c>
       <c r="P104">
-        <v>185.11825058591049</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+        <v>185.1182505859105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>110</v>
       </c>
@@ -5922,7 +5753,7 @@
         <v>9</v>
       </c>
       <c r="F105">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -5934,13 +5765,13 @@
         <v>40</v>
       </c>
       <c r="J105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K105">
         <v>6.67</v>
       </c>
       <c r="L105">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M105" t="s">
         <v>50</v>
@@ -5952,10 +5783,10 @@
         <v>0.1079219834223331</v>
       </c>
       <c r="P105">
-        <v>7.1530536735831749</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7.153053673583175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>111</v>
       </c>
@@ -5972,7 +5803,7 @@
         <v>9</v>
       </c>
       <c r="F106">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -5984,28 +5815,28 @@
         <v>40</v>
       </c>
       <c r="J106">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K106">
         <v>6.67</v>
       </c>
       <c r="L106">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M106" t="s">
         <v>51</v>
       </c>
       <c r="N106">
-        <v>333815.96999999997</v>
+        <v>333815.97</v>
       </c>
       <c r="O106">
-        <v>5.040475245229907E-2</v>
+        <v>0.05040475245229907</v>
       </c>
       <c r="P106">
         <v>3.340819805766817</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -6022,7 +5853,7 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6034,13 +5865,13 @@
         <v>40</v>
       </c>
       <c r="J107">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K107">
         <v>6.67</v>
       </c>
       <c r="L107">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M107" t="s">
         <v>52</v>
@@ -6049,13 +5880,13 @@
         <v>12313113</v>
       </c>
       <c r="O107">
-        <v>23.827168264025939</v>
+        <v>23.82716826402594</v>
       </c>
       <c r="P107">
         <v>1579.261315232699</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>113</v>
       </c>
@@ -6072,7 +5903,7 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -6084,28 +5915,28 @@
         <v>40</v>
       </c>
       <c r="J108">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K108">
         <v>6.67</v>
       </c>
       <c r="L108">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M108" t="s">
         <v>31</v>
       </c>
       <c r="N108">
-        <v>752381.94</v>
+        <v>752381.9399999999</v>
       </c>
       <c r="O108">
         <v>0.3543072006363378</v>
       </c>
       <c r="P108">
-        <v>23.483430740620271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23.48343074062027</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>114</v>
       </c>
@@ -6122,7 +5953,7 @@
         <v>9</v>
       </c>
       <c r="F109">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -6134,13 +5965,13 @@
         <v>40</v>
       </c>
       <c r="J109">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K109">
         <v>6.67</v>
       </c>
       <c r="L109">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M109" t="s">
         <v>32</v>
@@ -6149,13 +5980,13 @@
         <v>11074.24</v>
       </c>
       <c r="O109">
-        <v>9.528903213965495E-2</v>
+        <v>0.09528903213965495</v>
       </c>
       <c r="P109">
-        <v>6.3157434637889924</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.315743463788992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>115</v>
       </c>
@@ -6172,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="F110">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -6184,13 +6015,13 @@
         <v>40</v>
       </c>
       <c r="J110">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K110">
         <v>6.67</v>
       </c>
       <c r="L110">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M110" t="s">
         <v>33</v>
@@ -6199,13 +6030,13 @@
         <v>5196108.5</v>
       </c>
       <c r="O110">
-        <v>8.6259565071001916</v>
+        <v>8.625956507100192</v>
       </c>
       <c r="P110">
-        <v>571.72716739111831</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+        <v>571.7271673911183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>116</v>
       </c>
@@ -6222,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="F111">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -6234,13 +6065,13 @@
         <v>40</v>
       </c>
       <c r="J111">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K111">
         <v>6.67</v>
       </c>
       <c r="L111">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M111" t="s">
         <v>34</v>
@@ -6249,13 +6080,13 @@
         <v>11618692</v>
       </c>
       <c r="O111">
-        <v>17.726855232070069</v>
+        <v>17.72685523207007</v>
       </c>
       <c r="P111">
-        <v>1174.9334372647941</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1174.933437264794</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>117</v>
       </c>
@@ -6272,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="F112">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -6284,13 +6115,13 @@
         <v>40</v>
       </c>
       <c r="J112">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K112">
         <v>6.67</v>
       </c>
       <c r="L112">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M112" t="s">
         <v>35</v>
@@ -6299,13 +6130,13 @@
         <v>5082503</v>
       </c>
       <c r="O112">
-        <v>3.2792449121904701</v>
+        <v>3.27924491219047</v>
       </c>
       <c r="P112">
-        <v>217.34788522121369</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+        <v>217.3478852212137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>118</v>
       </c>
@@ -6322,7 +6153,7 @@
         <v>9</v>
       </c>
       <c r="F113">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -6334,13 +6165,13 @@
         <v>40</v>
       </c>
       <c r="J113">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K113">
         <v>6.67</v>
       </c>
       <c r="L113">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M113" t="s">
         <v>36</v>
@@ -6349,13 +6180,13 @@
         <v>53990060</v>
       </c>
       <c r="O113">
-        <v>382.10112918526028</v>
+        <v>382.1011291852603</v>
       </c>
       <c r="P113">
-        <v>25325.608361950352</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+        <v>25325.60836195035</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>119</v>
       </c>
@@ -6372,7 +6203,7 @@
         <v>9</v>
       </c>
       <c r="F114">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -6384,13 +6215,13 @@
         <v>40</v>
       </c>
       <c r="J114">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K114">
         <v>6.67</v>
       </c>
       <c r="L114">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M114" t="s">
         <v>37</v>
@@ -6399,13 +6230,13 @@
         <v>378186.25</v>
       </c>
       <c r="O114">
-        <v>0.38755146373832638</v>
+        <v>0.3875514637383264</v>
       </c>
       <c r="P114">
-        <v>25.686855759012172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+        <v>25.68685575901217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>120</v>
       </c>
@@ -6422,7 +6253,7 @@
         <v>9</v>
       </c>
       <c r="F115">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -6434,13 +6265,13 @@
         <v>40</v>
       </c>
       <c r="J115">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K115">
         <v>6.67</v>
       </c>
       <c r="L115">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M115" t="s">
         <v>38</v>
@@ -6449,13 +6280,13 @@
         <v>1463941.62</v>
       </c>
       <c r="O115">
-        <v>1.0864124054394859</v>
+        <v>1.086412403040499</v>
       </c>
       <c r="P115">
-        <v>72.007259330512852</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+        <v>72.00725917150838</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>121</v>
       </c>
@@ -6472,7 +6303,7 @@
         <v>9</v>
       </c>
       <c r="F116">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -6484,13 +6315,13 @@
         <v>40</v>
       </c>
       <c r="J116">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K116">
         <v>6.67</v>
       </c>
       <c r="L116">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M116" t="s">
         <v>39</v>
@@ -6499,13 +6330,13 @@
         <v>2088560.62</v>
       </c>
       <c r="O116">
-        <v>1.5678312086261921</v>
+        <v>1.567831208626192</v>
       </c>
       <c r="P116">
         <v>103.915628964443</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -6522,7 +6353,7 @@
         <v>9</v>
       </c>
       <c r="F117">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -6534,13 +6365,13 @@
         <v>40</v>
       </c>
       <c r="J117">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K117">
         <v>6.67</v>
       </c>
       <c r="L117">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M117" t="s">
         <v>40</v>
@@ -6549,13 +6380,13 @@
         <v>14645869</v>
       </c>
       <c r="O117">
-        <v>38.249749948888308</v>
+        <v>38.24974994888831</v>
       </c>
       <c r="P117">
         <v>2535.18797291595</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -6572,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="F118">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -6584,13 +6415,13 @@
         <v>40</v>
       </c>
       <c r="J118">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K118">
         <v>6.67</v>
       </c>
       <c r="L118">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M118" t="s">
         <v>41</v>
@@ -6599,13 +6430,13 @@
         <v>91017952</v>
       </c>
       <c r="O118">
-        <v>180.29538905423809</v>
+        <v>180.2953890542381</v>
       </c>
       <c r="P118">
-        <v>11949.952679776699</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11949.9526797767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>124</v>
       </c>
@@ -6622,7 +6453,7 @@
         <v>9</v>
       </c>
       <c r="F119">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -6634,13 +6465,13 @@
         <v>40</v>
       </c>
       <c r="J119">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K119">
         <v>6.67</v>
       </c>
       <c r="L119">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M119" t="s">
         <v>42</v>
@@ -6649,13 +6480,13 @@
         <v>31924550</v>
       </c>
       <c r="O119">
-        <v>59.357384301635328</v>
+        <v>59.35738430163533</v>
       </c>
       <c r="P119">
-        <v>3934.1989682635699</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3934.19896826357</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>125</v>
       </c>
@@ -6672,7 +6503,7 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -6684,13 +6515,13 @@
         <v>40</v>
       </c>
       <c r="J120">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K120">
         <v>6.67</v>
       </c>
       <c r="L120">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M120" t="s">
         <v>43</v>
@@ -6699,13 +6530,13 @@
         <v>81089.13</v>
       </c>
       <c r="O120">
-        <v>0.30525184660339427</v>
+        <v>0.3052518466033943</v>
       </c>
       <c r="P120">
         <v>20.23204886968945</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>126</v>
       </c>
@@ -6722,7 +6553,7 @@
         <v>9</v>
       </c>
       <c r="F121">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -6734,13 +6565,13 @@
         <v>40</v>
       </c>
       <c r="J121">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K121">
         <v>6.67</v>
       </c>
       <c r="L121">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M121" t="s">
         <v>44</v>
@@ -6749,13 +6580,13 @@
         <v>26126074</v>
       </c>
       <c r="O121">
-        <v>83.931018861666132</v>
+        <v>83.93101886166613</v>
       </c>
       <c r="P121">
-        <v>5562.9359631633888</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5562.935963163389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>127</v>
       </c>
@@ -6772,7 +6603,7 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -6784,13 +6615,13 @@
         <v>40</v>
       </c>
       <c r="J122">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K122">
         <v>6.67</v>
       </c>
       <c r="L122">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M122" t="s">
         <v>45</v>
@@ -6799,13 +6630,13 @@
         <v>376959.41</v>
       </c>
       <c r="O122">
-        <v>3.1485733045449371</v>
+        <v>3.148573304544937</v>
       </c>
       <c r="P122">
-        <v>208.68698969778629</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+        <v>208.6869896977863</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>128</v>
       </c>
@@ -6822,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="F123">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -6834,13 +6665,13 @@
         <v>40</v>
       </c>
       <c r="J123">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K123">
         <v>6.67</v>
       </c>
       <c r="L123">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M123" t="s">
         <v>53</v>
@@ -6849,13 +6680,13 @@
         <v>79260.86</v>
       </c>
       <c r="O123">
-        <v>2.1745485531613151E-2</v>
+        <v>0.02174548553161315</v>
       </c>
       <c r="P123">
-        <v>1.4412876805372621</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1.441287680537262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -6872,7 +6703,7 @@
         <v>9</v>
       </c>
       <c r="F124">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6884,13 +6715,13 @@
         <v>40</v>
       </c>
       <c r="J124">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K124">
         <v>6.67</v>
       </c>
       <c r="L124">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M124" t="s">
         <v>46</v>
@@ -6899,13 +6730,13 @@
         <v>48706560</v>
       </c>
       <c r="O124">
-        <v>1.7809361272027699</v>
+        <v>1.78093612720277</v>
       </c>
       <c r="P124">
-        <v>118.04019258293729</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+        <v>118.0401925829373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -6922,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="F125">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -6934,13 +6765,13 @@
         <v>40</v>
       </c>
       <c r="J125">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K125">
         <v>6.67</v>
       </c>
       <c r="L125">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M125" t="s">
         <v>47</v>
@@ -6952,10 +6783,10 @@
         <v>2.136093829099734</v>
       </c>
       <c r="P125">
-        <v>141.57999442584651</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+        <v>141.5799944258465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>131</v>
       </c>
@@ -6972,7 +6803,7 @@
         <v>9</v>
       </c>
       <c r="F126">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -6984,13 +6815,13 @@
         <v>40</v>
       </c>
       <c r="J126">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K126">
         <v>6.67</v>
       </c>
       <c r="L126">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M126" t="s">
         <v>48</v>
@@ -6999,13 +6830,13 @@
         <v>79268.91</v>
       </c>
       <c r="O126">
-        <v>7.8896075387348136E-2</v>
+        <v>0.07889607538734814</v>
       </c>
       <c r="P126">
-        <v>5.2292206275740218</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.229220627574022</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>132</v>
       </c>
@@ -7022,7 +6853,7 @@
         <v>9</v>
       </c>
       <c r="F127">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -7034,13 +6865,13 @@
         <v>40</v>
       </c>
       <c r="J127">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K127">
         <v>6.67</v>
       </c>
       <c r="L127">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M127" t="s">
         <v>49</v>
@@ -7049,13 +6880,13 @@
         <v>3341242.25</v>
       </c>
       <c r="O127">
-        <v>3.2776996311026458</v>
+        <v>3.277699631102646</v>
       </c>
       <c r="P127">
         <v>217.2454642110408</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -7072,7 +6903,7 @@
         <v>9</v>
       </c>
       <c r="F128">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -7084,13 +6915,13 @@
         <v>40</v>
       </c>
       <c r="J128">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K128">
         <v>6.67</v>
       </c>
       <c r="L128">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M128" t="s">
         <v>50</v>
@@ -7102,10 +6933,10 @@
         <v>0.1263740712913905</v>
       </c>
       <c r="P128">
-        <v>8.3760554266229299</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.37605542662293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -7122,7 +6953,7 @@
         <v>9</v>
       </c>
       <c r="F129">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -7134,13 +6965,13 @@
         <v>40</v>
       </c>
       <c r="J129">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K129">
         <v>6.67</v>
       </c>
       <c r="L129">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M129" t="s">
         <v>51</v>
@@ -7149,13 +6980,13 @@
         <v>349938.75</v>
       </c>
       <c r="O129">
-        <v>5.4025049437109243E-2</v>
+        <v>0.05402504943710924</v>
       </c>
       <c r="P129">
-        <v>3.5807725737336411</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.580772573733641</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
         <v>135</v>
       </c>
@@ -7172,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="F130">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -7184,13 +7015,13 @@
         <v>40</v>
       </c>
       <c r="J130">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K130">
         <v>6.67</v>
       </c>
       <c r="L130">
-        <v>1.9342999999999999</v>
+        <v>1.9343</v>
       </c>
       <c r="M130" t="s">
         <v>52</v>
@@ -7199,13 +7030,13 @@
         <v>12171457</v>
       </c>
       <c r="O130">
-        <v>23.341853766043581</v>
+        <v>23.34185376604358</v>
       </c>
       <c r="P130">
-        <v>1547.0947395031651</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1547.094739503165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
         <v>136</v>
       </c>
@@ -7222,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -7231,7 +7062,7 @@
         <v>25</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J131">
         <v>0.21</v>
@@ -7249,13 +7080,13 @@
         <v>7282117.5</v>
       </c>
       <c r="O131">
-        <v>2.8502803111688229</v>
+        <v>2.850280311168823</v>
       </c>
       <c r="P131">
-        <v>174.00978700664371</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>174.0097870066437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
         <v>137</v>
       </c>
@@ -7272,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -7281,7 +7112,7 @@
         <v>25</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J132">
         <v>0.21</v>
@@ -7299,13 +7130,13 @@
         <v>95931.12</v>
       </c>
       <c r="O132">
-        <v>0.60029420908297471</v>
+        <v>0.6002942090829747</v>
       </c>
       <c r="P132">
-        <v>36.647998112513733</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>36.64799811251373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
         <v>138</v>
       </c>
@@ -7322,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -7331,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J133">
         <v>0.21</v>
@@ -7349,13 +7180,13 @@
         <v>2295541.25</v>
       </c>
       <c r="O133">
-        <v>3.8249055400577672</v>
+        <v>3.824905540057767</v>
       </c>
       <c r="P133">
-        <v>233.51071673124349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>233.5107167312435</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
         <v>139</v>
       </c>
@@ -7372,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7381,7 +7212,7 @@
         <v>25</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J134">
         <v>0.21</v>
@@ -7402,10 +7233,10 @@
         <v>13.44383550301497</v>
       </c>
       <c r="P134">
-        <v>820.74697820604217</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>820.7469782060422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="1">
         <v>140</v>
       </c>
@@ -7422,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -7431,7 +7262,7 @@
         <v>25</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J135">
         <v>0.21</v>
@@ -7455,7 +7286,7 @@
         <v>109.1246230318197</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136" s="1">
         <v>141</v>
       </c>
@@ -7472,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -7481,7 +7312,7 @@
         <v>25</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J136">
         <v>0.21</v>
@@ -7499,13 +7330,13 @@
         <v>51708464</v>
       </c>
       <c r="O136">
-        <v>365.40998992373852</v>
+        <v>365.4099899237385</v>
       </c>
       <c r="P136">
-        <v>22308.302193146432</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>22308.30219314643</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
         <v>142</v>
       </c>
@@ -7522,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -7531,7 +7362,7 @@
         <v>25</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J137">
         <v>0.21</v>
@@ -7549,13 +7380,13 @@
         <v>1154938</v>
       </c>
       <c r="O137">
-        <v>1.0889465790216959</v>
+        <v>1.088946579021696</v>
       </c>
       <c r="P137">
-        <v>66.480255129529667</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>66.48025512952967</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
         <v>143</v>
       </c>
@@ -7572,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -7581,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J138">
         <v>0.21</v>
@@ -7596,16 +7427,16 @@
         <v>38</v>
       </c>
       <c r="N138">
-        <v>99688.93</v>
+        <v>99688.92999999999</v>
       </c>
       <c r="O138">
-        <v>6.9547493341638261E-2</v>
+        <v>0.06954749430272945</v>
       </c>
       <c r="P138">
-        <v>4.2458787143857313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.245878773060406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>144</v>
       </c>
@@ -7622,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -7631,7 +7462,7 @@
         <v>25</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J139">
         <v>0.21</v>
@@ -7649,13 +7480,13 @@
         <v>233155.7</v>
       </c>
       <c r="O139">
-        <v>0.20361608750060711</v>
+        <v>0.2036160875006071</v>
       </c>
       <c r="P139">
-        <v>12.430774572686641</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>12.43077457268664</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="1">
         <v>145</v>
       </c>
@@ -7672,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -7681,7 +7512,7 @@
         <v>25</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J140">
         <v>0.21</v>
@@ -7699,13 +7530,13 @@
         <v>12311180</v>
       </c>
       <c r="O140">
-        <v>30.997336531608308</v>
+        <v>30.99733653160831</v>
       </c>
       <c r="P140">
         <v>1892.389287643975</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
         <v>146</v>
       </c>
@@ -7722,7 +7553,7 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -7731,7 +7562,7 @@
         <v>25</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J141">
         <v>0.21</v>
@@ -7755,7 +7586,7 @@
         <v>1159.44079469188</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142" s="1">
         <v>147</v>
       </c>
@@ -7772,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -7781,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J142">
         <v>0.21</v>
@@ -7799,13 +7630,13 @@
         <v>28559752</v>
       </c>
       <c r="O142">
-        <v>52.407221765993597</v>
+        <v>52.4072217659936</v>
       </c>
       <c r="P142">
-        <v>3199.4640882779981</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3199.464088277998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="1">
         <v>148</v>
       </c>
@@ -7822,7 +7653,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -7831,7 +7662,7 @@
         <v>25</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J143">
         <v>0.21</v>
@@ -7849,13 +7680,13 @@
         <v>772722</v>
       </c>
       <c r="O143">
-        <v>1.8881756847897471</v>
+        <v>1.888175684789747</v>
       </c>
       <c r="P143">
         <v>115.2732408296549</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="1">
         <v>149</v>
       </c>
@@ -7872,7 +7703,7 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -7881,7 +7712,7 @@
         <v>25</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J144">
         <v>0.21</v>
@@ -7899,13 +7730,13 @@
         <v>24294482</v>
       </c>
       <c r="O144">
-        <v>76.941671780586645</v>
+        <v>76.94167178058665</v>
       </c>
       <c r="P144">
-        <v>4697.2937594985751</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4697.293759498575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>150</v>
       </c>
@@ -7922,7 +7753,7 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -7931,7 +7762,7 @@
         <v>25</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J145">
         <v>0.21</v>
@@ -7952,10 +7783,10 @@
         <v>1.507365133240834</v>
       </c>
       <c r="P145">
-        <v>92.024733409086338</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>92.02473340908634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>151</v>
       </c>
@@ -7972,7 +7803,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -7981,7 +7812,7 @@
         <v>25</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J146">
         <v>0.21</v>
@@ -7996,16 +7827,16 @@
         <v>53</v>
       </c>
       <c r="N146">
-        <v>142650.17000000001</v>
+        <v>142650.17</v>
       </c>
       <c r="O146">
-        <v>7.1674964745430697E-2</v>
+        <v>0.0716749647454307</v>
       </c>
       <c r="P146">
-        <v>4.3757609734695189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.375760973469519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>152</v>
       </c>
@@ -8022,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -8031,7 +7862,7 @@
         <v>25</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J147">
         <v>0.21</v>
@@ -8049,13 +7880,13 @@
         <v>44341856</v>
       </c>
       <c r="O147">
-        <v>1.6123243431782179</v>
+        <v>1.612324343178218</v>
       </c>
       <c r="P147">
-        <v>98.432499583529804</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>98.4324995835298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>153</v>
       </c>
@@ -8072,7 +7903,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -8081,7 +7912,7 @@
         <v>25</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J148">
         <v>0.21</v>
@@ -8099,13 +7930,13 @@
         <v>2133210.75</v>
       </c>
       <c r="O148">
-        <v>5.5776155195389352</v>
+        <v>5.577615519538935</v>
       </c>
       <c r="P148">
-        <v>340.51376798161999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>340.51376798162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>155</v>
       </c>
@@ -8122,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -8131,7 +7962,7 @@
         <v>25</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J149">
         <v>0.21</v>
@@ -8149,13 +7980,13 @@
         <v>1513621</v>
       </c>
       <c r="O149">
-        <v>1.5825684871295591</v>
+        <v>1.582568487129559</v>
       </c>
       <c r="P149">
-        <v>96.615902755162338</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>96.61590275516234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>156</v>
       </c>
@@ -8172,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -8181,7 +8012,7 @@
         <v>25</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J150">
         <v>0.21</v>
@@ -8199,13 +8030,13 @@
         <v>2216341.75</v>
       </c>
       <c r="O150">
-        <v>0.47311736188822778</v>
+        <v>0.4731173618882278</v>
       </c>
       <c r="P150">
-        <v>28.883843827120138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>28.88384382712014</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>157</v>
       </c>
@@ -8222,7 +8053,7 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -8231,7 +8062,7 @@
         <v>25</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J151">
         <v>0.21</v>
@@ -8249,13 +8080,13 @@
         <v>3541776.75</v>
       </c>
       <c r="O151">
-        <v>3.6108752322382389</v>
+        <v>3.610875232238239</v>
       </c>
       <c r="P151">
         <v>220.4441533722979</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>158</v>
       </c>
@@ -8272,7 +8103,7 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -8281,7 +8112,7 @@
         <v>26</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J152">
         <v>0.21</v>
@@ -8299,13 +8130,13 @@
         <v>9640769</v>
       </c>
       <c r="O152">
-        <v>3.7627958468641531</v>
+        <v>3.762795846864153</v>
       </c>
       <c r="P152">
-        <v>229.71891616997269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>229.7189161699727</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>159</v>
       </c>
@@ -8322,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -8331,7 +8162,7 @@
         <v>26</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J153">
         <v>0.21</v>
@@ -8346,16 +8177,16 @@
         <v>32</v>
       </c>
       <c r="N153">
-        <v>156342.64000000001</v>
+        <v>156342.64</v>
       </c>
       <c r="O153">
-        <v>0.98413090934477543</v>
+        <v>0.9841309093447754</v>
       </c>
       <c r="P153">
-        <v>60.081252096750653</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>60.08125209675065</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>160</v>
       </c>
@@ -8372,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -8381,7 +8212,7 @@
         <v>26</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J154">
         <v>0.21</v>
@@ -8399,13 +8230,13 @@
         <v>3925079.25</v>
       </c>
       <c r="O154">
-        <v>6.4618606029107362</v>
+        <v>6.461860602910736</v>
       </c>
       <c r="P154">
-        <v>394.49698430468482</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>394.4969843046848</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>161</v>
       </c>
@@ -8422,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -8431,7 +8262,7 @@
         <v>26</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J155">
         <v>0.21</v>
@@ -8452,10 +8283,10 @@
         <v>15.86521739275986</v>
       </c>
       <c r="P155">
-        <v>968.57249040047986</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>968.5724904004799</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="1">
         <v>162</v>
       </c>
@@ -8472,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -8481,7 +8312,7 @@
         <v>26</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J156">
         <v>0.21</v>
@@ -8505,7 +8336,7 @@
         <v>102.1041296484548</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>163</v>
       </c>
@@ -8522,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -8531,7 +8362,7 @@
         <v>26</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J157">
         <v>0.21</v>
@@ -8549,13 +8380,13 @@
         <v>52675532</v>
       </c>
       <c r="O157">
-        <v>372.48462831868721</v>
+        <v>372.4846283186872</v>
       </c>
       <c r="P157">
-        <v>22740.209299065162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>22740.20929906516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="1">
         <v>164</v>
       </c>
@@ -8572,7 +8403,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -8581,7 +8412,7 @@
         <v>26</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J158">
         <v>0.21</v>
@@ -8596,16 +8427,16 @@
         <v>37</v>
       </c>
       <c r="N158">
-        <v>1265900.6200000001</v>
+        <v>1265900.62</v>
       </c>
       <c r="O158">
-        <v>1.1735084130693949</v>
+        <v>1.173508413069395</v>
       </c>
       <c r="P158">
-        <v>71.642760260646838</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>71.64276026064684</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="1">
         <v>165</v>
       </c>
@@ -8622,7 +8453,7 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -8631,7 +8462,7 @@
         <v>26</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J159">
         <v>0.21</v>
@@ -8646,16 +8477,16 @@
         <v>38</v>
       </c>
       <c r="N159">
-        <v>147847.92000000001</v>
+        <v>147847.92</v>
       </c>
       <c r="O159">
-        <v>0.1071371852117417</v>
+        <v>0.1071371860463042</v>
       </c>
       <c r="P159">
-        <v>6.5407316979085319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>6.540731748858618</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="1">
         <v>166</v>
       </c>
@@ -8672,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -8681,7 +8512,7 @@
         <v>26</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J160">
         <v>0.21</v>
@@ -8696,16 +8527,16 @@
         <v>39</v>
       </c>
       <c r="N160">
-        <v>272498.28000000003</v>
+        <v>272498.28</v>
       </c>
       <c r="O160">
-        <v>0.24569552138083631</v>
+        <v>0.2456955213808363</v>
       </c>
       <c r="P160">
-        <v>14.999726580026641</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>14.99972658002664</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>167</v>
       </c>
@@ -8722,7 +8553,7 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -8731,7 +8562,7 @@
         <v>26</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J161">
         <v>0.21</v>
@@ -8749,13 +8580,13 @@
         <v>13894035</v>
       </c>
       <c r="O161">
-        <v>35.914273579587167</v>
+        <v>35.91427357958717</v>
       </c>
       <c r="P161">
-        <v>2192.5685946023918</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2192.568594602392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="1">
         <v>168</v>
       </c>
@@ -8772,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -8781,7 +8612,7 @@
         <v>26</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J162">
         <v>0.21</v>
@@ -8799,13 +8630,13 @@
         <v>13934683</v>
       </c>
       <c r="O162">
-        <v>19.907261946974771</v>
+        <v>19.90726194697477</v>
       </c>
       <c r="P162">
-        <v>1215.3395572023669</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1215.339557202367</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="1">
         <v>169</v>
       </c>
@@ -8822,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -8831,7 +8662,7 @@
         <v>26</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J163">
         <v>0.21</v>
@@ -8849,13 +8680,13 @@
         <v>29407874</v>
       </c>
       <c r="O163">
-        <v>54.159061178063368</v>
+        <v>54.15906117806337</v>
       </c>
       <c r="P163">
-        <v>3306.4139913347599</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3306.41399133476</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="1">
         <v>170</v>
       </c>
@@ -8872,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -8881,7 +8712,7 @@
         <v>26</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J164">
         <v>0.21</v>
@@ -8899,13 +8730,13 @@
         <v>227952.67</v>
       </c>
       <c r="O164">
-        <v>0.76239966688768757</v>
+        <v>0.7623996668876876</v>
       </c>
       <c r="P164">
-        <v>46.544546208039542</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>46.54454620803954</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" s="1">
         <v>171</v>
       </c>
@@ -8922,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -8931,7 +8762,7 @@
         <v>26</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J165">
         <v>0.21</v>
@@ -8949,13 +8780,13 @@
         <v>25220512</v>
       </c>
       <c r="O165">
-        <v>80.475398220477217</v>
+        <v>80.47539822047722</v>
       </c>
       <c r="P165">
-        <v>4913.0279743881092</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4913.027974388109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="1">
         <v>172</v>
       </c>
@@ -8972,7 +8803,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -8981,7 +8812,7 @@
         <v>26</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J166">
         <v>0.21</v>
@@ -9002,10 +8833,10 @@
         <v>2.105695147370958</v>
       </c>
       <c r="P166">
-        <v>128.55281729981431</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>128.5528172998143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="1">
         <v>173</v>
       </c>
@@ -9022,7 +8853,7 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -9031,7 +8862,7 @@
         <v>26</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J167">
         <v>0.21</v>
@@ -9046,16 +8877,16 @@
         <v>53</v>
       </c>
       <c r="N167">
-        <v>63949.919999999998</v>
+        <v>63949.92</v>
       </c>
       <c r="O167">
-        <v>9.6856088666990303E-3</v>
+        <v>0.00968560886669903</v>
       </c>
       <c r="P167">
-        <v>0.59130701261898855</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5913070126189885</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="1">
         <v>174</v>
       </c>
@@ -9072,7 +8903,7 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -9081,7 +8912,7 @@
         <v>26</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J168">
         <v>0.21</v>
@@ -9105,7 +8936,7 @@
         <v>109.6029839012772</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169" s="1">
         <v>175</v>
       </c>
@@ -9122,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -9131,7 +8962,7 @@
         <v>26</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J169">
         <v>0.21</v>
@@ -9149,13 +8980,13 @@
         <v>2074488.62</v>
       </c>
       <c r="O169">
-        <v>5.3904934977097554</v>
+        <v>5.390493497709755</v>
       </c>
       <c r="P169">
-        <v>329.08995712513769</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>329.0899571251377</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" s="1">
         <v>177</v>
       </c>
@@ -9172,7 +9003,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -9181,7 +9012,7 @@
         <v>26</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J170">
         <v>0.21</v>
@@ -9199,13 +9030,13 @@
         <v>1773667.88</v>
       </c>
       <c r="O170">
-        <v>1.8237637376121369</v>
+        <v>1.823763737612137</v>
       </c>
       <c r="P170">
         <v>111.3408875221085</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171" s="1">
         <v>178</v>
       </c>
@@ -9222,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -9231,7 +9062,7 @@
         <v>26</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J171">
         <v>0.21</v>
@@ -9249,13 +9080,13 @@
         <v>14191.11</v>
       </c>
       <c r="O171">
-        <v>1.489996055081275E-2</v>
+        <v>0.01489996055081275</v>
       </c>
       <c r="P171">
-        <v>0.90964350127061955</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.9096435012706195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
       <c r="A172" s="1">
         <v>179</v>
       </c>
@@ -9272,7 +9103,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -9281,7 +9112,7 @@
         <v>26</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J172">
         <v>0.21</v>
@@ -9305,7 +9136,7 @@
         <v>35.65584920170398</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173" s="1">
         <v>180</v>
       </c>
@@ -9322,7 +9153,7 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>2.0166666666666671</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -9331,7 +9162,7 @@
         <v>26</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J173">
         <v>0.21</v>
@@ -9352,10 +9183,10 @@
         <v>3.81465887143731</v>
       </c>
       <c r="P173">
-        <v>232.88515698640481</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>232.8851569864048</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" s="1">
         <v>181</v>
       </c>
@@ -9381,16 +9212,16 @@
         <v>27</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J174">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K174">
         <v>3.45</v>
       </c>
       <c r="L174">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M174" t="s">
         <v>31</v>
@@ -9399,13 +9230,13 @@
         <v>7655777.5</v>
       </c>
       <c r="O174">
-        <v>2.9948419622087998</v>
+        <v>2.9948419622088</v>
       </c>
       <c r="P174">
-        <v>191.88110830538579</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>191.8811083053858</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="1">
         <v>182</v>
       </c>
@@ -9431,16 +9262,16 @@
         <v>27</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J175">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K175">
         <v>3.45</v>
       </c>
       <c r="L175">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M175" t="s">
         <v>32</v>
@@ -9449,13 +9280,13 @@
         <v>40546.85</v>
       </c>
       <c r="O175">
-        <v>0.26797749811330063</v>
+        <v>0.2679774981133006</v>
       </c>
       <c r="P175">
-        <v>17.169460020842191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>17.16946002084219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" s="1">
         <v>183</v>
       </c>
@@ -9481,16 +9312,16 @@
         <v>27</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J176">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K176">
         <v>3.45</v>
       </c>
       <c r="L176">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M176" t="s">
         <v>33</v>
@@ -9502,10 +9333,10 @@
         <v>1.011526533114008</v>
       </c>
       <c r="P176">
-        <v>64.809039910429917</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>64.80903991042992</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" s="1">
         <v>184</v>
       </c>
@@ -9531,16 +9362,16 @@
         <v>27</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J177">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K177">
         <v>3.45</v>
       </c>
       <c r="L177">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M177" t="s">
         <v>34</v>
@@ -9549,13 +9380,13 @@
         <v>21943872</v>
       </c>
       <c r="O177">
-        <v>40.770395158017351</v>
+        <v>40.77039515801735</v>
       </c>
       <c r="P177">
-        <v>2612.1807787143198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2612.18077871432</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="1">
         <v>186</v>
       </c>
@@ -9581,16 +9412,16 @@
         <v>27</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J178">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K178">
         <v>3.45</v>
       </c>
       <c r="L178">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M178" t="s">
         <v>36</v>
@@ -9599,13 +9430,13 @@
         <v>47525468</v>
       </c>
       <c r="O178">
-        <v>334.80905585548601</v>
+        <v>334.809055855486</v>
       </c>
       <c r="P178">
         <v>21451.39326846103</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="A179" s="1">
         <v>187</v>
       </c>
@@ -9631,16 +9462,16 @@
         <v>27</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J179">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K179">
         <v>3.45</v>
       </c>
       <c r="L179">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M179" t="s">
         <v>37</v>
@@ -9649,13 +9480,13 @@
         <v>446539.25</v>
       </c>
       <c r="O179">
-        <v>0.45659146296696068</v>
+        <v>0.4565914629669607</v>
       </c>
       <c r="P179">
-        <v>29.254056495275499</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.2540564952755</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" s="1">
         <v>188</v>
       </c>
@@ -9681,16 +9512,16 @@
         <v>27</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J180">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K180">
         <v>3.45</v>
       </c>
       <c r="L180">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M180" t="s">
         <v>38</v>
@@ -9699,13 +9530,13 @@
         <v>117555.03</v>
       </c>
       <c r="O180">
-        <v>8.3492578027186182E-2</v>
+        <v>0.08349257894133752</v>
       </c>
       <c r="P180">
-        <v>5.3494136282619076</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>5.349413686832068</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" s="1">
         <v>189</v>
       </c>
@@ -9731,16 +9562,16 @@
         <v>27</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J181">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K181">
         <v>3.45</v>
       </c>
       <c r="L181">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M181" t="s">
         <v>39</v>
@@ -9752,10 +9583,10 @@
         <v>0.111547307647715</v>
       </c>
       <c r="P181">
-        <v>7.1468949914603597</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.14689499146036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="1">
         <v>190</v>
       </c>
@@ -9781,16 +9612,16 @@
         <v>27</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J182">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K182">
         <v>3.45</v>
       </c>
       <c r="L182">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M182" t="s">
         <v>40</v>
@@ -9799,13 +9630,13 @@
         <v>13238341</v>
       </c>
       <c r="O182">
-        <v>33.877443850561178</v>
+        <v>33.87744385056118</v>
       </c>
       <c r="P182">
         <v>2170.545743190019</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="A183" s="1">
         <v>191</v>
       </c>
@@ -9831,16 +9662,16 @@
         <v>27</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J183">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K183">
         <v>3.45</v>
       </c>
       <c r="L183">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M183" t="s">
         <v>41</v>
@@ -9849,13 +9680,13 @@
         <v>21137558</v>
       </c>
       <c r="O183">
-        <v>34.894374533465218</v>
+        <v>34.89437453346522</v>
       </c>
       <c r="P183">
         <v>2235.701029835418</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="A184" s="1">
         <v>192</v>
       </c>
@@ -9881,16 +9712,16 @@
         <v>27</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J184">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K184">
         <v>3.45</v>
       </c>
       <c r="L184">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M184" t="s">
         <v>42</v>
@@ -9899,13 +9730,13 @@
         <v>35802120</v>
       </c>
       <c r="O184">
-        <v>67.366703655524717</v>
+        <v>67.36670365552472</v>
       </c>
       <c r="P184">
-        <v>4316.2203292920676</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4316.220329292068</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" s="1">
         <v>193</v>
       </c>
@@ -9931,31 +9762,31 @@
         <v>27</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J185">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K185">
         <v>3.45</v>
       </c>
       <c r="L185">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M185" t="s">
         <v>43</v>
       </c>
       <c r="N185">
-        <v>792108.94</v>
+        <v>792108.9399999999</v>
       </c>
       <c r="O185">
-        <v>1.9261448143544659</v>
+        <v>1.926144814354466</v>
       </c>
       <c r="P185">
         <v>123.4091168745413</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="1">
         <v>194</v>
       </c>
@@ -9981,16 +9812,16 @@
         <v>27</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J186">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K186">
         <v>3.45</v>
       </c>
       <c r="L186">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M186" t="s">
         <v>44</v>
@@ -9999,13 +9830,13 @@
         <v>22415642</v>
       </c>
       <c r="O186">
-        <v>69.772026537642063</v>
+        <v>69.77202653764206</v>
       </c>
       <c r="P186">
-        <v>4470.3306383758181</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4470.330638375818</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" s="1">
         <v>195</v>
       </c>
@@ -10031,31 +9862,31 @@
         <v>27</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J187">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K187">
         <v>3.45</v>
       </c>
       <c r="L187">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M187" t="s">
         <v>45</v>
       </c>
       <c r="N187">
-        <v>743206.56</v>
+        <v>743206.5600000001</v>
       </c>
       <c r="O187">
-        <v>5.9886279492890671</v>
+        <v>5.988627949289067</v>
       </c>
       <c r="P187">
         <v>383.6945597258466</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="A188" s="1">
         <v>197</v>
       </c>
@@ -10081,16 +9912,16 @@
         <v>27</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J188">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K188">
         <v>3.45</v>
       </c>
       <c r="L188">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M188" t="s">
         <v>46</v>
@@ -10099,13 +9930,13 @@
         <v>73806368</v>
       </c>
       <c r="O188">
-        <v>2.7505605062107659</v>
+        <v>2.750560506210766</v>
       </c>
       <c r="P188">
-        <v>176.22986623423969</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>176.2298662342397</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" s="1">
         <v>198</v>
       </c>
@@ -10131,16 +9962,16 @@
         <v>27</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J189">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K189">
         <v>3.45</v>
       </c>
       <c r="L189">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M189" t="s">
         <v>47</v>
@@ -10149,13 +9980,13 @@
         <v>1645153.62</v>
       </c>
       <c r="O189">
-        <v>4.2176227965143784</v>
+        <v>4.217622796514378</v>
       </c>
       <c r="P189">
-        <v>270.22532301249242</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>270.2253230124924</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" s="1">
         <v>200</v>
       </c>
@@ -10181,16 +10012,16 @@
         <v>27</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J190">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K190">
         <v>3.45</v>
       </c>
       <c r="L190">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M190" t="s">
         <v>49</v>
@@ -10202,10 +10033,10 @@
         <v>1.363829688200799</v>
       </c>
       <c r="P190">
-        <v>87.381289368187623</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>87.38128936818762</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" s="1">
         <v>201</v>
       </c>
@@ -10231,16 +10062,16 @@
         <v>27</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J191">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K191">
         <v>3.45</v>
       </c>
       <c r="L191">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M191" t="s">
         <v>51</v>
@@ -10249,13 +10080,13 @@
         <v>2780558.75</v>
       </c>
       <c r="O191">
-        <v>0.61952058316791014</v>
+        <v>0.6195205831679101</v>
       </c>
       <c r="P191">
-        <v>39.693011389684017</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>39.69301138968402</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" s="1">
         <v>202</v>
       </c>
@@ -10281,16 +10112,16 @@
         <v>27</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J192">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K192">
         <v>3.45</v>
       </c>
       <c r="L192">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M192" t="s">
         <v>52</v>
@@ -10302,10 +10133,10 @@
         <v>13.70654725279962</v>
       </c>
       <c r="P192">
-        <v>878.18573103189556</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>878.1857310318956</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
       <c r="A193" s="1">
         <v>203</v>
       </c>
@@ -10331,16 +10162,16 @@
         <v>28</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J193">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K193">
         <v>3.45</v>
       </c>
       <c r="L193">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M193" t="s">
         <v>31</v>
@@ -10349,13 +10180,13 @@
         <v>9385585</v>
       </c>
       <c r="O193">
-        <v>3.6640702129750951</v>
+        <v>3.664070212975095</v>
       </c>
       <c r="P193">
         <v>234.7589162454091</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="A194" s="1">
         <v>204</v>
       </c>
@@ -10381,16 +10212,16 @@
         <v>28</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J194">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K194">
         <v>3.45</v>
       </c>
       <c r="L194">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M194" t="s">
         <v>32</v>
@@ -10399,13 +10230,13 @@
         <v>10698.39</v>
       </c>
       <c r="O194">
-        <v>9.3086819307598517E-2</v>
+        <v>0.09308681930759852</v>
       </c>
       <c r="P194">
-        <v>5.9641217408986877</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>5.964121740898688</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="1">
         <v>205</v>
       </c>
@@ -10431,16 +10262,16 @@
         <v>28</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J195">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K195">
         <v>3.45</v>
       </c>
       <c r="L195">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M195" t="s">
         <v>33</v>
@@ -10455,7 +10286,7 @@
         <v>58.52871309924268</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="A196" s="1">
         <v>206</v>
       </c>
@@ -10481,16 +10312,16 @@
         <v>28</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J196">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K196">
         <v>3.45</v>
       </c>
       <c r="L196">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M196" t="s">
         <v>34</v>
@@ -10499,13 +10330,13 @@
         <v>23090290</v>
       </c>
       <c r="O196">
-        <v>43.328948999676733</v>
+        <v>43.32894899967673</v>
       </c>
       <c r="P196">
-        <v>2776.1086764103029</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2776.108676410303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="1">
         <v>208</v>
       </c>
@@ -10531,16 +10362,16 @@
         <v>28</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J197">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K197">
         <v>3.45</v>
       </c>
       <c r="L197">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M197" t="s">
         <v>36</v>
@@ -10549,13 +10380,13 @@
         <v>47710812</v>
       </c>
       <c r="O197">
-        <v>336.16494993808749</v>
+        <v>336.1649499380875</v>
       </c>
       <c r="P197">
         <v>21538.26611938182</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="A198" s="1">
         <v>209</v>
       </c>
@@ -10581,16 +10412,16 @@
         <v>28</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J198">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K198">
         <v>3.45</v>
       </c>
       <c r="L198">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M198" t="s">
         <v>37</v>
@@ -10599,13 +10430,13 @@
         <v>429279.16</v>
       </c>
       <c r="O198">
-        <v>0.43915789603813299</v>
+        <v>0.439157896038133</v>
       </c>
       <c r="P198">
-        <v>28.137078642610309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>28.13707864261031</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="1">
         <v>210</v>
       </c>
@@ -10631,16 +10462,16 @@
         <v>28</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J199">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K199">
         <v>3.45</v>
       </c>
       <c r="L199">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M199" t="s">
         <v>38</v>
@@ -10649,13 +10480,13 @@
         <v>50386.11</v>
       </c>
       <c r="O199">
-        <v>3.106500415058228E-2</v>
+        <v>0.03106500524120742</v>
       </c>
       <c r="P199">
-        <v>1.9903512442869771</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.990351314163907</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="1">
         <v>211</v>
       </c>
@@ -10681,16 +10512,16 @@
         <v>28</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J200">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K200">
         <v>3.45</v>
       </c>
       <c r="L200">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M200" t="s">
         <v>39</v>
@@ -10699,13 +10530,13 @@
         <v>167979.38</v>
       </c>
       <c r="O200">
-        <v>0.13390579783488971</v>
+        <v>0.1339057978348897</v>
       </c>
       <c r="P200">
-        <v>8.5794152817751215</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.579415281775121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="1">
         <v>212</v>
       </c>
@@ -10731,16 +10562,16 @@
         <v>28</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J201">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K201">
         <v>3.45</v>
       </c>
       <c r="L201">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M201" t="s">
         <v>40</v>
@@ -10749,13 +10580,13 @@
         <v>12560679</v>
       </c>
       <c r="O201">
-        <v>31.772373333168581</v>
+        <v>31.77237333316858</v>
       </c>
       <c r="P201">
-        <v>2035.6727618990881</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2035.672761899088</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
       <c r="A202" s="1">
         <v>213</v>
       </c>
@@ -10781,16 +10612,16 @@
         <v>28</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J202">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K202">
         <v>3.45</v>
       </c>
       <c r="L202">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M202" t="s">
         <v>41</v>
@@ -10799,13 +10630,13 @@
         <v>23558370</v>
       </c>
       <c r="O202">
-        <v>39.931388502849273</v>
+        <v>39.93138850284927</v>
       </c>
       <c r="P202">
         <v>2558.425178618978</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="A203" s="1">
         <v>214</v>
       </c>
@@ -10831,16 +10662,16 @@
         <v>28</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J203">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K203">
         <v>3.45</v>
       </c>
       <c r="L203">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M203" t="s">
         <v>42</v>
@@ -10849,13 +10680,13 @@
         <v>32298224</v>
       </c>
       <c r="O203">
-        <v>60.129227079520767</v>
+        <v>60.12922707952077</v>
       </c>
       <c r="P203">
-        <v>3852.5113776138078</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3852.511377613808</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
       <c r="A204" s="1">
         <v>215</v>
       </c>
@@ -10881,31 +10712,31 @@
         <v>28</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J204">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K204">
         <v>3.45</v>
       </c>
       <c r="L204">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M204" t="s">
         <v>43</v>
       </c>
       <c r="N204">
-        <v>1063253.6200000001</v>
+        <v>1063253.62</v>
       </c>
       <c r="O204">
-        <v>2.4571789788850409</v>
+        <v>2.457178978885041</v>
       </c>
       <c r="P204">
-        <v>157.43275662713779</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>157.4327566271378</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" s="1">
         <v>216</v>
       </c>
@@ -10931,16 +10762,16 @@
         <v>28</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J205">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K205">
         <v>3.45</v>
       </c>
       <c r="L205">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M205" t="s">
         <v>44</v>
@@ -10949,13 +10780,13 @@
         <v>22157808</v>
       </c>
       <c r="O205">
-        <v>68.788133118527412</v>
+        <v>68.78813311852741</v>
       </c>
       <c r="P205">
-        <v>4407.2920666927703</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4407.29206669277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
       <c r="A206" s="1">
         <v>217</v>
       </c>
@@ -10981,31 +10812,31 @@
         <v>28</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J206">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K206">
         <v>3.45</v>
       </c>
       <c r="L206">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M206" t="s">
         <v>45</v>
       </c>
       <c r="N206">
-        <v>604650.06000000006</v>
+        <v>604650.0600000001</v>
       </c>
       <c r="O206">
-        <v>4.8853348984337464</v>
+        <v>4.885334898433746</v>
       </c>
       <c r="P206">
-        <v>313.00599049409578</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>313.0059904940958</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
       <c r="A207" s="1">
         <v>219</v>
       </c>
@@ -11031,16 +10862,16 @@
         <v>28</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J207">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K207">
         <v>3.45</v>
       </c>
       <c r="L207">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M207" t="s">
         <v>46</v>
@@ -11049,13 +10880,13 @@
         <v>80663648</v>
       </c>
       <c r="O207">
-        <v>3.0154623676785488</v>
+        <v>3.015462367678549</v>
       </c>
       <c r="P207">
-        <v>193.20226858868961</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>193.2022685886896</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" s="1">
         <v>220</v>
       </c>
@@ -11081,16 +10912,16 @@
         <v>28</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J208">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K208">
         <v>3.45</v>
       </c>
       <c r="L208">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M208" t="s">
         <v>47</v>
@@ -11099,13 +10930,13 @@
         <v>1697142.38</v>
       </c>
       <c r="O208">
-        <v>4.3502041638966196</v>
+        <v>4.35020416389662</v>
       </c>
       <c r="P208">
-        <v>278.71988133475702</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>278.719881334757</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
       <c r="A209" s="1">
         <v>221</v>
       </c>
@@ -11131,16 +10962,16 @@
         <v>28</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J209">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K209">
         <v>3.45</v>
       </c>
       <c r="L209">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M209" t="s">
         <v>49</v>
@@ -11152,10 +10983,10 @@
         <v>1.443090941495019</v>
       </c>
       <c r="P209">
-        <v>92.459599783122513</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>92.45959978312251</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
       <c r="A210" s="1">
         <v>222</v>
       </c>
@@ -11181,16 +11012,16 @@
         <v>28</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J210">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K210">
         <v>3.45</v>
       </c>
       <c r="L210">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M210" t="s">
         <v>51</v>
@@ -11199,13 +11030,13 @@
         <v>3164341.25</v>
       </c>
       <c r="O210">
-        <v>0.72271573186053506</v>
+        <v>0.7227157318605351</v>
       </c>
       <c r="P210">
-        <v>46.304779139951513</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>46.30477913995151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
       <c r="A211" s="1">
         <v>223</v>
       </c>
@@ -11231,16 +11062,16 @@
         <v>28</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J211">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="K211">
         <v>3.45</v>
       </c>
       <c r="L211">
-        <v>2.0009999999999999</v>
+        <v>2.001</v>
       </c>
       <c r="M211" t="s">
         <v>52</v>
@@ -11249,13 +11080,13 @@
         <v>13634589</v>
       </c>
       <c r="O211">
-        <v>28.354554760437939</v>
+        <v>28.35455476043794</v>
       </c>
       <c r="P211">
         <v>1816.691318471401</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="A212" s="1">
         <v>224</v>
       </c>
@@ -11272,7 +11103,7 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -11281,13 +11112,13 @@
         <v>29</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J212">
         <v>1.4</v>
       </c>
       <c r="K212">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L212">
         <v>1.554</v>
@@ -11299,13 +11130,13 @@
         <v>7020078</v>
       </c>
       <c r="O212">
-        <v>2.7489024201510799</v>
+        <v>2.74890242015108</v>
       </c>
       <c r="P212">
-        <v>226.78467644714061</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>226.7846764471406</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
       <c r="A213" s="1">
         <v>225</v>
       </c>
@@ -11322,7 +11153,7 @@
         <v>9</v>
       </c>
       <c r="F213">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -11331,13 +11162,13 @@
         <v>29</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J213">
         <v>1.4</v>
       </c>
       <c r="K213">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L213">
         <v>1.554</v>
@@ -11352,10 +11183,10 @@
         <v>1.051022844079313</v>
       </c>
       <c r="P213">
-        <v>86.709471346014695</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>86.70947134601469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
       <c r="A214" s="1">
         <v>226</v>
       </c>
@@ -11372,7 +11203,7 @@
         <v>9</v>
       </c>
       <c r="F214">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -11381,13 +11212,13 @@
         <v>29</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J214">
         <v>1.4</v>
       </c>
       <c r="K214">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L214">
         <v>1.554</v>
@@ -11399,13 +11230,13 @@
         <v>2740515.75</v>
       </c>
       <c r="O214">
-        <v>4.5031432002233913</v>
+        <v>4.503143200223391</v>
       </c>
       <c r="P214">
-        <v>371.50968552811543</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>371.5096855281154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
       <c r="A215" s="1">
         <v>227</v>
       </c>
@@ -11422,7 +11253,7 @@
         <v>9</v>
       </c>
       <c r="F215">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -11431,13 +11262,13 @@
         <v>29</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J215">
         <v>1.4</v>
       </c>
       <c r="K215">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L215">
         <v>1.554</v>
@@ -11449,13 +11280,13 @@
         <v>24647830</v>
       </c>
       <c r="O215">
-        <v>46.805037084945937</v>
+        <v>46.80503708494594</v>
       </c>
       <c r="P215">
         <v>3861.419420927461</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="A216" s="1">
         <v>228</v>
       </c>
@@ -11472,7 +11303,7 @@
         <v>9</v>
       </c>
       <c r="F216">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -11481,13 +11312,13 @@
         <v>29</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J216">
         <v>1.4</v>
       </c>
       <c r="K216">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L216">
         <v>1.554</v>
@@ -11499,13 +11330,13 @@
         <v>250174.48</v>
       </c>
       <c r="O216">
-        <v>0.18556660788688359</v>
+        <v>0.1855666078868836</v>
       </c>
       <c r="P216">
         <v>15.30926045992836</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16">
       <c r="A217" s="1">
         <v>229</v>
       </c>
@@ -11522,7 +11353,7 @@
         <v>9</v>
       </c>
       <c r="F217">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -11531,13 +11362,13 @@
         <v>29</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J217">
         <v>1.4</v>
       </c>
       <c r="K217">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L217">
         <v>1.554</v>
@@ -11549,13 +11380,13 @@
         <v>39435212</v>
       </c>
       <c r="O217">
-        <v>275.62434937924633</v>
+        <v>275.6243493792463</v>
       </c>
       <c r="P217">
-        <v>22739.031562819389</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>22739.03156281939</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
       <c r="A218" s="1">
         <v>230</v>
       </c>
@@ -11572,7 +11403,7 @@
         <v>9</v>
       </c>
       <c r="F218">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -11581,13 +11412,13 @@
         <v>29</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J218">
         <v>1.4</v>
       </c>
       <c r="K218">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L218">
         <v>1.554</v>
@@ -11599,13 +11430,13 @@
         <v>703909.25</v>
       </c>
       <c r="O218">
-        <v>0.69536278960118003</v>
+        <v>0.69536278960118</v>
       </c>
       <c r="P218">
-        <v>57.367487509584869</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>57.36748750958487</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
       <c r="A219" s="1">
         <v>231</v>
       </c>
@@ -11622,7 +11453,7 @@
         <v>9</v>
       </c>
       <c r="F219">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -11631,13 +11462,13 @@
         <v>29</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J219">
         <v>1.4</v>
       </c>
       <c r="K219">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L219">
         <v>1.554</v>
@@ -11649,13 +11480,13 @@
         <v>190552.56</v>
       </c>
       <c r="O219">
-        <v>0.14046957567557189</v>
+        <v>0.1404695763979359</v>
       </c>
       <c r="P219">
-        <v>11.588751581986269</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>11.58875164158135</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" s="1">
         <v>232</v>
       </c>
@@ -11672,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="F220">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -11681,13 +11512,13 @@
         <v>29</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J220">
         <v>1.4</v>
       </c>
       <c r="K220">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L220">
         <v>1.554</v>
@@ -11696,16 +11527,16 @@
         <v>39</v>
       </c>
       <c r="N220">
-        <v>156895.35999999999</v>
+        <v>156895.36</v>
       </c>
       <c r="O220">
         <v>0.1220507215608594</v>
       </c>
       <c r="P220">
-        <v>10.069194597965501</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>10.0691945979655</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" s="1">
         <v>233</v>
       </c>
@@ -11722,7 +11553,7 @@
         <v>9</v>
       </c>
       <c r="F221">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -11731,13 +11562,13 @@
         <v>29</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J221">
         <v>1.4</v>
       </c>
       <c r="K221">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L221">
         <v>1.554</v>
@@ -11752,10 +11583,10 @@
         <v>42.2494653188905</v>
       </c>
       <c r="P221">
-        <v>3485.5843743928408</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3485.584374392841</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
       <c r="A222" s="1">
         <v>234</v>
       </c>
@@ -11772,7 +11603,7 @@
         <v>9</v>
       </c>
       <c r="F222">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -11781,13 +11612,13 @@
         <v>29</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J222">
         <v>1.4</v>
       </c>
       <c r="K222">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L222">
         <v>1.554</v>
@@ -11799,13 +11630,13 @@
         <v>26874064</v>
       </c>
       <c r="O222">
-        <v>46.830394702505778</v>
+        <v>46.83039470250578</v>
       </c>
       <c r="P222">
-        <v>3863.5114264681538</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3863.511426468154</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
       <c r="A223" s="1">
         <v>235</v>
       </c>
@@ -11822,7 +11653,7 @@
         <v>9</v>
       </c>
       <c r="F223">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -11831,13 +11662,13 @@
         <v>29</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J223">
         <v>1.4</v>
       </c>
       <c r="K223">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L223">
         <v>1.554</v>
@@ -11849,13 +11680,13 @@
         <v>41643980</v>
       </c>
       <c r="O223">
-        <v>79.433364569631294</v>
+        <v>79.43336456963129</v>
       </c>
       <c r="P223">
         <v>6553.259130253713</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="1">
         <v>236</v>
       </c>
@@ -11872,7 +11703,7 @@
         <v>9</v>
       </c>
       <c r="F224">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -11881,13 +11712,13 @@
         <v>29</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J224">
         <v>1.4</v>
       </c>
       <c r="K224">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L224">
         <v>1.554</v>
@@ -11896,16 +11727,16 @@
         <v>43</v>
       </c>
       <c r="N224">
-        <v>878805.94</v>
+        <v>878805.9399999999</v>
       </c>
       <c r="O224">
-        <v>2.0959400283424641</v>
+        <v>2.095940028342464</v>
       </c>
       <c r="P224">
-        <v>172.91522525347861</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>172.9152252534786</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16">
       <c r="A225" s="1">
         <v>237</v>
       </c>
@@ -11922,7 +11753,7 @@
         <v>9</v>
       </c>
       <c r="F225">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -11931,13 +11762,13 @@
         <v>29</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J225">
         <v>1.4</v>
       </c>
       <c r="K225">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L225">
         <v>1.554</v>
@@ -11952,10 +11783,10 @@
         <v>50.4050473199094</v>
       </c>
       <c r="P225">
-        <v>4158.4205623130883</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4158.420562313088</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
       <c r="A226" s="1">
         <v>238</v>
       </c>
@@ -11972,7 +11803,7 @@
         <v>9</v>
       </c>
       <c r="F226">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -11981,13 +11812,13 @@
         <v>29</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J226">
         <v>1.4</v>
       </c>
       <c r="K226">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L226">
         <v>1.554</v>
@@ -12002,10 +11833,10 @@
         <v>14.6250566045351</v>
       </c>
       <c r="P226">
-        <v>1206.5683764425221</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1206.568376442522</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
       <c r="A227" s="1">
         <v>239</v>
       </c>
@@ -12022,7 +11853,7 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -12031,13 +11862,13 @@
         <v>29</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J227">
         <v>1.4</v>
       </c>
       <c r="K227">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L227">
         <v>1.554</v>
@@ -12049,13 +11880,13 @@
         <v>60955.05</v>
       </c>
       <c r="O227">
-        <v>7.3266575007181478E-3</v>
+        <v>0.007326657500718148</v>
       </c>
       <c r="P227">
-        <v>0.60444984825909553</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.6044498482590955</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -12072,7 +11903,7 @@
         <v>9</v>
       </c>
       <c r="F228">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -12081,13 +11912,13 @@
         <v>29</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J228">
         <v>1.4</v>
       </c>
       <c r="K228">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L228">
         <v>1.554</v>
@@ -12099,13 +11930,13 @@
         <v>236941232</v>
       </c>
       <c r="O228">
-        <v>24.626218091901571</v>
+        <v>24.62621809190157</v>
       </c>
       <c r="P228">
-        <v>2031.6650242469041</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2031.665024246904</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
       <c r="A229" s="1">
         <v>241</v>
       </c>
@@ -12122,7 +11953,7 @@
         <v>9</v>
       </c>
       <c r="F229">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -12131,13 +11962,13 @@
         <v>29</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J229">
         <v>1.4</v>
       </c>
       <c r="K229">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L229">
         <v>1.554</v>
@@ -12149,13 +11980,13 @@
         <v>1100913.25</v>
       </c>
       <c r="O229">
-        <v>2.8297048611910949</v>
+        <v>2.829704861191095</v>
       </c>
       <c r="P229">
-        <v>233.45088449914991</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>233.4508844991499</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
       <c r="A230" s="1">
         <v>242</v>
       </c>
@@ -12172,7 +12003,7 @@
         <v>9</v>
       </c>
       <c r="F230">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -12181,13 +12012,13 @@
         <v>29</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J230">
         <v>1.4</v>
       </c>
       <c r="K230">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L230">
         <v>1.554</v>
@@ -12199,13 +12030,13 @@
         <v>1040753.81</v>
       </c>
       <c r="O230">
-        <v>1.1439809511551109</v>
+        <v>1.143980951155111</v>
       </c>
       <c r="P230">
-        <v>94.378522848819557</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>94.37852284881956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16">
       <c r="A231" s="1">
         <v>243</v>
       </c>
@@ -12222,7 +12053,7 @@
         <v>9</v>
       </c>
       <c r="F231">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -12231,13 +12062,13 @@
         <v>29</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J231">
         <v>1.4</v>
       </c>
       <c r="K231">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L231">
         <v>1.554</v>
@@ -12249,13 +12080,13 @@
         <v>9283.85</v>
       </c>
       <c r="O231">
-        <v>9.170822882848137E-3</v>
+        <v>0.009170822882848137</v>
       </c>
       <c r="P231">
-        <v>0.75659364442861599</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.756593644428616</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
       <c r="A232" s="1">
         <v>244</v>
       </c>
@@ -12272,7 +12103,7 @@
         <v>9</v>
       </c>
       <c r="F232">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -12281,13 +12112,13 @@
         <v>29</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J232">
         <v>1.4</v>
       </c>
       <c r="K232">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L232">
         <v>1.554</v>
@@ -12299,13 +12130,13 @@
         <v>2666558.25</v>
       </c>
       <c r="O232">
-        <v>0.58886702666511603</v>
+        <v>0.588867026665116</v>
       </c>
       <c r="P232">
-        <v>48.581578281450362</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>48.58157828145036</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233" s="1">
         <v>245</v>
       </c>
@@ -12322,7 +12153,7 @@
         <v>9</v>
       </c>
       <c r="F233">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -12331,13 +12162,13 @@
         <v>29</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J233">
         <v>1.4</v>
       </c>
       <c r="K233">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L233">
         <v>1.554</v>
@@ -12349,13 +12180,13 @@
         <v>44001220</v>
       </c>
       <c r="O233">
-        <v>132.39085593497751</v>
+        <v>132.3908559349775</v>
       </c>
       <c r="P233">
-        <v>10922.256536892181</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>10922.25653689218</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234" s="1">
         <v>246</v>
       </c>
@@ -12372,7 +12203,7 @@
         <v>9</v>
       </c>
       <c r="F234">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -12381,13 +12212,13 @@
         <v>30</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J234">
         <v>1.4</v>
       </c>
       <c r="K234">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L234">
         <v>1.554</v>
@@ -12399,13 +12230,13 @@
         <v>8089833.5</v>
       </c>
       <c r="O234">
-        <v>3.1627696290819141</v>
+        <v>3.162769629081914</v>
       </c>
       <c r="P234">
-        <v>260.92875532801332</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>260.9287553280133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235" s="1">
         <v>247</v>
       </c>
@@ -12422,7 +12253,7 @@
         <v>9</v>
       </c>
       <c r="F235">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -12431,13 +12262,13 @@
         <v>30</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J235">
         <v>1.4</v>
       </c>
       <c r="K235">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L235">
         <v>1.554</v>
@@ -12446,16 +12277,16 @@
         <v>32</v>
       </c>
       <c r="N235">
-        <v>288419.78000000003</v>
+        <v>288419.78</v>
       </c>
       <c r="O235">
-        <v>1.5835511875968189</v>
+        <v>1.583551187596819</v>
       </c>
       <c r="P235">
-        <v>130.64310361984121</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>130.6431036198412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236" s="1">
         <v>248</v>
       </c>
@@ -12472,7 +12303,7 @@
         <v>9</v>
       </c>
       <c r="F236">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -12481,13 +12312,13 @@
         <v>30</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J236">
         <v>1.4</v>
       </c>
       <c r="K236">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L236">
         <v>1.554</v>
@@ -12499,13 +12330,13 @@
         <v>1386587.38</v>
       </c>
       <c r="O236">
-        <v>2.4394626753828512</v>
+        <v>2.439462675382851</v>
       </c>
       <c r="P236">
-        <v>201.25587197495719</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>201.2558719749572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237" s="1">
         <v>249</v>
       </c>
@@ -12522,7 +12353,7 @@
         <v>9</v>
       </c>
       <c r="F237">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -12531,13 +12362,13 @@
         <v>30</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J237">
         <v>1.4</v>
       </c>
       <c r="K237">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L237">
         <v>1.554</v>
@@ -12549,13 +12380,13 @@
         <v>31574288</v>
       </c>
       <c r="O237">
-        <v>62.263374030974667</v>
+        <v>62.26337403097467</v>
       </c>
       <c r="P237">
-        <v>5136.7334942889047</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>5136.733494288905</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238" s="1">
         <v>250</v>
       </c>
@@ -12572,7 +12403,7 @@
         <v>9</v>
       </c>
       <c r="F238">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -12581,13 +12412,13 @@
         <v>30</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J238">
         <v>1.4</v>
       </c>
       <c r="K238">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L238">
         <v>1.554</v>
@@ -12599,13 +12430,13 @@
         <v>64782.12</v>
       </c>
       <c r="O238">
-        <v>7.9940433409810691E-3</v>
+        <v>0.007994043340981069</v>
       </c>
       <c r="P238">
-        <v>0.65950923514017346</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.6595092351401735</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239" s="1">
         <v>251</v>
       </c>
@@ -12622,7 +12453,7 @@
         <v>9</v>
       </c>
       <c r="F239">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -12631,13 +12462,13 @@
         <v>30</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J239">
         <v>1.4</v>
       </c>
       <c r="K239">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L239">
         <v>1.554</v>
@@ -12649,13 +12480,13 @@
         <v>36786816</v>
       </c>
       <c r="O239">
-        <v>256.24986482735483</v>
+        <v>256.2498648273548</v>
       </c>
       <c r="P239">
-        <v>21140.634988891761</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>21140.63498889176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240" s="1">
         <v>252</v>
       </c>
@@ -12672,7 +12503,7 @@
         <v>9</v>
       </c>
       <c r="F240">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -12681,13 +12512,13 @@
         <v>30</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J240">
         <v>1.4</v>
       </c>
       <c r="K240">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L240">
         <v>1.554</v>
@@ -12699,13 +12530,13 @@
         <v>1147491</v>
       </c>
       <c r="O240">
-        <v>1.0832714068046621</v>
+        <v>1.083271406804662</v>
       </c>
       <c r="P240">
-        <v>89.369980431365107</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>89.36998043136511</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16">
       <c r="A241" s="1">
         <v>253</v>
       </c>
@@ -12722,7 +12553,7 @@
         <v>9</v>
       </c>
       <c r="F241">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -12731,13 +12562,13 @@
         <v>30</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J241">
         <v>1.4</v>
       </c>
       <c r="K241">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L241">
         <v>1.554</v>
@@ -12749,13 +12580,13 @@
         <v>58970.94</v>
       </c>
       <c r="O241">
-        <v>3.7765749213076738E-2</v>
+        <v>0.03776575028114685</v>
       </c>
       <c r="P241">
-        <v>3.1156774257562581</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3.11567751387213</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
       <c r="A242" s="1">
         <v>254</v>
       </c>
@@ -12772,7 +12603,7 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -12781,13 +12612,13 @@
         <v>30</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J242">
         <v>1.4</v>
       </c>
       <c r="K242">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L242">
         <v>1.554</v>
@@ -12799,13 +12630,13 @@
         <v>197694.23</v>
       </c>
       <c r="O242">
-        <v>0.16568775178493389</v>
+        <v>0.1656877517849339</v>
       </c>
       <c r="P242">
         <v>13.66925319151024</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="A243" s="1">
         <v>255</v>
       </c>
@@ -12822,7 +12653,7 @@
         <v>9</v>
       </c>
       <c r="F243">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -12831,13 +12662,13 @@
         <v>30</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J243">
         <v>1.4</v>
       </c>
       <c r="K243">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L243">
         <v>1.554</v>
@@ -12849,13 +12680,13 @@
         <v>20345576</v>
       </c>
       <c r="O243">
-        <v>55.955162327738222</v>
+        <v>55.95516232773822</v>
       </c>
       <c r="P243">
-        <v>4616.3055083439122</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4616.305508343912</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16">
       <c r="A244" s="1">
         <v>256</v>
       </c>
@@ -12872,7 +12703,7 @@
         <v>9</v>
       </c>
       <c r="F244">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -12881,13 +12712,13 @@
         <v>30</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J244">
         <v>1.4</v>
       </c>
       <c r="K244">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L244">
         <v>1.554</v>
@@ -12899,13 +12730,13 @@
         <v>26495424</v>
       </c>
       <c r="O244">
-        <v>46.042553693221471</v>
+        <v>46.04255369322147</v>
       </c>
       <c r="P244">
-        <v>3798.5144782052498</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3798.51447820525</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16">
       <c r="A245" s="1">
         <v>257</v>
       </c>
@@ -12922,7 +12753,7 @@
         <v>9</v>
       </c>
       <c r="F245">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -12931,13 +12762,13 @@
         <v>30</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J245">
         <v>1.4</v>
       </c>
       <c r="K245">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L245">
         <v>1.554</v>
@@ -12949,13 +12780,13 @@
         <v>47530028</v>
       </c>
       <c r="O245">
-        <v>91.591298060018815</v>
+        <v>91.59129806001881</v>
       </c>
       <c r="P245">
         <v>7556.2896462412</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="A246" s="1">
         <v>258</v>
       </c>
@@ -12972,7 +12803,7 @@
         <v>9</v>
       </c>
       <c r="F246">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -12981,13 +12812,13 @@
         <v>30</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J246">
         <v>1.4</v>
       </c>
       <c r="K246">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L246">
         <v>1.554</v>
@@ -12999,13 +12830,13 @@
         <v>1319278.25</v>
       </c>
       <c r="O246">
-        <v>2.9586006755648349</v>
+        <v>2.958600675564835</v>
       </c>
       <c r="P246">
-        <v>244.08479981889869</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>244.0847998188987</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16">
       <c r="A247" s="1">
         <v>259</v>
       </c>
@@ -13022,7 +12853,7 @@
         <v>9</v>
       </c>
       <c r="F247">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -13031,13 +12862,13 @@
         <v>30</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J247">
         <v>1.4</v>
       </c>
       <c r="K247">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L247">
         <v>1.554</v>
@@ -13052,10 +12883,10 @@
         <v>49.61232001823452</v>
       </c>
       <c r="P247">
-        <v>4093.0204945248429</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4093.020494524843</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16">
       <c r="A248" s="1">
         <v>260</v>
       </c>
@@ -13072,7 +12903,7 @@
         <v>9</v>
       </c>
       <c r="F248">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -13081,13 +12912,13 @@
         <v>30</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J248">
         <v>1.4</v>
       </c>
       <c r="K248">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L248">
         <v>1.554</v>
@@ -13105,7 +12936,7 @@
         <v>1433.728739225199</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16">
       <c r="A249" s="1">
         <v>262</v>
       </c>
@@ -13122,7 +12953,7 @@
         <v>9</v>
       </c>
       <c r="F249">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -13131,13 +12962,13 @@
         <v>30</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J249">
         <v>1.4</v>
       </c>
       <c r="K249">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L249">
         <v>1.554</v>
@@ -13149,13 +12980,13 @@
         <v>238929552</v>
       </c>
       <c r="O249">
-        <v>25.347086748203779</v>
+        <v>25.34708674820378</v>
       </c>
       <c r="P249">
-        <v>2091.1367478635598</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2091.13674786356</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
       <c r="A250" s="1">
         <v>263</v>
       </c>
@@ -13172,7 +13003,7 @@
         <v>9</v>
       </c>
       <c r="F250">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -13181,13 +13012,13 @@
         <v>30</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J250">
         <v>1.4</v>
       </c>
       <c r="K250">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L250">
         <v>1.554</v>
@@ -13199,13 +13030,13 @@
         <v>1245035.5</v>
       </c>
       <c r="O250">
-        <v>3.1972444019534709</v>
+        <v>3.197244401953471</v>
       </c>
       <c r="P250">
-        <v>263.77292693408828</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>263.7729269340883</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16">
       <c r="A251" s="1">
         <v>265</v>
       </c>
@@ -13222,7 +13053,7 @@
         <v>9</v>
       </c>
       <c r="F251">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -13231,13 +13062,13 @@
         <v>30</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J251">
         <v>1.4</v>
       </c>
       <c r="K251">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L251">
         <v>1.554</v>
@@ -13246,16 +13077,16 @@
         <v>49</v>
       </c>
       <c r="N251">
-        <v>1110813.6200000001</v>
+        <v>1110813.62</v>
       </c>
       <c r="O251">
         <v>1.208961901596477</v>
       </c>
       <c r="P251">
-        <v>99.739456621166013</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>99.73945662116601</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
       <c r="A252" s="1">
         <v>266</v>
       </c>
@@ -13272,7 +13103,7 @@
         <v>9</v>
       </c>
       <c r="F252">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -13281,13 +13112,13 @@
         <v>30</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J252">
         <v>1.4</v>
       </c>
       <c r="K252">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L252">
         <v>1.554</v>
@@ -13299,13 +13130,13 @@
         <v>10612.46</v>
       </c>
       <c r="O252">
-        <v>1.0721951128963989E-2</v>
+        <v>0.01072195112896399</v>
       </c>
       <c r="P252">
-        <v>0.88456185270138177</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.8845618527013818</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16">
       <c r="A253" s="1">
         <v>267</v>
       </c>
@@ -13322,7 +13153,7 @@
         <v>9</v>
       </c>
       <c r="F253">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -13331,13 +13162,13 @@
         <v>30</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J253">
         <v>1.4</v>
       </c>
       <c r="K253">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L253">
         <v>1.554</v>
@@ -13349,13 +13180,13 @@
         <v>2960605</v>
       </c>
       <c r="O253">
-        <v>0.66793315940653364</v>
+        <v>0.6679331594065336</v>
       </c>
       <c r="P253">
-        <v>55.104540755579791</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>55.10454075557979</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16">
       <c r="A254" s="1">
         <v>268</v>
       </c>
@@ -13372,7 +13203,7 @@
         <v>9</v>
       </c>
       <c r="F254">
-        <v>5.9166666666666643</v>
+        <v>5.916666666666664</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -13381,13 +13212,13 @@
         <v>30</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J254">
         <v>1.4</v>
       </c>
       <c r="K254">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="L254">
         <v>1.554</v>
@@ -13399,7 +13230,7 @@
         <v>49707612</v>
       </c>
       <c r="O254">
-        <v>151.94099690161889</v>
+        <v>151.9409969016189</v>
       </c>
       <c r="P254">
         <v>12535.14477952834</v>
@@ -13407,8 +13238,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/metabolite_data/lt_dataset2_quantified.xlsx
+++ b/metabolite_data/lt_dataset2_quantified.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\metabolite_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakam/Dropbox/Work/component_contribution_ctherm/metabolite_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBE378-5395-4331-BE5A-2BDF818EB2BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -265,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,9 +393,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -416,31 +423,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -468,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,16 +633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="I260" sqref="I260"/>
+    <sheetView tabSelected="1" topLeftCell="C250" workbookViewId="0">
+      <selection activeCell="O255" sqref="O255:O266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -772,7 +745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -825,7 +798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -878,7 +851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -931,7 +904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -984,7 +957,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1037,7 +1010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1090,7 +1063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1143,7 +1116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1196,7 +1169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1249,7 +1222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1302,7 +1275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1355,7 +1328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1408,7 +1381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1461,7 +1434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1514,7 +1487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1567,7 +1540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1620,7 +1593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1673,7 +1646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1726,7 +1699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1779,7 +1752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1832,7 +1805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1885,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1938,7 +1911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1991,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2044,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2097,7 +2070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2150,7 +2123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2203,7 +2176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2256,7 +2229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2309,7 +2282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2362,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2415,7 +2388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2468,7 +2441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2521,7 +2494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2574,7 +2547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2627,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2680,7 +2653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2733,7 +2706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2786,7 +2759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2839,7 +2812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2892,7 +2865,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2945,7 +2918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2998,7 +2971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3051,7 +3024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3104,7 +3077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3157,7 +3130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3210,7 +3183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3263,7 +3236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3316,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3369,7 +3342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3422,7 +3395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3475,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3528,7 +3501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3581,7 +3554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3634,7 +3607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3687,7 +3660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3740,7 +3713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3793,7 +3766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3846,7 +3819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3899,7 +3872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3952,7 +3925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4005,7 +3978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4058,7 +4031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4111,7 +4084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4164,7 +4137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4217,7 +4190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4270,7 +4243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4323,7 +4296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4376,7 +4349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4429,7 +4402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4482,7 +4455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4535,7 +4508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4588,7 +4561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4641,7 +4614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4694,7 +4667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4747,7 +4720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4800,7 +4773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4853,7 +4826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4906,7 +4879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4959,7 +4932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5012,7 +4985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5065,7 +5038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5118,7 +5091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5171,7 +5144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5224,7 +5197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5277,7 +5250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5330,7 +5303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5383,7 +5356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5436,7 +5409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5489,7 +5462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5542,7 +5515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5595,7 +5568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5648,7 +5621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5701,7 +5674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5754,7 +5727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5807,7 +5780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5860,7 +5833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5913,7 +5886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5966,7 +5939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6019,7 +5992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6072,7 +6045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6125,7 +6098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6178,7 +6151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6231,7 +6204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6284,7 +6257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6337,7 +6310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6390,7 +6363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6443,7 +6416,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6496,7 +6469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6549,7 +6522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6602,7 +6575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6655,7 +6628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6708,7 +6681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6761,7 +6734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6814,7 +6787,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6867,7 +6840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6920,7 +6893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6973,7 +6946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7026,7 +6999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7079,7 +7052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7132,7 +7105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7185,7 +7158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7238,7 +7211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7291,7 +7264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7344,7 +7317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7397,7 +7370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7450,7 +7423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7503,7 +7476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7556,7 +7529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7609,7 +7582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7662,7 +7635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7715,7 +7688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7768,7 +7741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7821,7 +7794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7874,7 +7847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7927,7 +7900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7980,7 +7953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8033,7 +8006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8086,7 +8059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8139,7 +8112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8192,7 +8165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8245,7 +8218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8298,7 +8271,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8351,7 +8324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8404,7 +8377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8457,7 +8430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8510,7 +8483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8563,7 +8536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8616,7 +8589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8669,7 +8642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8722,7 +8695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8775,7 +8748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8828,7 +8801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8881,7 +8854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8934,7 +8907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8987,7 +8960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9040,7 +9013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9093,7 +9066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9146,7 +9119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9199,7 +9172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9252,7 +9225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9305,7 +9278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9358,7 +9331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9411,7 +9384,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9464,7 +9437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9517,7 +9490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9570,7 +9543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9623,7 +9596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9676,7 +9649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9729,7 +9702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9782,7 +9755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9835,7 +9808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9888,7 +9861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9941,7 +9914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9994,7 +9967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10047,7 +10020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10100,7 +10073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10153,7 +10126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10206,7 +10179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10259,7 +10232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10312,7 +10285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10365,7 +10338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10418,7 +10391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10471,7 +10444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10524,7 +10497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10577,7 +10550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10630,7 +10603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10683,7 +10656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10736,7 +10709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10789,7 +10762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10842,7 +10815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10895,7 +10868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10948,7 +10921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11001,7 +10974,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11054,7 +11027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11107,7 +11080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11160,7 +11133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11213,7 +11186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11266,7 +11239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11319,7 +11292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11372,7 +11345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11425,7 +11398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11478,7 +11451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11531,7 +11504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11584,7 +11557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11637,7 +11610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11690,7 +11663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11743,7 +11716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11796,7 +11769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11849,7 +11822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11902,7 +11875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11955,7 +11928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12008,7 +11981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12061,7 +12034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12114,7 +12087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12167,7 +12140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12220,7 +12193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12273,7 +12246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12326,7 +12299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12379,7 +12352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12432,7 +12405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12485,7 +12458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12538,7 +12511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12591,7 +12564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12644,7 +12617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12697,7 +12670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12750,7 +12723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12803,7 +12776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12856,7 +12829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12909,7 +12882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12962,7 +12935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13015,7 +12988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13068,7 +13041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13121,7 +13094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13174,7 +13147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13227,7 +13200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13280,7 +13253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13333,7 +13306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13386,7 +13359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13439,7 +13412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13492,7 +13465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13545,7 +13518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13598,7 +13571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13651,7 +13624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13704,7 +13677,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13757,7 +13730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13810,7 +13783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13863,7 +13836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13916,7 +13889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13969,7 +13942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14022,7 +13995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14075,7 +14048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14128,7 +14101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -14156,6 +14129,10 @@
       <c r="M255" t="s">
         <v>55</v>
       </c>
+      <c r="O255">
+        <f>I255/46</f>
+        <v>0.11130434782608696</v>
+      </c>
       <c r="P255">
         <v>108530.4970696766</v>
       </c>
@@ -14163,7 +14140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -14191,6 +14168,10 @@
       <c r="M256" t="s">
         <v>55</v>
       </c>
+      <c r="O256">
+        <f t="shared" ref="O256:O266" si="0">I256/46</f>
+        <v>0.11130434782608696</v>
+      </c>
       <c r="P256">
         <v>108530.4970696766</v>
       </c>
@@ -14198,7 +14179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -14226,6 +14207,10 @@
       <c r="M257" t="s">
         <v>55</v>
       </c>
+      <c r="O257">
+        <f t="shared" si="0"/>
+        <v>0.43934782608695655</v>
+      </c>
       <c r="P257">
         <v>434121.98827870633</v>
       </c>
@@ -14233,7 +14218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -14261,6 +14246,10 @@
       <c r="M258" t="s">
         <v>55</v>
       </c>
+      <c r="O258">
+        <f t="shared" si="0"/>
+        <v>0.43934782608695655</v>
+      </c>
       <c r="P258">
         <v>434121.98827870633</v>
       </c>
@@ -14268,7 +14257,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -14296,6 +14285,10 @@
       <c r="M259" t="s">
         <v>55</v>
       </c>
+      <c r="O259">
+        <f t="shared" si="0"/>
+        <v>0.87782608695652176</v>
+      </c>
       <c r="P259">
         <v>868243.97655741253</v>
       </c>
@@ -14303,7 +14296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -14331,6 +14324,10 @@
       <c r="M260" t="s">
         <v>55</v>
       </c>
+      <c r="O260">
+        <f t="shared" si="0"/>
+        <v>0.87782608695652176</v>
+      </c>
       <c r="P260">
         <v>868243.97655741253</v>
       </c>
@@ -14338,7 +14335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -14366,6 +14363,10 @@
       <c r="M261" t="s">
         <v>55</v>
       </c>
+      <c r="O261">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
       <c r="P261">
         <v>4341.2198827870634</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -14401,6 +14402,10 @@
       <c r="M262" t="s">
         <v>55</v>
       </c>
+      <c r="O262">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
       <c r="P262">
         <v>4341.2198827870634</v>
       </c>
@@ -14408,7 +14413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -14436,6 +14441,10 @@
       <c r="M263" t="s">
         <v>55</v>
       </c>
+      <c r="O263">
+        <f t="shared" si="0"/>
+        <v>1.0217391304347826E-2</v>
+      </c>
       <c r="P263">
         <v>10201.8667245496</v>
       </c>
@@ -14443,7 +14452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -14471,6 +14480,10 @@
       <c r="M264" t="s">
         <v>55</v>
       </c>
+      <c r="O264">
+        <f t="shared" si="0"/>
+        <v>1.0217391304347826E-2</v>
+      </c>
       <c r="P264">
         <v>10201.8667245496</v>
       </c>
@@ -14478,7 +14491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -14506,6 +14519,10 @@
       <c r="M265" t="s">
         <v>55</v>
       </c>
+      <c r="O265">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173912E-2</v>
+      </c>
       <c r="P265">
         <v>12589.53766008248</v>
       </c>
@@ -14513,7 +14530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -14540,6 +14557,10 @@
       </c>
       <c r="M266" t="s">
         <v>55</v>
+      </c>
+      <c r="O266">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173912E-2</v>
       </c>
       <c r="P266">
         <v>12589.53766008248</v>

--- a/metabolite_data/lt_dataset2_quantified.xlsx
+++ b/metabolite_data/lt_dataset2_quantified.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakam/Dropbox/Work/component_contribution_ctherm/metabolite_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\metabolite_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117B7D3-7334-4238-904E-78BC9681BD5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="456" windowWidth="16104" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -239,9 +246,6 @@
     <t>C00031</t>
   </si>
   <si>
-    <t>C06193</t>
-  </si>
-  <si>
     <t>C00149</t>
   </si>
   <si>
@@ -268,11 +272,14 @@
   <si>
     <t>C00469</t>
   </si>
+  <si>
+    <t>C00144</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,16 +640,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C250" workbookViewId="0">
-      <selection activeCell="O255" sqref="O255:O266"/>
+    <sheetView tabSelected="1" topLeftCell="C165" workbookViewId="0">
+      <selection activeCell="S172" sqref="S172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -745,7 +752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -798,7 +805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -851,7 +858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -904,7 +911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -957,7 +964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1063,7 +1070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1646,7 +1653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1699,7 +1706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1805,7 +1812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2070,7 +2077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3183,7 +3190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3289,7 +3296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3342,7 +3349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3554,7 +3561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3660,7 +3667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3766,7 +3773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3978,7 +3985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4084,7 +4091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4455,7 +4462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4614,7 +4621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4667,7 +4674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4720,7 +4727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4826,7 +4833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4879,7 +4886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4932,7 +4939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4985,7 +4992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5091,7 +5098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5250,7 +5257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5303,7 +5310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5356,7 +5363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5462,7 +5469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5515,7 +5522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5780,7 +5787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5886,7 +5893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5939,7 +5946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5992,7 +5999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6098,7 +6105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6257,7 +6264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6310,7 +6317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6416,7 +6423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6469,7 +6476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6522,7 +6529,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6575,7 +6582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6628,7 +6635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6787,7 +6794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6840,7 +6847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6999,7 +7006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7052,7 +7059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7105,7 +7112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7264,7 +7271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7317,7 +7324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7370,7 +7377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7582,7 +7589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7741,7 +7748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7794,7 +7801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7847,7 +7854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7900,7 +7907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7953,7 +7960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8006,7 +8013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8059,7 +8066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8112,7 +8119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8218,7 +8225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8271,7 +8278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8324,7 +8331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8377,7 +8384,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8430,7 +8437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8483,7 +8490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8589,7 +8596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8695,7 +8702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8748,7 +8755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8801,7 +8808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8854,7 +8861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8907,7 +8914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8960,7 +8967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9013,7 +9020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9066,7 +9073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9119,7 +9126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9172,7 +9179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9225,7 +9232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9331,7 +9338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9381,10 +9388,10 @@
         <v>6.9916878688847559</v>
       </c>
       <c r="Q165" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9434,10 +9441,10 @@
         <v>60.09248704949308</v>
       </c>
       <c r="Q166" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9487,10 +9494,10 @@
         <v>91.200803488151308</v>
       </c>
       <c r="Q167" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9540,10 +9547,10 @@
         <v>99.629525644855008</v>
       </c>
       <c r="Q168" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9593,10 +9600,10 @@
         <v>161.1986989325884</v>
       </c>
       <c r="Q169" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9646,10 +9653,10 @@
         <v>208.68698969778629</v>
       </c>
       <c r="Q170" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9699,10 +9706,10 @@
         <v>92.024733409086338</v>
       </c>
       <c r="Q171" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9752,10 +9759,10 @@
         <v>128.55281729981431</v>
       </c>
       <c r="Q172" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9805,10 +9812,10 @@
         <v>383.6945597258466</v>
       </c>
       <c r="Q173" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9858,10 +9865,10 @@
         <v>313.00599049409578</v>
       </c>
       <c r="Q174" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9911,10 +9918,10 @@
         <v>1206.5683764425221</v>
       </c>
       <c r="Q175" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9964,10 +9971,10 @@
         <v>1433.728739225199</v>
       </c>
       <c r="Q176" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10017,10 +10024,10 @@
         <v>43.677060511767593</v>
       </c>
       <c r="Q177" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10070,10 +10077,10 @@
         <v>89.710209619263338</v>
       </c>
       <c r="Q178" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10123,10 +10130,10 @@
         <v>99.313088882302566</v>
       </c>
       <c r="Q179" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10176,10 +10183,10 @@
         <v>106.7304097099771</v>
       </c>
       <c r="Q180" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10229,10 +10236,10 @@
         <v>123.6036099330307</v>
       </c>
       <c r="Q181" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10282,10 +10289,10 @@
         <v>118.04019258293729</v>
       </c>
       <c r="Q182" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10335,10 +10342,10 @@
         <v>98.432499583529804</v>
       </c>
       <c r="Q183" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10388,10 +10395,10 @@
         <v>109.6029839012772</v>
       </c>
       <c r="Q184" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10441,10 +10448,10 @@
         <v>176.22986623423969</v>
       </c>
       <c r="Q185" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10494,10 +10501,10 @@
         <v>193.20226858868961</v>
       </c>
       <c r="Q186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10547,10 +10554,10 @@
         <v>2031.6650242469041</v>
       </c>
       <c r="Q187" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10600,10 +10607,10 @@
         <v>2091.1367478635598</v>
       </c>
       <c r="Q188" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10653,10 +10660,10 @@
         <v>400.95699817757458</v>
       </c>
       <c r="Q189" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10706,10 +10713,10 @@
         <v>359.52227748380261</v>
       </c>
       <c r="Q190" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10759,10 +10766,10 @@
         <v>160.30089095159329</v>
       </c>
       <c r="Q191" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10812,10 +10819,10 @@
         <v>156.80172086677001</v>
       </c>
       <c r="Q192" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10865,10 +10872,10 @@
         <v>111.3999040761546</v>
       </c>
       <c r="Q193" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10918,10 +10925,10 @@
         <v>141.57999442584651</v>
       </c>
       <c r="Q194" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10971,10 +10978,10 @@
         <v>340.51376798161999</v>
       </c>
       <c r="Q195" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11024,10 +11031,10 @@
         <v>329.08995712513769</v>
       </c>
       <c r="Q196" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11077,10 +11084,10 @@
         <v>270.22532301249242</v>
       </c>
       <c r="Q197" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11130,10 +11137,10 @@
         <v>278.71988133475702</v>
       </c>
       <c r="Q198" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11183,10 +11190,10 @@
         <v>233.45088449914991</v>
       </c>
       <c r="Q199" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11236,10 +11243,10 @@
         <v>263.77292693408828</v>
       </c>
       <c r="Q200" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11289,10 +11296,10 @@
         <v>3.3586980377282272</v>
       </c>
       <c r="Q201" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11342,10 +11349,10 @@
         <v>2.3611874202499852</v>
       </c>
       <c r="Q202" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11395,10 +11402,10 @@
         <v>2.1968807523464711</v>
       </c>
       <c r="Q203" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11448,10 +11455,10 @@
         <v>5.0820487085056607</v>
       </c>
       <c r="Q204" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11501,10 +11508,10 @@
         <v>5.2292206275740218</v>
       </c>
       <c r="Q205" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11554,10 +11561,10 @@
         <v>51.772470872585913</v>
       </c>
       <c r="Q206" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11607,10 +11614,10 @@
         <v>88.159680150646224</v>
       </c>
       <c r="Q207" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11660,10 +11667,10 @@
         <v>218.41080668948669</v>
       </c>
       <c r="Q208" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11713,10 +11720,10 @@
         <v>264.39413004219318</v>
       </c>
       <c r="Q209" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11766,10 +11773,10 @@
         <v>185.11825058591049</v>
       </c>
       <c r="Q210" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11819,10 +11826,10 @@
         <v>217.2454642110408</v>
       </c>
       <c r="Q211" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11872,10 +11879,10 @@
         <v>96.615902755162338</v>
       </c>
       <c r="Q212" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11925,10 +11932,10 @@
         <v>111.3408875221085</v>
       </c>
       <c r="Q213" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11978,10 +11985,10 @@
         <v>87.381289368187623</v>
       </c>
       <c r="Q214" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12031,10 +12038,10 @@
         <v>92.459599783122513</v>
       </c>
       <c r="Q215" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12084,10 +12091,10 @@
         <v>94.378522848819557</v>
       </c>
       <c r="Q216" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12137,10 +12144,10 @@
         <v>99.739456621166013</v>
       </c>
       <c r="Q217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12190,10 +12197,10 @@
         <v>0.6962934224824997</v>
       </c>
       <c r="Q218" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12243,10 +12250,10 @@
         <v>0.88369149467832542</v>
       </c>
       <c r="Q219" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12296,10 +12303,10 @@
         <v>3.6729573335204591</v>
       </c>
       <c r="Q220" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12349,10 +12356,10 @@
         <v>2.6125386282722589</v>
       </c>
       <c r="Q221" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12402,10 +12409,10 @@
         <v>7.1530536735831749</v>
       </c>
       <c r="Q222" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12455,10 +12462,10 @@
         <v>8.3760554266229299</v>
       </c>
       <c r="Q223" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12508,10 +12515,10 @@
         <v>0.90964350127061955</v>
       </c>
       <c r="Q224" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12561,10 +12568,10 @@
         <v>0.75659364442861599</v>
       </c>
       <c r="Q225" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12614,10 +12621,10 @@
         <v>0.88456185270138177</v>
       </c>
       <c r="Q226" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12667,10 +12674,10 @@
         <v>24.974107600799329</v>
       </c>
       <c r="Q227" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12720,10 +12727,10 @@
         <v>32.388260270236543</v>
       </c>
       <c r="Q228" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12773,10 +12780,10 @@
         <v>4.5678672279302184</v>
       </c>
       <c r="Q229" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12826,10 +12833,10 @@
         <v>5.4601357876395502</v>
       </c>
       <c r="Q230" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12879,10 +12886,10 @@
         <v>3.340819805766817</v>
       </c>
       <c r="Q231" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12932,10 +12939,10 @@
         <v>3.5807725737336411</v>
       </c>
       <c r="Q232" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12985,10 +12992,10 @@
         <v>28.883843827120138</v>
       </c>
       <c r="Q233" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13038,10 +13045,10 @@
         <v>35.65584920170398</v>
       </c>
       <c r="Q234" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13091,10 +13098,10 @@
         <v>39.693011389684017</v>
       </c>
       <c r="Q235" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13144,10 +13151,10 @@
         <v>46.304779139951513</v>
       </c>
       <c r="Q236" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13197,10 +13204,10 @@
         <v>48.581578281450362</v>
       </c>
       <c r="Q237" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13250,10 +13257,10 @@
         <v>55.104540755579791</v>
       </c>
       <c r="Q238" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13303,10 +13310,10 @@
         <v>183.52084998876731</v>
       </c>
       <c r="Q239" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13356,10 +13363,10 @@
         <v>210.77927653164119</v>
       </c>
       <c r="Q240" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13409,10 +13416,10 @@
         <v>305.46816647530039</v>
       </c>
       <c r="Q241" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13462,10 +13469,10 @@
         <v>347.65792898605463</v>
       </c>
       <c r="Q242" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13515,10 +13522,10 @@
         <v>1579.261315232699</v>
       </c>
       <c r="Q243" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13568,10 +13575,10 @@
         <v>1547.0947395031651</v>
       </c>
       <c r="Q244" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13621,10 +13628,10 @@
         <v>220.4441533722979</v>
       </c>
       <c r="Q245" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13674,10 +13681,10 @@
         <v>232.88515698640481</v>
       </c>
       <c r="Q246" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13727,10 +13734,10 @@
         <v>878.18573103189556</v>
       </c>
       <c r="Q247" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13780,10 +13787,10 @@
         <v>1816.691318471401</v>
       </c>
       <c r="Q248" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13833,10 +13840,10 @@
         <v>10922.256536892181</v>
       </c>
       <c r="Q249" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13886,10 +13893,10 @@
         <v>12535.14477952834</v>
       </c>
       <c r="Q250" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13939,10 +13946,10 @@
         <v>1.4412876805372621</v>
       </c>
       <c r="Q251" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13992,10 +13999,10 @@
         <v>4.3757609734695189</v>
       </c>
       <c r="Q252" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14045,10 +14052,10 @@
         <v>0.59130701261898855</v>
       </c>
       <c r="Q253" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14098,10 +14105,10 @@
         <v>0.60444984825909553</v>
       </c>
       <c r="Q254" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -14137,10 +14144,10 @@
         <v>108530.4970696766</v>
       </c>
       <c r="Q255" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -14176,10 +14183,10 @@
         <v>108530.4970696766</v>
       </c>
       <c r="Q256" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -14215,10 +14222,10 @@
         <v>434121.98827870633</v>
       </c>
       <c r="Q257" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -14254,10 +14261,10 @@
         <v>434121.98827870633</v>
       </c>
       <c r="Q258" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -14293,10 +14300,10 @@
         <v>868243.97655741253</v>
       </c>
       <c r="Q259" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -14332,10 +14339,10 @@
         <v>868243.97655741253</v>
       </c>
       <c r="Q260" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -14371,10 +14378,10 @@
         <v>4341.2198827870634</v>
       </c>
       <c r="Q261" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -14410,10 +14417,10 @@
         <v>4341.2198827870634</v>
       </c>
       <c r="Q262" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -14449,10 +14456,10 @@
         <v>10201.8667245496</v>
       </c>
       <c r="Q263" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -14488,10 +14495,10 @@
         <v>10201.8667245496</v>
       </c>
       <c r="Q264" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -14527,10 +14534,10 @@
         <v>12589.53766008248</v>
       </c>
       <c r="Q265" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -14566,7 +14573,7 @@
         <v>12589.53766008248</v>
       </c>
       <c r="Q266" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/metabolite_data/lt_dataset2_quantified.xlsx
+++ b/metabolite_data/lt_dataset2_quantified.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\metabolite_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117B7D3-7334-4238-904E-78BC9681BD5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA30B68-64BC-4C37-B62F-92CEF5965E68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="456" windowWidth="16104" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1392" yWindow="2028" windowWidth="16620" windowHeight="15432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pivot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -275,6 +279,15 @@
   <si>
     <t>C00144</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of amount_int</t>
+  </si>
 </sst>
 </file>
 
@@ -332,10 +345,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,6 +379,4795 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dan Olson" refreshedDate="43502.696860879631" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="265" xr:uid="{B0642ACF-ED15-4131-A654-6ADE06AE4532}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:Q266" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Sample" numFmtId="0">
+      <sharedItems count="2">
+        <s v="A"/>
+        <s v="B"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ethanol" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Timepoint" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9" count="3">
+        <n v="2"/>
+        <n v="5"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time (h)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0166666666666671" maxValue="5.9166666666666643" count="3">
+        <n v="2.0166666666666671"/>
+        <n v="3.75"/>
+        <n v="5.9166666666666643"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Replicate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Maven filename" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name=" EtOH concentraion (g/L)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="40.380000000000003"/>
+    </cacheField>
+    <cacheField name="OD" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.2" maxValue="1.4"/>
+    </cacheField>
+    <cacheField name="sample volume ml" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.1100000000000001" maxValue="10"/>
+    </cacheField>
+    <cacheField name="ODxml" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.554" maxValue="2.1"/>
+    </cacheField>
+    <cacheField name="compound" numFmtId="0">
+      <sharedItems count="24">
+        <s v="3PG"/>
+        <s v="Acetyl-CoA"/>
+        <s v="ADP"/>
+        <s v="AMP"/>
+        <s v="ATP"/>
+        <s v="Cellobiose"/>
+        <s v="CoA"/>
+        <s v="DHAP"/>
+        <s v="Fructose-1-6-bisphosphate"/>
+        <s v="Fructose-6-phosphate"/>
+        <s v="Glucose-1-phosphate"/>
+        <s v="Glucose-6-phosphate"/>
+        <s v="GDP"/>
+        <s v="Glucose"/>
+        <s v="GMP"/>
+        <s v="Malate"/>
+        <s v="NAD+"/>
+        <s v="NADH"/>
+        <s v="NADP+"/>
+        <s v="NADPH"/>
+        <s v="Phosphoenolpyruvate"/>
+        <s v="Pyruvate"/>
+        <s v="GTP"/>
+        <s v="ethanol"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="peakAreaTop" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9283.85" maxValue="238929552"/>
+    </cacheField>
+    <cacheField name="amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3478260869565218E-3" maxValue="423.68569489397993"/>
+    </cacheField>
+    <cacheField name="amount_int" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.59130701261898855" maxValue="868243.97655741253"/>
+    </cacheField>
+    <cacheField name="KEGG_ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="265">
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="8703433"/>
+    <n v="3.4001591189853131"/>
+    <n v="217.95891788367399"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="5454995"/>
+    <n v="2.1434028149094182"/>
+    <n v="137.39761634034741"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="0"/>
+    <n v="746916.06"/>
+    <n v="0.35140572888331317"/>
+    <n v="22.518126917329781"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="0"/>
+    <n v="1038694"/>
+    <n v="0.50402373297045766"/>
+    <n v="32.297909383668127"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="0"/>
+    <n v="599322.43999999994"/>
+    <n v="0.27305810336708358"/>
+    <n v="18.098252158210261"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="0"/>
+    <n v="752381.94"/>
+    <n v="0.3543072006363378"/>
+    <n v="23.483430740620271"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="0"/>
+    <n v="7282117.5"/>
+    <n v="2.8502803111688229"/>
+    <n v="174.00978700664371"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="0"/>
+    <n v="9640769"/>
+    <n v="3.7627958468641531"/>
+    <n v="229.71891616997269"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="0"/>
+    <n v="7655777.5"/>
+    <n v="2.9948419622087998"/>
+    <n v="191.88110830538579"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="0"/>
+    <n v="9385585"/>
+    <n v="3.6640702129750951"/>
+    <n v="234.7589162454091"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="0"/>
+    <n v="7020078"/>
+    <n v="2.7489024201510799"/>
+    <n v="226.78467644714061"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="0"/>
+    <n v="8089833.5"/>
+    <n v="3.1627696290819141"/>
+    <n v="260.92875532801332"/>
+    <s v="C00197"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="1346292.12"/>
+    <n v="6.4975349429535818"/>
+    <n v="416.50865018933217"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="664678.68999999994"/>
+    <n v="3.2780035476656519"/>
+    <n v="210.12843254267011"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="1"/>
+    <n v="14605.25"/>
+    <n v="0.11597823137370999"/>
+    <n v="7.4319008458392117"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="1"/>
+    <n v="10466.16"/>
+    <n v="9.1726117203066226E-2"/>
+    <n v="6.079593969796683"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="1"/>
+    <n v="11074.24"/>
+    <n v="9.528903213965495E-2"/>
+    <n v="6.3157434637889924"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="1"/>
+    <n v="95931.12"/>
+    <n v="0.60029420908297471"/>
+    <n v="36.647998112513733"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="1"/>
+    <n v="156342.64000000001"/>
+    <n v="0.98413090934477543"/>
+    <n v="60.081252096750653"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="1"/>
+    <n v="40546.85"/>
+    <n v="0.26797749811330063"/>
+    <n v="17.169460020842191"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="1"/>
+    <n v="10698.39"/>
+    <n v="9.3086819307598517E-2"/>
+    <n v="5.9641217408986877"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="1"/>
+    <n v="170170.05"/>
+    <n v="1.051022844079313"/>
+    <n v="86.709471346014695"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="1"/>
+    <n v="288419.78000000003"/>
+    <n v="1.5835511875968189"/>
+    <n v="130.64310361984121"/>
+    <s v="C00024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="988751.06"/>
+    <n v="1.833073826570836"/>
+    <n v="117.50473247248949"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3026707"/>
+    <n v="4.9393607447340866"/>
+    <n v="316.62568876500569"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="2"/>
+    <n v="3759455"/>
+    <n v="6.1798633467032564"/>
+    <n v="396.0064840577117"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="2"/>
+    <n v="5896767.5"/>
+    <n v="9.8189213992405406"/>
+    <n v="629.19781917614353"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="2"/>
+    <n v="3947543.75"/>
+    <n v="6.500109394147966"/>
+    <n v="430.82632385053938"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="2"/>
+    <n v="5196108.5"/>
+    <n v="8.6259565071001916"/>
+    <n v="571.72716739111831"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="2"/>
+    <n v="2295541.25"/>
+    <n v="3.8249055400577672"/>
+    <n v="233.51071673124349"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="2"/>
+    <n v="3925079.25"/>
+    <n v="6.4618606029107362"/>
+    <n v="394.49698430468482"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="2"/>
+    <n v="449754.75"/>
+    <n v="1.011526533114008"/>
+    <n v="64.809039910429917"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="2"/>
+    <n v="397874.59"/>
+    <n v="0.9135044483103596"/>
+    <n v="58.52871309924268"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="2"/>
+    <n v="2740515.75"/>
+    <n v="4.5031432002233913"/>
+    <n v="371.50968552811543"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="2"/>
+    <n v="1386587.38"/>
+    <n v="2.4394626753828512"/>
+    <n v="201.25587197495719"/>
+    <s v="C00008"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="3"/>
+    <n v="9313822"/>
+    <n v="12.58289029691948"/>
+    <n v="806.59553185381321"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="3"/>
+    <n v="11147725"/>
+    <n v="16.675760058106651"/>
+    <n v="1068.95897808376"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="3"/>
+    <n v="13133433"/>
+    <n v="21.10742532488872"/>
+    <n v="1352.5666865884591"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="3"/>
+    <n v="13095355"/>
+    <n v="21.022443570255849"/>
+    <n v="1347.1210441893959"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="3"/>
+    <n v="9785988"/>
+    <n v="13.63666137622995"/>
+    <n v="903.83597168457891"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="3"/>
+    <n v="11618692"/>
+    <n v="17.726855232070069"/>
+    <n v="1174.9334372647941"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="3"/>
+    <n v="9699588"/>
+    <n v="13.44383550301497"/>
+    <n v="820.74697820604217"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="3"/>
+    <n v="10784543"/>
+    <n v="15.86521739275986"/>
+    <n v="968.57249040047986"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="3"/>
+    <n v="21943872"/>
+    <n v="40.770395158017351"/>
+    <n v="2612.1807787143198"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="3"/>
+    <n v="23090290"/>
+    <n v="43.328948999676733"/>
+    <n v="2776.1086764103029"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="3"/>
+    <n v="24647830"/>
+    <n v="46.805037084945937"/>
+    <n v="3861.419420927461"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="3"/>
+    <n v="31574288"/>
+    <n v="62.263374030974667"/>
+    <n v="5136.7334942889047"/>
+    <s v="C00020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="4"/>
+    <n v="623393.06000000006"/>
+    <n v="0.53486555441040939"/>
+    <n v="34.286253487846757"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="4"/>
+    <n v="2334777.75"/>
+    <n v="1.656603595047571"/>
+    <n v="106.1925381440751"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="4"/>
+    <n v="2037213.38"/>
+    <n v="1.480879970106687"/>
+    <n v="94.894989965479226"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="4"/>
+    <n v="4702771.5"/>
+    <n v="3.0549983208252489"/>
+    <n v="195.76470804611009"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="4"/>
+    <n v="3323052.25"/>
+    <n v="2.240219091676551"/>
+    <n v="148.4814019831299"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="4"/>
+    <n v="5082503"/>
+    <n v="3.2792449121904701"/>
+    <n v="217.34788522121369"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="4"/>
+    <n v="2556367.75"/>
+    <n v="1.787461325261207"/>
+    <n v="109.1246230318197"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="4"/>
+    <n v="2361638"/>
+    <n v="1.67246564364169"/>
+    <n v="102.1041296484548"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="4"/>
+    <n v="250174.48"/>
+    <n v="0.18556660788688359"/>
+    <n v="15.30926045992836"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="4"/>
+    <n v="64782.12"/>
+    <n v="7.9940433409810691E-3"/>
+    <n v="0.65950923514017346"/>
+    <s v="C00002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="5"/>
+    <n v="58503476"/>
+    <n v="415.11926868111362"/>
+    <n v="26610.209530840621"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="5"/>
+    <n v="58143076"/>
+    <n v="412.48274293779508"/>
+    <n v="26441.201470371481"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="5"/>
+    <n v="57423696"/>
+    <n v="407.22007953816012"/>
+    <n v="26094.718101110779"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="5"/>
+    <n v="53992224"/>
+    <n v="382.11696004460703"/>
+    <n v="24486.106788560352"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="5"/>
+    <n v="59674464"/>
+    <n v="423.68569489397993"/>
+    <n v="28081.82744794579"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="5"/>
+    <n v="53990060"/>
+    <n v="382.10112918526028"/>
+    <n v="25325.608361950352"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="5"/>
+    <n v="51708464"/>
+    <n v="365.40998992373852"/>
+    <n v="22308.302193146432"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="5"/>
+    <n v="52675532"/>
+    <n v="372.48462831868721"/>
+    <n v="22740.209299065162"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="5"/>
+    <n v="47525468"/>
+    <n v="334.80905585548601"/>
+    <n v="21451.39326846103"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="5"/>
+    <n v="47710812"/>
+    <n v="336.16494993808749"/>
+    <n v="21538.26611938182"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="5"/>
+    <n v="39435212"/>
+    <n v="275.62434937924633"/>
+    <n v="22739.031562819389"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="5"/>
+    <n v="36786816"/>
+    <n v="256.24986482735483"/>
+    <n v="21140.634988891761"/>
+    <s v="C00185"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="6"/>
+    <n v="835066.75"/>
+    <n v="0.81487810055302945"/>
+    <n v="52.235775676476258"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="6"/>
+    <n v="1192175.1200000001"/>
+    <n v="1.117324055705774"/>
+    <n v="71.62333690421633"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="6"/>
+    <n v="493405.03"/>
+    <n v="0.50354396635449927"/>
+    <n v="32.267165873642902"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="6"/>
+    <n v="369254.62"/>
+    <n v="0.37853006411708889"/>
+    <n v="24.256258009510059"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="6"/>
+    <n v="360025.5"/>
+    <n v="0.36920818449686782"/>
+    <n v="24.4710658262956"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="6"/>
+    <n v="378186.25"/>
+    <n v="0.38755146373832638"/>
+    <n v="25.686855759012172"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="6"/>
+    <n v="1154938"/>
+    <n v="1.0889465790216959"/>
+    <n v="66.480255129529667"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="6"/>
+    <n v="1265900.6200000001"/>
+    <n v="1.1735084130693949"/>
+    <n v="71.642760260646838"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="6"/>
+    <n v="446539.25"/>
+    <n v="0.45659146296696068"/>
+    <n v="29.254056495275499"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="6"/>
+    <n v="429279.16"/>
+    <n v="0.43915789603813299"/>
+    <n v="28.137078642610309"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="6"/>
+    <n v="703909.25"/>
+    <n v="0.69536278960118003"/>
+    <n v="57.367487509584869"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="6"/>
+    <n v="1147491"/>
+    <n v="1.0832714068046621"/>
+    <n v="89.369980431365107"/>
+    <s v="C00010"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="7"/>
+    <n v="61429.18"/>
+    <n v="3.968448827444207E-2"/>
+    <n v="2.5438774534898769"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="7"/>
+    <n v="105322.15"/>
+    <n v="7.3944409672502362E-2"/>
+    <n v="4.740026261057845"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="7"/>
+    <n v="753735.06"/>
+    <n v="0.57298303353033386"/>
+    <n v="36.716830745798838"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="7"/>
+    <n v="1073093.3799999999"/>
+    <n v="0.80024047387922925"/>
+    <n v="51.279518442854567"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="7"/>
+    <n v="1062891"/>
+    <n v="0.79298039446665358"/>
+    <n v="52.55862748113038"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="7"/>
+    <n v="1463941.62"/>
+    <n v="1.0864124030404989"/>
+    <n v="72.00725917150838"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="7"/>
+    <n v="99688.93"/>
+    <n v="6.9547494302729454E-2"/>
+    <n v="4.2458787730604062"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="7"/>
+    <n v="147847.92000000001"/>
+    <n v="0.10713718604630421"/>
+    <n v="6.5407317488586179"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="7"/>
+    <n v="117555.03"/>
+    <n v="8.349257894133752E-2"/>
+    <n v="5.3494136868320679"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="7"/>
+    <n v="50386.11"/>
+    <n v="3.1065005241207418E-2"/>
+    <n v="1.9903513141639071"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="7"/>
+    <n v="190552.56"/>
+    <n v="0.14046957639793589"/>
+    <n v="11.58875164158135"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="7"/>
+    <n v="58970.94"/>
+    <n v="3.776575028114685E-2"/>
+    <n v="3.11567751387213"/>
+    <s v="C00111"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="8"/>
+    <n v="84278.32"/>
+    <n v="4.4382100609768792E-2"/>
+    <n v="2.845006449344154"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="8"/>
+    <n v="137608.92000000001"/>
+    <n v="0.1014226265867879"/>
+    <n v="6.5014504222299943"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="8"/>
+    <n v="944541.06"/>
+    <n v="0.81361845913380737"/>
+    <n v="52.136781558108993"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="8"/>
+    <n v="732305.44"/>
+    <n v="0.66035036679526005"/>
+    <n v="42.315341348173007"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="8"/>
+    <n v="981397.31"/>
+    <n v="0.84023457158586701"/>
+    <n v="55.690627603033178"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="8"/>
+    <n v="2088560.62"/>
+    <n v="1.5678312086261921"/>
+    <n v="103.915628964443"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="8"/>
+    <n v="233155.7"/>
+    <n v="0.20361608750060711"/>
+    <n v="12.430774572686641"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="8"/>
+    <n v="272498.28000000003"/>
+    <n v="0.24569552138083631"/>
+    <n v="14.999726580026641"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="8"/>
+    <n v="147075.09"/>
+    <n v="0.111547307647715"/>
+    <n v="7.1468949914603597"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="8"/>
+    <n v="167979.38"/>
+    <n v="0.13390579783488971"/>
+    <n v="8.5794152817751215"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="8"/>
+    <n v="156895.35999999999"/>
+    <n v="0.1220507215608594"/>
+    <n v="10.069194597965501"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="8"/>
+    <n v="197694.23"/>
+    <n v="0.16568775178493389"/>
+    <n v="13.66925319151024"/>
+    <s v="C00354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="9"/>
+    <n v="9636916"/>
+    <n v="22.69007671458391"/>
+    <n v="1454.4920970887131"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="9"/>
+    <n v="10653044"/>
+    <n v="25.846548664755389"/>
+    <n v="1656.8300426125249"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="9"/>
+    <n v="12885440"/>
+    <n v="32.78120193252775"/>
+    <n v="2100.623879881"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="9"/>
+    <n v="13666637"/>
+    <n v="35.207890713919568"/>
+    <n v="2256.126427155596"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="9"/>
+    <n v="14645869"/>
+    <n v="38.249749948888308"/>
+    <n v="2535.18797291595"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="9"/>
+    <n v="12311180"/>
+    <n v="30.997336531608308"/>
+    <n v="1892.389287643975"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="9"/>
+    <n v="13894035"/>
+    <n v="35.914273579587167"/>
+    <n v="2192.5685946023918"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="9"/>
+    <n v="13238341"/>
+    <n v="33.877443850561178"/>
+    <n v="2170.545743190019"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="9"/>
+    <n v="12560679"/>
+    <n v="31.772373333168581"/>
+    <n v="2035.6727618990881"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="9"/>
+    <n v="15933453"/>
+    <n v="42.2494653188905"/>
+    <n v="3485.5843743928408"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="9"/>
+    <n v="20345576"/>
+    <n v="55.955162327738222"/>
+    <n v="4616.3055083439122"/>
+    <s v="C00085"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="10"/>
+    <n v="7305301.5"/>
+    <n v="7.8209014589874739"/>
+    <n v="501.33983711458183"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="10"/>
+    <n v="10474333"/>
+    <n v="12.707268189112501"/>
+    <n v="814.56847366105774"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="10"/>
+    <n v="26822526"/>
+    <n v="46.723158937830902"/>
+    <n v="2994.0263816530178"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="10"/>
+    <n v="27504342"/>
+    <n v="48.141822062662392"/>
+    <n v="3084.934507708354"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="10"/>
+    <n v="97515328"/>
+    <n v="193.81456099999039"/>
+    <n v="12846.001468761009"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="10"/>
+    <n v="91017952"/>
+    <n v="180.29538905423809"/>
+    <n v="11949.952679776699"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="10"/>
+    <n v="13494631"/>
+    <n v="18.991640217053"/>
+    <n v="1159.44079469188"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="10"/>
+    <n v="13934683"/>
+    <n v="19.907261946974771"/>
+    <n v="1215.3395572023669"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="10"/>
+    <n v="21137558"/>
+    <n v="34.894374533465218"/>
+    <n v="2235.701029835418"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="10"/>
+    <n v="23558370"/>
+    <n v="39.931388502849273"/>
+    <n v="2558.425178618978"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="10"/>
+    <n v="26874064"/>
+    <n v="46.830394702505778"/>
+    <n v="3863.5114264681538"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="10"/>
+    <n v="26495424"/>
+    <n v="46.042553693221471"/>
+    <n v="3798.5144782052498"/>
+    <s v="C00103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="11"/>
+    <n v="24945106"/>
+    <n v="44.940985394952243"/>
+    <n v="2880.8323971123241"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="11"/>
+    <n v="23553810"/>
+    <n v="42.067192277151939"/>
+    <n v="2696.6148895610222"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="11"/>
+    <n v="29966800"/>
+    <n v="55.313551446244723"/>
+    <n v="3544.4999023575551"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="11"/>
+    <n v="30573398"/>
+    <n v="56.566510671076408"/>
+    <n v="3624.789699956068"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="11"/>
+    <n v="26649942"/>
+    <n v="48.462411434974037"/>
+    <n v="3212.0817200798838"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="11"/>
+    <n v="31924550"/>
+    <n v="59.357384301635328"/>
+    <n v="3934.1989682635699"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="11"/>
+    <n v="28559752"/>
+    <n v="52.407221765993597"/>
+    <n v="3199.4640882779981"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="11"/>
+    <n v="29407874"/>
+    <n v="54.159061178063368"/>
+    <n v="3306.4139913347599"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="11"/>
+    <n v="35802120"/>
+    <n v="67.366703655524717"/>
+    <n v="4316.2203292920676"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="11"/>
+    <n v="32298224"/>
+    <n v="60.129227079520767"/>
+    <n v="3852.5113776138078"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="11"/>
+    <n v="41643980"/>
+    <n v="79.433364569631294"/>
+    <n v="6553.259130253713"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="11"/>
+    <n v="47530028"/>
+    <n v="91.591298060018815"/>
+    <n v="7556.2896462412"/>
+    <s v="C00092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="12"/>
+    <n v="38653.360000000001"/>
+    <n v="0.12585976075504851"/>
+    <n v="8.0679333817338783"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="12"/>
+    <n v="96892.59"/>
+    <n v="0.37205906261528482"/>
+    <n v="23.849939911236209"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="12"/>
+    <n v="16870.12"/>
+    <n v="3.3773747937674778E-2"/>
+    <n v="2.1642263629316139"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="12"/>
+    <n v="13047.26"/>
+    <n v="1.7613069592349411E-2"/>
+    <n v="1.167391741287805"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="12"/>
+    <n v="81089.13"/>
+    <n v="0.30525184660339427"/>
+    <n v="20.23204886968945"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="12"/>
+    <n v="772722"/>
+    <n v="1.8881756847897471"/>
+    <n v="115.2732408296549"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="12"/>
+    <n v="227952.67"/>
+    <n v="0.76239966688768757"/>
+    <n v="46.544546208039542"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="12"/>
+    <n v="792108.94"/>
+    <n v="1.9261448143544659"/>
+    <n v="123.4091168745413"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="12"/>
+    <n v="1063253.6200000001"/>
+    <n v="2.4571789788850409"/>
+    <n v="157.43275662713779"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="12"/>
+    <n v="878805.94"/>
+    <n v="2.0959400283424641"/>
+    <n v="172.91522525347861"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="12"/>
+    <n v="1319278.25"/>
+    <n v="2.9586006755648349"/>
+    <n v="244.08479981889869"/>
+    <s v="C00035"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="13"/>
+    <n v="23424362"/>
+    <n v="73.621297656770395"/>
+    <n v="4719.3139523570781"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="13"/>
+    <n v="25945976"/>
+    <n v="83.243765679402699"/>
+    <n v="5336.1388256027394"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="13"/>
+    <n v="25732086"/>
+    <n v="82.427562372567934"/>
+    <n v="5281.969411511609"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="13"/>
+    <n v="24774712"/>
+    <n v="78.774227365425858"/>
+    <n v="5047.8632071996508"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="13"/>
+    <n v="27703890"/>
+    <n v="89.951957833926613"/>
+    <n v="5962.0029397719336"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="13"/>
+    <n v="26126074"/>
+    <n v="83.931018861666132"/>
+    <n v="5562.9359631633888"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="13"/>
+    <n v="24294482"/>
+    <n v="76.941671780586645"/>
+    <n v="4697.2937594985751"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="13"/>
+    <n v="25220512"/>
+    <n v="80.475398220477217"/>
+    <n v="4913.0279743881092"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="13"/>
+    <n v="22415642"/>
+    <n v="69.772026537642063"/>
+    <n v="4470.3306383758181"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="13"/>
+    <n v="22157808"/>
+    <n v="68.788133118527412"/>
+    <n v="4407.2920666927703"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="13"/>
+    <n v="17340432"/>
+    <n v="50.4050473199094"/>
+    <n v="4158.4205623130883"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="13"/>
+    <n v="17132694"/>
+    <n v="49.61232001823452"/>
+    <n v="4093.0204945248429"/>
+    <s v="C00031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="14"/>
+    <n v="12965.7"/>
+    <n v="0.10907033075460219"/>
+    <n v="6.9916878688847559"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="14"/>
+    <n v="89730.2"/>
+    <n v="0.93744279797209185"/>
+    <n v="60.09248704949308"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="14"/>
+    <n v="150765.76999999999"/>
+    <n v="1.423230490802206"/>
+    <n v="91.200803488151308"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="14"/>
+    <n v="168009.98"/>
+    <n v="1.5547645772697589"/>
+    <n v="99.629525644855008"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="14"/>
+    <n v="283028.19"/>
+    <n v="2.4320918180933839"/>
+    <n v="161.1986989325884"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="14"/>
+    <n v="376959.41"/>
+    <n v="3.1485733045449371"/>
+    <n v="208.68698969778629"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="14"/>
+    <n v="161795.88"/>
+    <n v="1.507365133240834"/>
+    <n v="92.024733409086338"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="14"/>
+    <n v="240237.36"/>
+    <n v="2.105695147370958"/>
+    <n v="128.55281729981431"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="14"/>
+    <n v="743206.56"/>
+    <n v="5.9886279492890671"/>
+    <n v="383.6945597258466"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="14"/>
+    <n v="604650.06000000006"/>
+    <n v="4.8853348984337464"/>
+    <n v="313.00599049409578"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="14"/>
+    <n v="1618749.12"/>
+    <n v="14.6250566045351"/>
+    <n v="1206.5683764425221"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="14"/>
+    <n v="1841608.38"/>
+    <n v="17.37851279389648"/>
+    <n v="1433.728739225199"/>
+    <s v="C00144"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="15"/>
+    <n v="18885422"/>
+    <n v="0.6813621439835742"/>
+    <n v="43.677060511767593"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="15"/>
+    <n v="38832124"/>
+    <n v="1.3994792700605081"/>
+    <n v="89.710209619263338"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="15"/>
+    <n v="42724028"/>
+    <n v="1.5498264360292171"/>
+    <n v="99.313088882302566"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="15"/>
+    <n v="45720364"/>
+    <n v="1.665577139512658"/>
+    <n v="106.7304097099771"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="15"/>
+    <n v="50879396"/>
+    <n v="1.8648744090089979"/>
+    <n v="123.6036099330307"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="15"/>
+    <n v="48706560"/>
+    <n v="1.7809361272027699"/>
+    <n v="118.04019258293729"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="15"/>
+    <n v="44341856"/>
+    <n v="1.6123243431782179"/>
+    <n v="98.432499583529804"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="15"/>
+    <n v="49078304"/>
+    <n v="1.79529687630292"/>
+    <n v="109.6029839012772"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="15"/>
+    <n v="73806368"/>
+    <n v="2.7505605062107659"/>
+    <n v="176.22986623423969"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="15"/>
+    <n v="80663648"/>
+    <n v="3.0154623676785488"/>
+    <n v="193.20226858868961"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="15"/>
+    <n v="236941232"/>
+    <n v="24.626218091901571"/>
+    <n v="2031.6650242469041"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="15"/>
+    <n v="238929552"/>
+    <n v="25.347086748203779"/>
+    <n v="2091.1367478635598"/>
+    <s v="C00149"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="16"/>
+    <n v="2345763.5"/>
+    <n v="6.2549291715701631"/>
+    <n v="400.95699817757458"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="16"/>
+    <n v="2142917.75"/>
+    <n v="5.6085475287473194"/>
+    <n v="359.52227748380261"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="16"/>
+    <n v="972242.31"/>
+    <n v="2.5015691417094512"/>
+    <n v="160.30089095159329"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="16"/>
+    <n v="950829.75"/>
+    <n v="2.4469629829175452"/>
+    <n v="156.80172086677001"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="16"/>
+    <n v="650377"/>
+    <n v="1.6807505087451451"/>
+    <n v="111.3999040761546"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="16"/>
+    <n v="828929.5"/>
+    <n v="2.136093829099734"/>
+    <n v="141.57999442584651"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="16"/>
+    <n v="2133210.75"/>
+    <n v="5.5776155195389352"/>
+    <n v="340.51376798161999"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="16"/>
+    <n v="2074488.62"/>
+    <n v="5.3904934977097554"/>
+    <n v="329.08995712513769"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="16"/>
+    <n v="1645153.62"/>
+    <n v="4.2176227965143784"/>
+    <n v="270.22532301249242"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="16"/>
+    <n v="1697142.38"/>
+    <n v="4.3502041638966196"/>
+    <n v="278.71988133475702"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="16"/>
+    <n v="1100913.25"/>
+    <n v="2.8297048611910949"/>
+    <n v="233.45088449914991"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="16"/>
+    <n v="1245035.5"/>
+    <n v="3.1972444019534709"/>
+    <n v="263.77292693408828"/>
+    <s v="C00003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="17"/>
+    <n v="55651.24"/>
+    <n v="5.2395689388560332E-2"/>
+    <n v="3.3586980377282272"/>
+    <s v="C00004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="17"/>
+    <n v="41794.31"/>
+    <n v="3.6847415839214331E-2"/>
+    <n v="2.3611874202499852"/>
+    <s v="C00004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="17"/>
+    <n v="39509.15"/>
+    <n v="3.4283334705512737E-2"/>
+    <n v="2.1968807523464711"/>
+    <s v="C00004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="17"/>
+    <n v="77289.990000000005"/>
+    <n v="7.6675613171527476E-2"/>
+    <n v="5.0820487085056607"/>
+    <s v="C00004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="17"/>
+    <n v="79268.91"/>
+    <n v="7.8896075387348136E-2"/>
+    <n v="5.2292206275740218"/>
+    <s v="C00004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="18"/>
+    <n v="719880.31"/>
+    <n v="0.80765054561233995"/>
+    <n v="51.772470872585913"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="18"/>
+    <n v="1290142.8799999999"/>
+    <n v="1.3752910103500811"/>
+    <n v="88.159680150646224"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="18"/>
+    <n v="3482159.25"/>
+    <n v="3.4084011073605169"/>
+    <n v="218.41080668948669"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="18"/>
+    <n v="4255836.5"/>
+    <n v="4.1259920206082441"/>
+    <n v="264.39413004219318"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="18"/>
+    <n v="2818636.25"/>
+    <n v="2.792979010444947"/>
+    <n v="185.11825058591049"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="18"/>
+    <n v="3341242.25"/>
+    <n v="3.2776996311026458"/>
+    <n v="217.2454642110408"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="18"/>
+    <n v="1513621"/>
+    <n v="1.5825684871295591"/>
+    <n v="96.615902755162338"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="18"/>
+    <n v="1773667.88"/>
+    <n v="1.8237637376121369"/>
+    <n v="111.3408875221085"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="18"/>
+    <n v="1277785.75"/>
+    <n v="1.363829688200799"/>
+    <n v="87.381289368187623"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="18"/>
+    <n v="1363242"/>
+    <n v="1.443090941495019"/>
+    <n v="92.459599783122513"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="18"/>
+    <n v="1040753.81"/>
+    <n v="1.1439809511551109"/>
+    <n v="94.378522848819557"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="18"/>
+    <n v="1110813.6200000001"/>
+    <n v="1.208961901596477"/>
+    <n v="99.739456621166013"/>
+    <s v="C00006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="10732.57"/>
+    <n v="1.086217739072699E-2"/>
+    <n v="0.6962934224824997"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="13236.6"/>
+    <n v="1.378558731698187E-2"/>
+    <n v="0.88369149467832542"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="19"/>
+    <n v="50524.2"/>
+    <n v="5.7318188749960183E-2"/>
+    <n v="3.6729573335204591"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="19"/>
+    <n v="36349.83"/>
+    <n v="4.0769867061957607E-2"/>
+    <n v="2.6125386282722589"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="19"/>
+    <n v="93868.59"/>
+    <n v="0.1079219834223331"/>
+    <n v="7.1530536735831749"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="19"/>
+    <n v="109673.62"/>
+    <n v="0.1263740712913905"/>
+    <n v="8.3760554266229299"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="19"/>
+    <n v="14191.11"/>
+    <n v="1.489996055081275E-2"/>
+    <n v="0.90964350127061955"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="19"/>
+    <n v="9283.85"/>
+    <n v="9.170822882848137E-3"/>
+    <n v="0.75659364442861599"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="19"/>
+    <n v="10612.46"/>
+    <n v="1.0721951128963989E-2"/>
+    <n v="0.88456185270138177"/>
+    <s v="C00005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="20"/>
+    <n v="1844384.62"/>
+    <n v="0.38959607857246947"/>
+    <n v="24.974107600799329"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="20"/>
+    <n v="2355612.25"/>
+    <n v="0.50525686021568983"/>
+    <n v="32.388260270236543"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="20"/>
+    <n v="426799"/>
+    <n v="7.1283669310775899E-2"/>
+    <n v="4.5678672279302184"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="20"/>
+    <n v="488809.88"/>
+    <n v="8.5207930628577483E-2"/>
+    <n v="5.4601357876395502"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="20"/>
+    <n v="333815.96999999997"/>
+    <n v="5.040475245229907E-2"/>
+    <n v="3.340819805766817"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="20"/>
+    <n v="349938.75"/>
+    <n v="5.4025049437109243E-2"/>
+    <n v="3.5807725737336411"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="20"/>
+    <n v="2216341.75"/>
+    <n v="0.47311736188822778"/>
+    <n v="28.883843827120138"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="20"/>
+    <n v="2648617"/>
+    <n v="0.584042809923911"/>
+    <n v="35.65584920170398"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="20"/>
+    <n v="2780558.75"/>
+    <n v="0.61952058316791014"/>
+    <n v="39.693011389684017"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="20"/>
+    <n v="3164341.25"/>
+    <n v="0.72271573186053506"/>
+    <n v="46.304779139951513"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="20"/>
+    <n v="2666558.25"/>
+    <n v="0.58886702666511603"/>
+    <n v="48.581578281450362"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="20"/>
+    <n v="2960605"/>
+    <n v="0.66793315940653364"/>
+    <n v="55.104540755579791"/>
+    <s v="C00074"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1_1"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="21"/>
+    <n v="2797729.75"/>
+    <n v="2.862925259824769"/>
+    <n v="183.52084998876731"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="A1_2"/>
+    <n v="5"/>
+    <n v="0.2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <x v="21"/>
+    <n v="3220742.25"/>
+    <n v="3.2881567138936019"/>
+    <n v="210.77927653164119"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A2_1"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="21"/>
+    <n v="4691840"/>
+    <n v="4.766971253203641"/>
+    <n v="305.46816647530039"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="A2_2"/>
+    <n v="20"/>
+    <n v="0.27"/>
+    <n v="7.41"/>
+    <n v="2.0007000000000001"/>
+    <x v="21"/>
+    <n v="5208944.5"/>
+    <n v="5.4253619044747152"/>
+    <n v="347.65792898605463"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="A3_1"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="21"/>
+    <n v="12313113"/>
+    <n v="23.827168264025939"/>
+    <n v="1579.261315232699"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="21"/>
+    <n v="12171457"/>
+    <n v="23.341853766043581"/>
+    <n v="1547.0947395031651"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="21"/>
+    <n v="3541776.75"/>
+    <n v="3.6108752322382389"/>
+    <n v="220.4441533722979"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="21"/>
+    <n v="3744497"/>
+    <n v="3.81465887143731"/>
+    <n v="232.88515698640481"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="B2_1"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="21"/>
+    <n v="9359056"/>
+    <n v="13.70654725279962"/>
+    <n v="878.18573103189556"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="B2_2"/>
+    <n v="0.47"/>
+    <n v="0.57999999999999996"/>
+    <n v="3.45"/>
+    <n v="2.0009999999999999"/>
+    <x v="21"/>
+    <n v="13634589"/>
+    <n v="28.354554760437939"/>
+    <n v="1816.691318471401"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="21"/>
+    <n v="44001220"/>
+    <n v="132.39085593497751"/>
+    <n v="10922.256536892181"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="B3_2"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="21"/>
+    <n v="49707612"/>
+    <n v="151.94099690161889"/>
+    <n v="12535.14477952834"/>
+    <s v="C00022"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="A3_2"/>
+    <n v="40"/>
+    <n v="0.28999999999999998"/>
+    <n v="6.67"/>
+    <n v="1.9342999999999999"/>
+    <x v="22"/>
+    <n v="79260.86"/>
+    <n v="2.1745485531613151E-2"/>
+    <n v="1.4412876805372621"/>
+    <s v="C00044"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="B1_1"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="22"/>
+    <n v="142650.17000000001"/>
+    <n v="7.1674964745430697E-2"/>
+    <n v="4.3757609734695189"/>
+    <s v="C00044"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="B1_2"/>
+    <n v="0.2"/>
+    <n v="0.21"/>
+    <n v="10"/>
+    <n v="2.1"/>
+    <x v="22"/>
+    <n v="63949.919999999998"/>
+    <n v="9.6856088666990303E-3"/>
+    <n v="0.59130701261898855"/>
+    <s v="C00044"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="B3_1"/>
+    <n v="0.57999999999999996"/>
+    <n v="1.4"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.554"/>
+    <x v="22"/>
+    <n v="60955.05"/>
+    <n v="7.3266575007181478E-3"/>
+    <n v="0.60444984825909553"/>
+    <s v="C00044"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="5.12"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.11130434782608696"/>
+    <n v="108530.4970696766"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="5.12"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.11130434782608696"/>
+    <n v="108530.4970696766"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="20.21"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.43934782608695655"/>
+    <n v="434121.98827870633"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="20.21"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.43934782608695655"/>
+    <n v="434121.98827870633"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="40.380000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.87782608695652176"/>
+    <n v="868243.97655741253"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="+EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="40.380000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="0.87782608695652176"/>
+    <n v="868243.97655741253"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="0.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="4.3478260869565218E-3"/>
+    <n v="4341.2198827870634"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="0.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="4.3478260869565218E-3"/>
+    <n v="4341.2198827870634"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="0.47"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="1.0217391304347826E-2"/>
+    <n v="10201.8667245496"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="0.47"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="1.0217391304347826E-2"/>
+    <n v="10201.8667245496"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="1.2608695652173912E-2"/>
+    <n v="12589.53766008248"/>
+    <s v="C00469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="no EtOH"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+    <n v="1.2608695652173912E-2"/>
+    <n v="12589.53766008248"/>
+    <s v="C00469"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2AC1CD-BCD4-45F9-BF7C-023446EAA0DC}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="25">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="23"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="0"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="1">
+    <i>
+      <x v="22"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of amount_int" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C165" workbookViewId="0">
-      <selection activeCell="S172" sqref="S172"/>
+    <sheetView topLeftCell="C241" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:Q266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14579,4 +19395,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CB761-E6AA-4493-97F2-55FBBDEB9DD6}">
+  <dimension ref="A3:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2.0166666666666671</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>24.974107600799329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>32.388260270236543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4.5678672279302184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.4601357876395502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>5.9166666666666643</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3.340819805766817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3.5807725737336411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2.0166666666666671</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>28.883843827120138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6">
+        <v>35.65584920170398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>39.693011389684017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6">
+        <v>46.304779139951513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>5.9166666666666643</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6">
+        <v>48.581578281450362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6">
+        <v>55.104540755579791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>